--- a/data/exhibition-v2.xlsx
+++ b/data/exhibition-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hildad/Documents/GitHub/lyingpendatabases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3B4901-D284-034F-A549-895144FCDA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAB3FEF-98CD-D740-BDF2-5A7DF87E5E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28760" yWindow="0" windowWidth="22440" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSS Exhibitions" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="535">
   <si>
     <t>Location</t>
   </si>
@@ -4778,592 +4778,10 @@
     <t>Mexico City (Mexico)</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>31.76904</t>
-  </si>
-  <si>
-    <t>38.89511</t>
-  </si>
-  <si>
-    <t>39.29038</t>
-  </si>
-  <si>
-    <t>42.33176</t>
-  </si>
-  <si>
-    <t>35.99403</t>
-  </si>
-  <si>
-    <t>51.50853</t>
-  </si>
-  <si>
-    <t>41.85003</t>
-  </si>
-  <si>
-    <t>31.95522</t>
-  </si>
-  <si>
-    <t>42.26259</t>
-  </si>
-  <si>
-    <t>41.70037</t>
-  </si>
-  <si>
-    <t>29.54725</t>
-  </si>
-  <si>
-    <t>40.71427</t>
-  </si>
-  <si>
-    <t>52.07667</t>
-  </si>
-  <si>
-    <t>32.81841</t>
-  </si>
-  <si>
-    <t>33.89332</t>
-  </si>
-  <si>
-    <t>35.21633</t>
-  </si>
-  <si>
-    <t>-77.03637</t>
-  </si>
-  <si>
-    <t>-76.61219</t>
-  </si>
-  <si>
-    <t>-71.12116</t>
-  </si>
-  <si>
-    <t>-78.89862</t>
-  </si>
-  <si>
-    <t>-0.12574</t>
-  </si>
-  <si>
-    <t>-87.65005</t>
-  </si>
-  <si>
-    <t>35.94503</t>
-  </si>
-  <si>
-    <t>-71.80229</t>
-  </si>
-  <si>
-    <t>-73.92097</t>
-  </si>
-  <si>
-    <t>34.99878</t>
-  </si>
-  <si>
-    <t>-74.00597</t>
-  </si>
-  <si>
-    <t>4.29861</t>
-  </si>
-  <si>
-    <t>34.9885</t>
-  </si>
-  <si>
-    <t>35.50157</t>
-  </si>
-  <si>
-    <t>50.9</t>
-  </si>
-  <si>
-    <t>4.3369444444</t>
-  </si>
-  <si>
-    <t>43.70011</t>
-  </si>
-  <si>
-    <t>-34.61787</t>
-  </si>
-  <si>
-    <t>43.07305</t>
-  </si>
-  <si>
-    <t>43.0389</t>
-  </si>
-  <si>
-    <t>34.05223</t>
-  </si>
-  <si>
-    <t>39.95238</t>
-  </si>
-  <si>
-    <t>37.87159</t>
-  </si>
-  <si>
-    <t>34.09668</t>
-  </si>
-  <si>
-    <t>41.25626</t>
-  </si>
-  <si>
-    <t>-79.4163</t>
-  </si>
-  <si>
-    <t>-58.47748</t>
-  </si>
-  <si>
-    <t>-89.40123</t>
-  </si>
-  <si>
-    <t>-87.90647</t>
-  </si>
-  <si>
-    <t>-118.24368</t>
-  </si>
-  <si>
-    <t>-75.16362</t>
-  </si>
-  <si>
-    <t>-122.27275</t>
-  </si>
-  <si>
-    <t>-117.71978</t>
-  </si>
-  <si>
-    <t>-95.94043</t>
-  </si>
-  <si>
-    <t>19.432608</t>
-  </si>
-  <si>
-    <t>-99.133209</t>
-  </si>
-  <si>
-    <t>45.50884</t>
-  </si>
-  <si>
-    <t>48.85341</t>
-  </si>
-  <si>
-    <t>-73.58781</t>
-  </si>
-  <si>
-    <t>2.3488</t>
-  </si>
-  <si>
-    <t>29.76328</t>
-  </si>
-  <si>
-    <t>37.77493</t>
-  </si>
-  <si>
-    <t>41.90225</t>
-  </si>
-  <si>
-    <t>40.23384</t>
-  </si>
-  <si>
-    <t>48.20849</t>
-  </si>
-  <si>
-    <t>53.45</t>
-  </si>
-  <si>
-    <t>55.86515</t>
-  </si>
-  <si>
-    <t>59.91273</t>
-  </si>
-  <si>
-    <t>50.93333</t>
-  </si>
-  <si>
-    <t>47.42391</t>
-  </si>
-  <si>
-    <t>-33.86785</t>
-  </si>
-  <si>
-    <t>-37.814</t>
-  </si>
-  <si>
-    <t>33.43532</t>
-  </si>
-  <si>
-    <t>42.96336</t>
-  </si>
-  <si>
-    <t>50.84833</t>
-  </si>
-  <si>
-    <t>36.11935</t>
-  </si>
-  <si>
-    <t>32.78306</t>
-  </si>
-  <si>
-    <t>32.72541</t>
-  </si>
-  <si>
-    <t>45.41117</t>
-  </si>
-  <si>
-    <t>34.7304</t>
-  </si>
-  <si>
-    <t>41.08144</t>
-  </si>
-  <si>
-    <t>40.44062</t>
-  </si>
-  <si>
-    <t>59.7484</t>
-  </si>
-  <si>
-    <t>39.76838</t>
-  </si>
-  <si>
-    <t>42.9978</t>
-  </si>
-  <si>
-    <t>41.68199</t>
-  </si>
-  <si>
-    <t>-95.36327</t>
-  </si>
-  <si>
-    <t>-122.41942</t>
-  </si>
-  <si>
-    <t>12.4533</t>
-  </si>
-  <si>
-    <t>-111.65853</t>
-  </si>
-  <si>
-    <t>16.37208</t>
-  </si>
-  <si>
-    <t>-2.23333</t>
-  </si>
-  <si>
-    <t>-4.25763</t>
-  </si>
-  <si>
-    <t>10.74609</t>
-  </si>
-  <si>
-    <t>6.95</t>
-  </si>
-  <si>
-    <t>9.37477</t>
-  </si>
-  <si>
-    <t>151.20732</t>
-  </si>
-  <si>
-    <t>144.96332</t>
-  </si>
-  <si>
-    <t>-112.35821</t>
-  </si>
-  <si>
-    <t>-85.66809</t>
-  </si>
-  <si>
-    <t>5.68889</t>
-  </si>
-  <si>
-    <t>-86.64518</t>
-  </si>
-  <si>
-    <t>-96.80667</t>
-  </si>
-  <si>
-    <t>-97.32085</t>
-  </si>
-  <si>
-    <t>-75.69812</t>
-  </si>
-  <si>
-    <t>-86.58594</t>
-  </si>
-  <si>
-    <t>-81.51901</t>
-  </si>
-  <si>
-    <t>-79.99589</t>
-  </si>
-  <si>
-    <t>10.1891</t>
-  </si>
-  <si>
-    <t>-86.15804</t>
-  </si>
-  <si>
-    <t>-84.17664</t>
-  </si>
-  <si>
-    <t>-85.97667</t>
-  </si>
-  <si>
-    <t>35.95569</t>
-  </si>
-  <si>
-    <t>30.69436</t>
-  </si>
-  <si>
-    <t>35.96064</t>
-  </si>
-  <si>
-    <t>37.08339</t>
-  </si>
-  <si>
-    <t>52.52437</t>
-  </si>
-  <si>
-    <t>37.98869</t>
-  </si>
-  <si>
-    <t>28.12342</t>
-  </si>
-  <si>
-    <t>35.22709</t>
-  </si>
-  <si>
-    <t>41.4645</t>
-  </si>
-  <si>
-    <t>29.21081</t>
-  </si>
-  <si>
-    <t>47.60621</t>
-  </si>
-  <si>
-    <t>-80.00532</t>
-  </si>
-  <si>
-    <t>-88.04305</t>
-  </si>
-  <si>
-    <t>-83.92074</t>
-  </si>
-  <si>
-    <t>-88.60005</t>
-  </si>
-  <si>
-    <t>13.41053</t>
-  </si>
-  <si>
-    <t>-84.47772</t>
-  </si>
-  <si>
-    <t>-82.52853</t>
-  </si>
-  <si>
-    <t>-80.84313</t>
-  </si>
-  <si>
-    <t>-81.50873</t>
-  </si>
-  <si>
-    <t>-81.02283</t>
-  </si>
-  <si>
-    <t>-122.33207</t>
-  </si>
-  <si>
-    <t>43.46658</t>
-  </si>
-  <si>
-    <t>33.749</t>
-  </si>
-  <si>
-    <t>-112.03414</t>
-  </si>
-  <si>
-    <t>-84.38798</t>
-  </si>
-  <si>
-    <t>32.71571</t>
-  </si>
-  <si>
-    <t>-117.16472</t>
-  </si>
-  <si>
-    <t>37.566</t>
-  </si>
-  <si>
-    <t>34.01434</t>
-  </si>
-  <si>
-    <t>33.5806</t>
-  </si>
-  <si>
-    <t>47.49835</t>
-  </si>
-  <si>
-    <t>1.36667</t>
-  </si>
-  <si>
-    <t>36.30477</t>
-  </si>
-  <si>
-    <t>44.94441</t>
-  </si>
-  <si>
-    <t>38.78046</t>
-  </si>
-  <si>
-    <t>34.13362</t>
-  </si>
-  <si>
-    <t>126.9784</t>
-  </si>
-  <si>
-    <t>-86.00639</t>
-  </si>
-  <si>
-    <t>-112.23738</t>
-  </si>
-  <si>
-    <t>19.04045</t>
-  </si>
-  <si>
-    <t>103.8</t>
-  </si>
-  <si>
-    <t>-86.62</t>
-  </si>
-  <si>
-    <t>-93.09327</t>
-  </si>
-  <si>
-    <t>-120.99764</t>
-  </si>
-  <si>
-    <t>-117.90756</t>
-  </si>
-  <si>
-    <t>40.86867</t>
-  </si>
-  <si>
-    <t>31.54933</t>
-  </si>
-  <si>
-    <t>35.46756</t>
-  </si>
-  <si>
-    <t>35.48341</t>
-  </si>
-  <si>
-    <t>34.11176</t>
-  </si>
-  <si>
-    <t>39.12711</t>
-  </si>
-  <si>
-    <t>38.83388</t>
-  </si>
-  <si>
-    <t>42.35843</t>
-  </si>
-  <si>
-    <t>40.76078</t>
-  </si>
-  <si>
-    <t>37.21533</t>
-  </si>
-  <si>
-    <t>22.27832</t>
-  </si>
-  <si>
-    <t>34.39166</t>
-  </si>
-  <si>
-    <t>48.37154</t>
-  </si>
-  <si>
-    <t>41.61059</t>
-  </si>
-  <si>
-    <t>-82.31822</t>
-  </si>
-  <si>
-    <t>-97.14667</t>
-  </si>
-  <si>
-    <t>-97.51643</t>
-  </si>
-  <si>
-    <t>-86.46027</t>
-  </si>
-  <si>
-    <t>-118.18076</t>
-  </si>
-  <si>
-    <t>-84.51439</t>
-  </si>
-  <si>
-    <t>-104.82136</t>
-  </si>
-  <si>
-    <t>-71.05977</t>
-  </si>
-  <si>
-    <t>-111.89105</t>
-  </si>
-  <si>
-    <t>-93.29824</t>
-  </si>
-  <si>
-    <t>114.17469</t>
-  </si>
-  <si>
-    <t>-118.54259</t>
-  </si>
-  <si>
-    <t>10.89851</t>
-  </si>
-  <si>
-    <t>-87.0642</t>
-  </si>
-  <si>
-    <t>39.73915</t>
-  </si>
-  <si>
-    <t>-104.9847</t>
-  </si>
-  <si>
-    <t>43.018600</t>
-  </si>
-  <si>
-    <t>-88.259773</t>
-  </si>
-  <si>
-    <t>61.581390</t>
-  </si>
-  <si>
-    <t>-149.439438</t>
-  </si>
-  <si>
     <t>Sao Paulo, Brazil</t>
   </si>
   <si>
-    <t>-23.533773</t>
-  </si>
-  <si>
-    <t>-46.625290</t>
-  </si>
-  <si>
     <t>Kansas City (MO)</t>
-  </si>
-  <si>
-    <t>39.099724</t>
-  </si>
-  <si>
-    <t>-94.578331</t>
   </si>
   <si>
     <t>Various old Bibles; The Declaration of Independence and the Consitution of the United States</t>
@@ -8838,28 +8256,6 @@
     <t>11Q1 paleoLeva frag. L</t>
   </si>
   <si>
-    <r>
-      <t>Genesis frg; 4Q226 psJub</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo"/>
-      </rPr>
-      <t xml:space="preserve"> frag. 6a "Genesis Midrash"; Isa 24:16–17; Isa 26:19–27:4</t>
-    </r>
-  </si>
-  <si>
     <t>Biondi, Lee R. "Curriculum Vitae of Lee Raffaele Biondi." Biondi Rare Books and Manuscripts. http://www.biondirarebooks.com/cv.html.
 Biondi, Lee R. "Fax to William Kando." 24 January 2003.
 The European Fine Art Foundation, ed. TEFAF Maastricht 2003.
@@ -9080,6 +8476,55 @@
       </rPr>
       <t>; Facsimile of 4Q162 pIsab; Facsimile of 4Q175 Test; Jeselsohn Dead Sea Stone</t>
     </r>
+  </si>
+  <si>
+    <t>Temple, Scrolls, and Divine Messengers: Archaeology of the Land of Israel in Roman Times</t>
+  </si>
+  <si>
+    <t>"Temple, Scrolls, and Divine Messengers: Archaeology of the Land of Israel in Roman Times." Asia Society. https://asiasociety.org/hong-kong/exhibitions/temple-scrolls-and-divine-messengers-archaeology-land-israel-roman-times</t>
+  </si>
+  <si>
+    <t>Chantal Miller Gallery</t>
+  </si>
+  <si>
+    <r>
+      <t>11Q1 paleoLeva frag. L; Genesis frg; 4Q226 psJub</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo"/>
+      </rPr>
+      <t xml:space="preserve"> frag. 6a "Genesis Midrash"; Isa 24:16–17; Isa 26:19–27:4</t>
+    </r>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>NL-03-1</t>
+  </si>
+  <si>
+    <t>NL-03-2</t>
+  </si>
+  <si>
+    <t>CA-09-1</t>
+  </si>
+  <si>
+    <t>CA-09-2</t>
+  </si>
+  <si>
+    <t>CA-09-3</t>
   </si>
 </sst>
 </file>
@@ -9220,7 +8665,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9267,6 +8712,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -9472,7 +8923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -9608,9 +9059,6 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9623,7 +9071,7 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9651,13 +9099,10 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9672,38 +9117,32 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <strike val="0"/>
@@ -10180,8 +9619,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F267CA58-9D08-4E9A-9AE6-AD278FCC139B}" name="DDSExhibitions" displayName="DDSExhibitions" ref="A1:O157" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:O157" xr:uid="{53257E07-4180-4B0D-A1EC-009DB45A7224}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F267CA58-9D08-4E9A-9AE6-AD278FCC139B}" name="DDSExhibitions" displayName="DDSExhibitions" ref="A1:N157" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N157" xr:uid="{53257E07-4180-4B0D-A1EC-009DB45A7224}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -10196,31 +9635,29 @@
     <filterColumn colId="11" hiddenButton="1"/>
     <filterColumn colId="12" hiddenButton="1"/>
     <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L157">
     <sortCondition ref="B1:B157"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6E8E6F3C-5F82-40ED-864B-323B30A4A99D}" name="Decade" dataDxfId="14">
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{6E8E6F3C-5F82-40ED-864B-323B30A4A99D}" name="Decade" dataDxfId="13">
       <calculatedColumnFormula>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0E558AE3-7945-47B6-A9D2-78C0817B6497}" name="Start Date" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{F4EBBEF9-BDAA-4B3E-8858-3746811D49DE}" name="End Date" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{5341E3B5-52A6-4B9A-9AB3-788367F81CE7}" name="Exhibition" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{9FBB9AA7-5D9E-4263-8D4A-2EB0E2389467}" name="Venue" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2AC69F30-0E90-43AE-8C48-C157B3A5DF57}" name="Location" dataDxfId="9"/>
-    <tableColumn id="36" xr3:uid="{86EEE22F-0C21-4F4F-AB26-2DBE93DD2E3B}" name="Dead Sea Scrolls Exhibited" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{2BE31BEC-A5A3-4E65-A1D1-2444378A23D9}" name="Guide" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{473DAB7E-391D-4962-9C3E-9B2B88FC21D2}" name="Number of Visitors" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{E13E9202-4154-4264-877A-7C613551F741}" name="Other Items Exhibited" dataDxfId="5"/>
-    <tableColumn id="32" xr3:uid="{FDEE4217-BA5F-40DF-B0B0-1B1871365B71}" name="Sources" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{28440314-E4B5-494A-96CD-F973E8F7A4F2}" name="Summarising" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{0E558AE3-7945-47B6-A9D2-78C0817B6497}" name="Start Date" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F4EBBEF9-BDAA-4B3E-8858-3746811D49DE}" name="End Date" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{5341E3B5-52A6-4B9A-9AB3-788367F81CE7}" name="Exhibition" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{9FBB9AA7-5D9E-4263-8D4A-2EB0E2389467}" name="Venue" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2AC69F30-0E90-43AE-8C48-C157B3A5DF57}" name="Location" dataDxfId="8"/>
+    <tableColumn id="36" xr3:uid="{86EEE22F-0C21-4F4F-AB26-2DBE93DD2E3B}" name="Dead Sea Scrolls Exhibited" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{2BE31BEC-A5A3-4E65-A1D1-2444378A23D9}" name="Guide" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{473DAB7E-391D-4962-9C3E-9B2B88FC21D2}" name="Number of Visitors" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{E13E9202-4154-4264-877A-7C613551F741}" name="Other Items Exhibited" dataDxfId="4"/>
+    <tableColumn id="32" xr3:uid="{FDEE4217-BA5F-40DF-B0B0-1B1871365B71}" name="Sources" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{28440314-E4B5-494A-96CD-F973E8F7A4F2}" name="Summarising" dataDxfId="2">
       <calculatedColumnFormula>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5C631284-44F9-124C-A594-9A69C03E97B3}" name="Latitude" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{1B240A6D-8CD7-E940-9360-9FB71BA6FB96}" name="Longitude" dataDxfId="1"/>
-    <tableColumn id="37" xr3:uid="{2D952CC8-A4CE-434B-988C-E9E1DC8FB05F}" name="Country" dataDxfId="0"/>
+    <tableColumn id="37" xr3:uid="{2D952CC8-A4CE-434B-988C-E9E1DC8FB05F}" name="Country" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{428FDF12-741B-1447-AE51-52D84BE60973}" name="Rotation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -10526,12 +9963,12 @@
   <sheetPr codeName="Ark1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AI162"/>
+  <dimension ref="A1:AG162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10548,24 +9985,23 @@
     <col min="10" max="10" width="39.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="51" style="2" customWidth="1"/>
     <col min="12" max="12" width="27.33203125" style="24" customWidth="1"/>
-    <col min="13" max="14" width="27.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" style="23" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" customWidth="1"/>
-    <col min="20" max="20" width="9.1640625" customWidth="1"/>
-    <col min="21" max="21" width="16.5" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" customWidth="1"/>
-    <col min="25" max="25" width="16.5" customWidth="1"/>
-    <col min="26" max="26" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="34" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16.5" customWidth="1"/>
+    <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -10602,17 +10038,15 @@
       <c r="L1" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="20" t="s">
-        <v>417</v>
+      <c r="M1" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+        <v>529</v>
+      </c>
+      <c r="O1" s="23"/>
+      <c r="P1"/>
+      <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
@@ -10629,10 +10063,8 @@
       <c r="AE1"/>
       <c r="AF1"/>
       <c r="AG1"/>
-      <c r="AH1"/>
-      <c r="AI1"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1940</v>
@@ -10665,17 +10097,13 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v xml:space="preserve">1948/12/28–1948/12/30: The Fifth Convention of the Jewish Palestine Exploration Society at the </v>
       </c>
-      <c r="M2" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>617</v>
-      </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="M2" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="N2" s="47"/>
+      <c r="O2" s="23"/>
+      <c r="P2"/>
+      <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -10692,10 +10120,8 @@
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" ht="263" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" s="1" customFormat="1" ht="263" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1940</v>
@@ -10707,7 +10133,7 @@
         <v>18208</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>672</v>
+        <v>478</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>147</v>
@@ -10723,7 +10149,7 @@
         <v>15000</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>613</v>
+        <v>419</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>359</v>
@@ -10732,17 +10158,13 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1949/10/22–1949/11/6: Ancient Hebrew Scrolls at the Library of Congress</v>
       </c>
-      <c r="M3" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>435</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>619</v>
-      </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
+      <c r="M3" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N3" s="47"/>
+      <c r="O3" s="23"/>
+      <c r="P3"/>
+      <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -10759,10 +10181,8 @@
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
     </row>
-    <row r="4" spans="1:35" s="1" customFormat="1" ht="130" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="1" customFormat="1" ht="130" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1940</v>
@@ -10795,17 +10215,13 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1949/11/10–1949/11/17: Exhibition at the Walters Art Gallery</v>
       </c>
-      <c r="M4" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>436</v>
-      </c>
-      <c r="O4" s="48" t="s">
-        <v>619</v>
-      </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
+      <c r="M4" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N4" s="47"/>
+      <c r="O4" s="23"/>
+      <c r="P4"/>
+      <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -10822,10 +10238,8 @@
       <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
     </row>
-    <row r="5" spans="1:35" ht="190" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="190" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -10858,17 +10272,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1950/1/10–1950/1/10: Exhibition at the Zion Research Library</v>
       </c>
-      <c r="M5" s="47" t="s">
-        <v>422</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="O5" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M5" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N5" s="47"/>
     </row>
-    <row r="6" spans="1:35" ht="140" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="140" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -10901,17 +10310,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1950/2/12–1950/2/17: Exhibition at the Duke University</v>
       </c>
-      <c r="M6" s="47" t="s">
-        <v>423</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>438</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M6" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N6" s="47"/>
     </row>
-    <row r="7" spans="1:35" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -10944,17 +10348,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1950/2/15–1950/2/15: Exhibition at the The British Museum</v>
       </c>
-      <c r="M7" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="N7" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>620</v>
-      </c>
+      <c r="M7" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="N7" s="47"/>
     </row>
-    <row r="8" spans="1:35" ht="90" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -10975,29 +10374,24 @@
         <v>114</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>681</v>
+        <v>487</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="37"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="52" t="s">
-        <v>643</v>
+      <c r="K8" s="51" t="s">
+        <v>449</v>
       </c>
       <c r="L8" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1950/11/17–1950/11/26: Exhibition at the University of Chicago Oriental Institute</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="48" t="s">
         <v>425</v>
       </c>
-      <c r="N8" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="O8" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="N8" s="47"/>
     </row>
-    <row r="9" spans="1:35" ht="58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="58" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11018,7 +10412,7 @@
         <v>318</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>682</v>
+        <v>488</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="37"/>
@@ -11028,17 +10422,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1951/1/1–2009/1/1: Exhibition at the Jordan Archaeological Museum</v>
       </c>
-      <c r="M9" s="47" t="s">
-        <v>426</v>
-      </c>
-      <c r="N9" s="47" t="s">
-        <v>441</v>
-      </c>
-      <c r="O9" s="48" t="s">
-        <v>621</v>
-      </c>
+      <c r="M9" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="N9" s="47"/>
     </row>
-    <row r="10" spans="1:35" ht="90" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="90" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11071,17 +10460,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1951/10/1–1951/10/3: Exhibition at the Worcester Museum of Art</v>
       </c>
-      <c r="M10" s="47" t="s">
-        <v>427</v>
-      </c>
-      <c r="N10" s="47" t="s">
-        <v>442</v>
-      </c>
-      <c r="O10" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M10" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N10" s="47"/>
     </row>
-    <row r="11" spans="1:35" ht="70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="70" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11114,17 +10498,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1951/11/1–1951/12/1: Exhibition at the Vassar College</v>
       </c>
-      <c r="M11" s="47" t="s">
-        <v>428</v>
-      </c>
-      <c r="N11" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="O11" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M11" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N11" s="47"/>
     </row>
-    <row r="12" spans="1:35" ht="110" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="110" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11157,17 +10536,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1952/12/9–1952/12/9: Exhibition at the Palestine Archaeological Museum</v>
       </c>
-      <c r="M12" s="47" t="s">
-        <v>429</v>
-      </c>
-      <c r="N12" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="O12" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M12" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N12" s="47"/>
     </row>
-    <row r="13" spans="1:35" ht="71" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11196,23 +10570,18 @@
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
-        <v>644</v>
+        <v>450</v>
       </c>
       <c r="L13" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1953/6/1–1953/11/1: From the Land of the Bible at the Metropolitan Museum of Art</v>
       </c>
-      <c r="M13" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="N13" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="O13" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M13" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N13" s="47"/>
     </row>
-    <row r="14" spans="1:35" ht="190" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="190" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11247,17 +10616,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/1/10–1954/1/27: From the Land of the Bible at the National Gallery of Art</v>
       </c>
-      <c r="M14" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="N14" s="47" t="s">
-        <v>435</v>
-      </c>
-      <c r="O14" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M14" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N14" s="47"/>
     </row>
-    <row r="15" spans="1:35" ht="71" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="71" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11292,17 +10656,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/2/17–1954/3/17: From the Land of the Bible at the Walters Art Gallery</v>
       </c>
-      <c r="M15" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="N15" s="47" t="s">
-        <v>436</v>
-      </c>
-      <c r="O15" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M15" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N15" s="47"/>
     </row>
-    <row r="16" spans="1:35" ht="71" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="71" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11335,17 +10694,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/6/1–1954/9/1: From the Land of the Bible at the Gemeentemuseum Den Haag</v>
       </c>
-      <c r="M16" s="47" t="s">
-        <v>431</v>
-      </c>
-      <c r="N16" s="47" t="s">
-        <v>446</v>
-      </c>
-      <c r="O16" s="48" t="s">
-        <v>622</v>
-      </c>
+      <c r="M16" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="N16" s="47"/>
     </row>
-    <row r="17" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11366,7 +10720,7 @@
         <v>211</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>683</v>
+        <v>489</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="37"/>
@@ -11378,17 +10732,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/6/5–1954/6/12: Bible Week at the Beitenu</v>
       </c>
-      <c r="M17" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="N17" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="O17" s="48" t="s">
-        <v>617</v>
-      </c>
+      <c r="M17" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="N17" s="47"/>
     </row>
-    <row r="18" spans="1:15" ht="100" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="110" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11423,17 +10772,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/10/26–1954/12/31: From the Land of the Bible at the British Museum</v>
       </c>
-      <c r="M18" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="N18" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="O18" s="48" t="s">
-        <v>620</v>
-      </c>
+      <c r="M18" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="N18" s="47"/>
     </row>
-    <row r="19" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11454,29 +10798,24 @@
         <v>204</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>683</v>
+        <v>489</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="37"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="52" t="s">
-        <v>615</v>
+      <c r="K19" s="51" t="s">
+        <v>421</v>
       </c>
       <c r="L19" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/12/21–1954/12/21: 30th Anniversary of Jewish Studies Institute at the Hebrew University</v>
       </c>
-      <c r="M19" s="47" t="s">
-        <v>429</v>
-      </c>
-      <c r="N19" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="O19" s="48" t="s">
-        <v>621</v>
-      </c>
+      <c r="M19" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="N19" s="47"/>
     </row>
-    <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11503,17 +10842,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1956/1/1–1900/1/0: Exhibition at the The University of Chicago Oriental Institute Museum</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="48" t="s">
         <v>425</v>
       </c>
-      <c r="N20" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="O20" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="N20" s="47"/>
     </row>
-    <row r="21" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11544,17 +10878,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1957/1/1–1957/1/1: Exhibition at the Hebrew University</v>
       </c>
-      <c r="M21" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="N21" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="O21" s="48" t="s">
-        <v>617</v>
-      </c>
+      <c r="M21" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="N21" s="47"/>
     </row>
-    <row r="22" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11580,24 +10909,19 @@
       <c r="H22" s="12"/>
       <c r="I22" s="37"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="52" t="s">
-        <v>645</v>
+      <c r="K22" s="51" t="s">
+        <v>451</v>
       </c>
       <c r="L22" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1957/3/25–1957/7/21: Exhibition at the Beirut Museum</v>
       </c>
-      <c r="M22" s="47" t="s">
-        <v>433</v>
-      </c>
-      <c r="N22" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="O22" s="48" t="s">
-        <v>623</v>
-      </c>
+      <c r="M22" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="N22" s="47"/>
     </row>
-    <row r="23" spans="1:15" ht="100" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="100" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11615,7 +10939,7 @@
         <v>186</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>614</v>
+        <v>420</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>157</v>
@@ -11632,17 +10956,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1958/4/17–1958/10/19: Exhibition at the Brussels World's Fair</v>
       </c>
-      <c r="M23" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="N23" s="49" t="s">
-        <v>450</v>
-      </c>
-      <c r="O23" s="48" t="s">
-        <v>624</v>
-      </c>
+      <c r="M23" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="N23" s="47"/>
     </row>
-    <row r="24" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11663,29 +10982,24 @@
         <v>185</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>696</v>
+        <v>502</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="37"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="52" t="s">
-        <v>615</v>
+      <c r="K24" s="51" t="s">
+        <v>421</v>
       </c>
       <c r="L24" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1958/6/5–1958/6/5: Exhibition at the Binyanei haUmah</v>
       </c>
-      <c r="M24" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="N24" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="O24" s="48" t="s">
-        <v>617</v>
-      </c>
+      <c r="M24" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="N24" s="47"/>
     </row>
-    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1950</v>
@@ -11714,17 +11028,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1958/12/16–1959/1/4: Men who Hid the Dead Sea Scrolls at the Royal Ontario Museum</v>
       </c>
-      <c r="M25" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="N25" s="47" t="s">
-        <v>460</v>
-      </c>
-      <c r="O25" s="48" t="s">
-        <v>625</v>
-      </c>
+      <c r="M25" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="N25" s="47"/>
     </row>
-    <row r="26" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -11750,24 +11059,19 @@
       <c r="H26" s="12"/>
       <c r="I26" s="37"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="52" t="s">
-        <v>615</v>
+      <c r="K26" s="51" t="s">
+        <v>421</v>
       </c>
       <c r="L26" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1960/9/25–1960/10/1: Exhibition at the National Art Museum</v>
       </c>
-      <c r="M26" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="N26" s="47" t="s">
-        <v>461</v>
-      </c>
-      <c r="O26" s="48" t="s">
-        <v>626</v>
-      </c>
+      <c r="M26" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="N26" s="47"/>
     </row>
-    <row r="27" spans="1:15" ht="110" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="110" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -11788,31 +11092,26 @@
         <v>146</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>684</v>
+        <v>490</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>302</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="52" t="s">
-        <v>646</v>
+      <c r="K27" s="51" t="s">
+        <v>452</v>
       </c>
       <c r="L27" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1964/4/22–1964/10/18: Exhibition at the New York World's Fair</v>
       </c>
-      <c r="M27" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="N27" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="O27" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M27" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N27" s="47"/>
     </row>
-    <row r="28" spans="1:15" ht="150" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="150" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -11833,7 +11132,7 @@
         <v>155</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>685</v>
+        <v>491</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>325</v>
@@ -11841,23 +11140,18 @@
       <c r="I28" s="37"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12" t="s">
-        <v>647</v>
+        <v>453</v>
       </c>
       <c r="L28" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1964/4/26–1964/5/10: The Book and the Spade at the Wisconsin Center</v>
       </c>
-      <c r="M28" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="N28" s="47" t="s">
-        <v>462</v>
-      </c>
-      <c r="O28" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M28" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N28" s="47"/>
     </row>
-    <row r="29" spans="1:15" ht="90" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -11878,7 +11172,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>685</v>
+        <v>491</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>325</v>
@@ -11892,17 +11186,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1964/5/21–1964/6/7: The Book and the Spade at the Public Museum of Milwaukee</v>
       </c>
-      <c r="M29" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="N29" s="47" t="s">
-        <v>463</v>
-      </c>
-      <c r="O29" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M29" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N29" s="47"/>
     </row>
-    <row r="30" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -11928,24 +11217,19 @@
       <c r="H30" s="12"/>
       <c r="I30" s="37"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="52" t="s">
-        <v>615</v>
+      <c r="K30" s="51" t="s">
+        <v>421</v>
       </c>
       <c r="L30" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1964/8/18–1964/11/1: Exhibition at the Lytton Center of the Visual Arts</v>
       </c>
-      <c r="M30" s="47" t="s">
-        <v>455</v>
-      </c>
-      <c r="N30" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="O30" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M30" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N30" s="47"/>
     </row>
-    <row r="31" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -11980,17 +11264,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/2/27–1965/3/21: Dead Sea Scrolls of Jordan at the Smithsonian National Museum of Natural History</v>
       </c>
-      <c r="M31" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="N31" s="47" t="s">
-        <v>435</v>
-      </c>
-      <c r="O31" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M31" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N31" s="47"/>
     </row>
-    <row r="32" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12025,17 +11304,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/4/3–1965/4/25: Dead Sea Scrolls of Jordan at the University Museum</v>
       </c>
-      <c r="M32" s="47" t="s">
-        <v>456</v>
-      </c>
-      <c r="N32" s="47" t="s">
-        <v>465</v>
-      </c>
-      <c r="O32" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M32" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N32" s="47"/>
     </row>
-    <row r="33" spans="1:15" ht="84" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="84" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12043,7 +11317,7 @@
       <c r="B33" s="10">
         <v>23852</v>
       </c>
-      <c r="C33" s="50"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="8" t="s">
         <v>5</v>
       </c>
@@ -12064,17 +11338,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/4/20–1900/1/0: Exhibition at the Shrine of the Book</v>
       </c>
-      <c r="M33" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="N33" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="O33" s="48" t="s">
-        <v>617</v>
-      </c>
+      <c r="M33" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="N33" s="47"/>
     </row>
-    <row r="34" spans="1:15" ht="70" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="70" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12095,29 +11364,24 @@
         <v>146</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>684</v>
+        <v>490</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="37"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="52" t="s">
-        <v>616</v>
+      <c r="K34" s="51" t="s">
+        <v>422</v>
       </c>
       <c r="L34" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/4/21–1965/10/17: Exhibition at the New York World's Fair</v>
       </c>
-      <c r="M34" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="N34" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="O34" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M34" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N34" s="47"/>
     </row>
-    <row r="35" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12152,17 +11416,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/5/8–1965/5/30: Dead Sea Scrolls of Jordan at the Lowie Museum</v>
       </c>
-      <c r="M35" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="N35" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="O35" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M35" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N35" s="47"/>
     </row>
-    <row r="36" spans="1:15" ht="59" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="59" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12190,24 +11449,19 @@
       </c>
       <c r="I36" s="37"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="52" t="s">
-        <v>615</v>
+      <c r="K36" s="51" t="s">
+        <v>421</v>
       </c>
       <c r="L36" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/6/12–1965/7/5: Dead Sea Scrolls of Jordan at the Claremont Graduate School</v>
       </c>
-      <c r="M36" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="N36" s="47" t="s">
-        <v>467</v>
-      </c>
-      <c r="O36" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M36" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N36" s="47"/>
     </row>
-    <row r="37" spans="1:15" ht="59" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="59" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12235,24 +11489,19 @@
       </c>
       <c r="I37" s="37"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="52" t="s">
-        <v>615</v>
+      <c r="K37" s="51" t="s">
+        <v>421</v>
       </c>
       <c r="L37" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/7/17–1965/8/8: Dead Sea Scrolls of Jordan at the Joslyn Art Museum</v>
       </c>
-      <c r="M37" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="N37" s="47" t="s">
-        <v>468</v>
-      </c>
-      <c r="O37" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M37" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N37" s="47"/>
     </row>
-    <row r="38" spans="1:15" ht="59" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="59" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12280,24 +11529,19 @@
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="52" t="s">
-        <v>615</v>
+      <c r="K38" s="51" t="s">
+        <v>421</v>
       </c>
       <c r="L38" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/8/21–1965/9/19: Dead Sea Scrolls of Jordan at the Walters Art Gallery</v>
       </c>
-      <c r="M38" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="N38" s="47" t="s">
-        <v>436</v>
-      </c>
-      <c r="O38" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M38" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N38" s="47"/>
     </row>
-    <row r="39" spans="1:15" ht="90" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12325,20 +11569,19 @@
       </c>
       <c r="I39" s="37"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="52" t="s">
-        <v>648</v>
+      <c r="K39" s="51" t="s">
+        <v>454</v>
       </c>
       <c r="L39" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/9/27–1965/10/17: Dead Sea Scrolls of Jordan at the National Museum</v>
       </c>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="48" t="s">
-        <v>625</v>
-      </c>
+      <c r="M39" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="N39" s="47"/>
     </row>
-    <row r="40" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12366,24 +11609,19 @@
       </c>
       <c r="I40" s="37"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="52" t="s">
-        <v>654</v>
+      <c r="K40" s="51" t="s">
+        <v>460</v>
       </c>
       <c r="L40" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/10/26–1965/11/15: Dead Sea Scrolls of Jordan at the Royal Ontario Museum</v>
       </c>
-      <c r="M40" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="N40" s="47" t="s">
-        <v>460</v>
-      </c>
-      <c r="O40" s="48" t="s">
-        <v>625</v>
-      </c>
+      <c r="M40" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="N40" s="47"/>
     </row>
-    <row r="41" spans="1:15" ht="130" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="130" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12411,24 +11649,19 @@
       </c>
       <c r="I41" s="37"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="52" t="s">
-        <v>655</v>
+      <c r="K41" s="51" t="s">
+        <v>461</v>
       </c>
       <c r="L41" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/12/16–1966/1/29: Dead Sea Scrolls of Jordan at the British Museum</v>
       </c>
-      <c r="M41" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="N41" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="O41" s="48" t="s">
-        <v>620</v>
-      </c>
+      <c r="M41" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="N41" s="47"/>
     </row>
-    <row r="42" spans="1:15" ht="180" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="180" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12455,23 +11688,18 @@
       <c r="I42" s="37"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="L42" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1967/4/27–1967/10/29: Exhibition at the Montreal World’s Fair</v>
       </c>
-      <c r="M42" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="N42" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="O42" s="48" t="s">
-        <v>625</v>
-      </c>
+      <c r="M42" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="N42" s="47"/>
     </row>
-    <row r="43" spans="1:15" ht="190" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="190" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12492,29 +11720,24 @@
         <v>138</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>686</v>
+        <v>492</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="37"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="s">
-        <v>653</v>
+        <v>459</v>
       </c>
       <c r="L43" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1968/5/8–1968/9/2: Israel through the Ages at the Petit Palais</v>
       </c>
-      <c r="M43" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="N43" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="O43" s="48" t="s">
-        <v>627</v>
-      </c>
+      <c r="M43" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="N43" s="47"/>
     </row>
-    <row r="44" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12547,17 +11770,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1968/5/22–1968/7/3: From the Lands of the Bible at the America-Israel Culture House</v>
       </c>
-      <c r="M44" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="N44" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="O44" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M44" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N44" s="47"/>
     </row>
-    <row r="45" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -12583,24 +11801,19 @@
       <c r="H45" s="12"/>
       <c r="I45" s="37"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="52" t="s">
-        <v>651</v>
+      <c r="K45" s="51" t="s">
+        <v>457</v>
       </c>
       <c r="L45" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1968/10/12–1968/10/27: Exhibition at the Olympics</v>
       </c>
       <c r="M45" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="N45" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="O45" s="48" t="s">
-        <v>628</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N45" s="47"/>
     </row>
-    <row r="46" spans="1:15" ht="130" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="130" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1970</v>
@@ -12621,7 +11834,7 @@
         <v>146</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>715</v>
+        <v>520</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="37"/>
@@ -12633,17 +11846,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1971/6/19–1971/9/5: An Exhibition on the Dead Sea Scrolls at the American Bible Society</v>
       </c>
-      <c r="M46" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="N46" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="O46" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M46" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N46" s="47"/>
     </row>
-    <row r="47" spans="1:15" ht="130" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="130" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1970</v>
@@ -12676,17 +11884,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1972/11/23–1972/12/3: Exhibition at the Los Angeles Convention Center</v>
       </c>
-      <c r="M47" s="47" t="s">
-        <v>455</v>
-      </c>
-      <c r="N47" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="O47" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M47" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N47" s="47"/>
     </row>
-    <row r="48" spans="1:15" ht="150" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="150" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1970</v>
@@ -12707,7 +11910,7 @@
         <v>155</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>714</v>
+        <v>519</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="37"/>
@@ -12719,17 +11922,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1975/4/13–1975/5/4: The Book and the Spade at the Wisconsin Center</v>
       </c>
-      <c r="M48" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="N48" s="47" t="s">
-        <v>462</v>
-      </c>
-      <c r="O48" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M48" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N48" s="47"/>
     </row>
-    <row r="49" spans="1:15" ht="200" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="200" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1980</v>
@@ -12762,17 +11960,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1986/9/25–1987/1/4: Treasures from the Holy Land: Ancient Art from the Israel Museum at the Metropolitan Museum of Art</v>
       </c>
-      <c r="M49" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="N49" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="O49" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M49" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N49" s="47"/>
     </row>
-    <row r="50" spans="1:15" ht="90" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1980</v>
@@ -12805,17 +11998,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1987/4/9–1987/7/5: Treasures from the Holy Land: Ancient Art from the Israel Museum at the Los Angeles County Museum of Art</v>
       </c>
-      <c r="M50" s="47" t="s">
-        <v>455</v>
-      </c>
-      <c r="N50" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="O50" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M50" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N50" s="47"/>
     </row>
-    <row r="51" spans="1:15" ht="90" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1980</v>
@@ -12848,17 +12036,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1987/10/31–1988/1/17: Treasures from the Holy Land: Ancient Art from the Israel Museum at the Museum of Fine Arts</v>
       </c>
-      <c r="M51" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="N51" s="47" t="s">
-        <v>501</v>
-      </c>
-      <c r="O51" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M51" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N51" s="47"/>
     </row>
-    <row r="52" spans="1:15" ht="140" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="140" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1980</v>
@@ -12891,17 +12074,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1988/10/15–1989/1/14: A Sign and a Witness at the New York Public Library</v>
       </c>
-      <c r="M52" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="N52" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="O52" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M52" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N52" s="47"/>
     </row>
-    <row r="53" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -12934,17 +12112,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1990/5/1–1990/9/1: Planets, Potions, Parchments at the David M. Stewart Museum</v>
       </c>
-      <c r="M53" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="N53" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="O53" s="48" t="s">
-        <v>625</v>
-      </c>
+      <c r="M53" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="N53" s="47"/>
     </row>
-    <row r="54" spans="1:15" ht="272" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -12965,7 +12138,7 @@
         <v>148</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>687</v>
+        <v>493</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>310</v>
@@ -12974,7 +12147,7 @@
         <v>311</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>641</v>
+        <v>447</v>
       </c>
       <c r="K54" s="12" t="s">
         <v>309</v>
@@ -12983,17 +12156,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1993/4/29–1993/8/1: Scrolls from the Dead Sea: The Ancient Library of Qumran and Modern Scholarship at the Library of Congress</v>
       </c>
-      <c r="M54" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="N54" s="47" t="s">
-        <v>435</v>
-      </c>
-      <c r="O54" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M54" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N54" s="47"/>
     </row>
-    <row r="55" spans="1:15" ht="88" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="88" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -13019,24 +12187,19 @@
       <c r="H55" s="12"/>
       <c r="I55" s="37"/>
       <c r="J55" s="12"/>
-      <c r="K55" s="52" t="s">
-        <v>651</v>
+      <c r="K55" s="51" t="s">
+        <v>457</v>
       </c>
       <c r="L55" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1993/10/2–1994/1/4: The Dead Sea Scrolls at the New York Public Library</v>
       </c>
-      <c r="M55" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="N55" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="O55" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M55" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N55" s="47"/>
     </row>
-    <row r="56" spans="1:15" ht="88" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="88" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -13062,24 +12225,19 @@
       <c r="H56" s="12"/>
       <c r="I56" s="37"/>
       <c r="J56" s="12"/>
-      <c r="K56" s="52" t="s">
-        <v>651</v>
+      <c r="K56" s="51" t="s">
+        <v>457</v>
       </c>
       <c r="L56" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1994/2/26–1994/5/29: The Mystery of the Dead Sea Scrolls at the Fine Arts Museum</v>
       </c>
-      <c r="M56" s="47" t="s">
-        <v>476</v>
-      </c>
-      <c r="N56" s="47" t="s">
-        <v>502</v>
-      </c>
-      <c r="O56" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M56" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N56" s="47"/>
     </row>
-    <row r="57" spans="1:15" ht="150" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="150" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -13105,24 +12263,19 @@
       <c r="H57" s="12"/>
       <c r="I57" s="37"/>
       <c r="J57" s="12"/>
-      <c r="K57" s="52" t="s">
-        <v>656</v>
+      <c r="K57" s="51" t="s">
+        <v>462</v>
       </c>
       <c r="L57" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1994/7/8–1994/10/2: Exhibition at the Biblioteca Apostolica Vaticana</v>
       </c>
-      <c r="M57" s="47" t="s">
-        <v>477</v>
-      </c>
-      <c r="N57" s="47" t="s">
-        <v>503</v>
-      </c>
-      <c r="O57" s="48" t="s">
-        <v>629</v>
-      </c>
+      <c r="M57" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="N57" s="47"/>
     </row>
-    <row r="58" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -13148,24 +12301,19 @@
       <c r="H58" s="12"/>
       <c r="I58" s="37"/>
       <c r="J58" s="12"/>
-      <c r="K58" s="52" t="s">
-        <v>651</v>
+      <c r="K58" s="51" t="s">
+        <v>457</v>
       </c>
       <c r="L58" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1997/6/13–1997/10/15: Jordanie: Sur les pas des archéologues at the Institut du Monde Arabe</v>
       </c>
-      <c r="M58" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="N58" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="O58" s="48" t="s">
-        <v>627</v>
-      </c>
+      <c r="M58" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="N58" s="47"/>
     </row>
-    <row r="59" spans="1:15" ht="87" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="87" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -13186,29 +12334,24 @@
         <v>135</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>688</v>
+        <v>494</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="37"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="52" t="s">
-        <v>651</v>
+      <c r="K59" s="51" t="s">
+        <v>457</v>
       </c>
       <c r="L59" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1997/9/1–1997/9/18: Ancient Scrolls from the Dead Sea at the Brigham Young University Museum of Art</v>
       </c>
-      <c r="M59" s="47" t="s">
-        <v>478</v>
-      </c>
-      <c r="N59" s="47" t="s">
-        <v>504</v>
-      </c>
-      <c r="O59" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M59" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N59" s="47"/>
     </row>
-    <row r="60" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -13234,24 +12377,19 @@
       <c r="H60" s="12"/>
       <c r="I60" s="37"/>
       <c r="J60" s="12"/>
-      <c r="K60" s="52" t="s">
-        <v>651</v>
+      <c r="K60" s="51" t="s">
+        <v>457</v>
       </c>
       <c r="L60" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1997/9/22–1998/1/18: Land der Bibel at the Kunsthistorisches Museum</v>
       </c>
-      <c r="M60" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="N60" s="47" t="s">
-        <v>505</v>
-      </c>
-      <c r="O60" s="48" t="s">
-        <v>630</v>
-      </c>
+      <c r="M60" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="N60" s="47"/>
     </row>
-    <row r="61" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -13277,24 +12415,19 @@
       <c r="H61" s="12"/>
       <c r="I61" s="37"/>
       <c r="J61" s="12"/>
-      <c r="K61" s="52" t="s">
-        <v>651</v>
+      <c r="K61" s="51" t="s">
+        <v>457</v>
       </c>
       <c r="L61" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1997/10/21–1998/1/10: Treasures from the Dead Sea at the Manchester Museum</v>
       </c>
-      <c r="M61" s="47" t="s">
-        <v>480</v>
-      </c>
-      <c r="N61" s="47" t="s">
-        <v>506</v>
-      </c>
-      <c r="O61" s="48" t="s">
-        <v>620</v>
-      </c>
+      <c r="M61" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="N61" s="47"/>
     </row>
-    <row r="62" spans="1:15" ht="59" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="59" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -13315,29 +12448,24 @@
         <v>123</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>689</v>
+        <v>495</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="37"/>
       <c r="J62" s="12"/>
-      <c r="K62" s="52" t="s">
-        <v>651</v>
+      <c r="K62" s="51" t="s">
+        <v>457</v>
       </c>
       <c r="L62" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1998/5/1–1998/8/30: Scrolls from the Dead Sea at the Kelvingrove Museum</v>
       </c>
-      <c r="M62" s="47" t="s">
-        <v>481</v>
-      </c>
-      <c r="N62" s="47" t="s">
-        <v>507</v>
-      </c>
-      <c r="O62" s="48" t="s">
-        <v>620</v>
-      </c>
+      <c r="M62" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="N62" s="47"/>
     </row>
-    <row r="63" spans="1:15" ht="42" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="42" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -13368,17 +12496,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1998/7/29–1998/8/7: Congress of the International Organization for the study of the Old Testament at the University of Oslo</v>
       </c>
-      <c r="M63" s="47" t="s">
-        <v>482</v>
-      </c>
-      <c r="N63" s="47" t="s">
-        <v>508</v>
-      </c>
-      <c r="O63" s="48" t="s">
-        <v>631</v>
-      </c>
+      <c r="M63" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="N63" s="47"/>
     </row>
-    <row r="64" spans="1:15" ht="59" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="59" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -13399,29 +12522,24 @@
         <v>120</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>690</v>
+        <v>496</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="37"/>
       <c r="J64" s="12"/>
-      <c r="K64" s="52" t="s">
-        <v>651</v>
+      <c r="K64" s="51" t="s">
+        <v>457</v>
       </c>
       <c r="L64" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1998/11/14–1999/4/18: Qumran – Die Schriftrollen vom Toten Meer at the Roemisch Germanisches Museum</v>
       </c>
-      <c r="M64" s="47" t="s">
-        <v>483</v>
-      </c>
-      <c r="N64" s="47" t="s">
-        <v>509</v>
-      </c>
-      <c r="O64" s="48" t="s">
-        <v>632</v>
-      </c>
+      <c r="M64" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="N64" s="47"/>
     </row>
-    <row r="65" spans="1:15" ht="73" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="73" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -13442,29 +12560,24 @@
         <v>117</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>691</v>
+        <v>497</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="37"/>
       <c r="J65" s="12"/>
-      <c r="K65" s="52" t="s">
-        <v>651</v>
+      <c r="K65" s="51" t="s">
+        <v>457</v>
       </c>
       <c r="L65" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1999/5/7–1999/8/8: Die Schriftrollen vom Toten Meer at the Stiftsbibliotek</v>
       </c>
-      <c r="M65" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="N65" s="47" t="s">
-        <v>510</v>
-      </c>
-      <c r="O65" s="48" t="s">
-        <v>633</v>
-      </c>
+      <c r="M65" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="N65" s="47"/>
     </row>
-    <row r="66" spans="1:15" ht="336" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="336" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13485,14 +12598,14 @@
         <v>114</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>692</v>
+        <v>498</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>310</v>
       </c>
       <c r="I66" s="37"/>
       <c r="J66" s="12" t="s">
-        <v>640</v>
+        <v>446</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>327</v>
@@ -13501,17 +12614,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2000/3/10–2000/6/18: The Dead Sea Scrolls at the Field Museum</v>
       </c>
-      <c r="M66" s="47" t="s">
+      <c r="M66" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="N66" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="O66" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="N66" s="47"/>
     </row>
-    <row r="67" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13532,7 +12640,7 @@
         <v>107</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>693</v>
+        <v>499</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="37" t="s">
@@ -13546,17 +12654,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2000/7/14–2000/10/15: Exhibition at the Art Gallery of New South Wales</v>
       </c>
-      <c r="M67" s="47" t="s">
-        <v>485</v>
-      </c>
-      <c r="N67" s="47" t="s">
-        <v>511</v>
-      </c>
-      <c r="O67" s="48" t="s">
-        <v>634</v>
-      </c>
+      <c r="M67" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="N67" s="47"/>
     </row>
-    <row r="68" spans="1:15" ht="150" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="150" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13577,7 +12680,7 @@
         <v>111</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>693</v>
+        <v>499</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="37" t="s">
@@ -13591,17 +12694,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2001/3/6–2001/6/17: Exhibition at the National Gallery of Victoria</v>
       </c>
-      <c r="M68" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="N68" s="47" t="s">
-        <v>512</v>
-      </c>
-      <c r="O68" s="48" t="s">
-        <v>634</v>
-      </c>
+      <c r="M68" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="N68" s="47"/>
     </row>
-    <row r="69" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13609,7 +12707,7 @@
       <c r="B69" s="10">
         <v>37622</v>
       </c>
-      <c r="C69" s="50"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="8" t="s">
         <v>5</v>
       </c>
@@ -13628,17 +12726,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/1/1–1900/1/0: Exhibition at the The Bible Museum</v>
       </c>
-      <c r="M69" s="47" t="s">
-        <v>487</v>
-      </c>
-      <c r="N69" s="47" t="s">
-        <v>513</v>
-      </c>
-      <c r="O69" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M69" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N69" s="47"/>
     </row>
-    <row r="70" spans="1:15" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13659,7 +12752,7 @@
         <v>105</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>694</v>
+        <v>500</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="37"/>
@@ -13671,57 +12764,53 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/2/16–2003/6/1: The Dead Sea Scrolls at the Public Museum of Grand Rapids</v>
       </c>
-      <c r="M70" s="47" t="s">
-        <v>488</v>
-      </c>
-      <c r="N70" s="47" t="s">
-        <v>514</v>
-      </c>
-      <c r="O70" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M70" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N70" s="47"/>
     </row>
-    <row r="71" spans="1:15" ht="100" x14ac:dyDescent="0.2">
-      <c r="A71" s="66">
+    <row r="71" spans="1:14" ht="100" x14ac:dyDescent="0.2">
+      <c r="A71" s="64">
         <v>2000</v>
       </c>
-      <c r="B71" s="67">
+      <c r="B71" s="65">
         <v>37694</v>
       </c>
-      <c r="C71" s="67">
+      <c r="C71" s="65">
         <v>37703</v>
       </c>
-      <c r="D71" s="53" t="s">
+      <c r="D71" s="52" t="s">
         <v>332</v>
       </c>
-      <c r="E71" s="68" t="s">
+      <c r="E71" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="F71" s="68" t="s">
+      <c r="F71" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="G71" s="53" t="s">
-        <v>711</v>
-      </c>
-      <c r="H71" s="69"/>
-      <c r="I71" s="70"/>
-      <c r="J71" s="69" t="s">
+      <c r="G71" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="H71" s="67"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="67" t="s">
         <v>331</v>
       </c>
-      <c r="K71" s="69" t="s">
-        <v>713</v>
-      </c>
-      <c r="L71" s="71" t="str">
+      <c r="K71" s="67" t="s">
+        <v>518</v>
+      </c>
+      <c r="L71" s="69" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/3/14–2003/3/23: The European Fine Art Fair at the MECC</v>
       </c>
-      <c r="M71" s="72"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="73" t="s">
-        <v>622</v>
+      <c r="M71" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="N71" s="47" t="s">
+        <v>530</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="100" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="100" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13741,8 +12830,8 @@
       <c r="F72" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G72" s="53" t="s">
-        <v>712</v>
+      <c r="G72" s="52" t="s">
+        <v>528</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="37"/>
@@ -13756,17 +12845,14 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/3/17–2003/3/23: The European Fine Art Fair at the MECC</v>
       </c>
-      <c r="M72" s="47" t="s">
-        <v>489</v>
+      <c r="M72" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="N72" s="47" t="s">
-        <v>515</v>
-      </c>
-      <c r="O72" s="48" t="s">
-        <v>622</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="218" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="218" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13787,7 +12873,7 @@
         <v>100</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>695</v>
+        <v>501</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>234</v>
@@ -13803,17 +12889,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/4/6–2003/4/29: From the Dead Sea Scrolls to the Forbidden Book at the Center for the Arts</v>
       </c>
-      <c r="M73" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="N73" s="47" t="s">
-        <v>516</v>
-      </c>
-      <c r="O73" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M73" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N73" s="47"/>
     </row>
-    <row r="74" spans="1:15" ht="110" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="110" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13834,7 +12915,7 @@
         <v>386</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>718</v>
+        <v>523</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="37"/>
@@ -13846,17 +12927,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/6/17–2003/11/2: Archaeology and the Bible—From King David to the Dead Sea Scrolls at the Pointe-à-Callière</v>
       </c>
-      <c r="M74" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="N74" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="O74" s="48" t="s">
-        <v>625</v>
-      </c>
+      <c r="M74" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="N74" s="47"/>
     </row>
-    <row r="75" spans="1:15" ht="227" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="227" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13877,7 +12953,7 @@
         <v>89</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>697</v>
+        <v>503</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="37" t="s">
@@ -13891,17 +12967,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/6/28–2003/6/28: Promotion of 'From the Dead Sea Scrolls to the Forbidden Book' at the South Fork Ranch</v>
       </c>
-      <c r="M75" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="N75" s="47" t="s">
-        <v>517</v>
-      </c>
-      <c r="O75" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M75" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N75" s="47"/>
     </row>
-    <row r="76" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13922,7 +12993,7 @@
         <v>92</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>698</v>
+        <v>504</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="37"/>
@@ -13934,17 +13005,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/7/17–2003/7/17: Promotion of 'From the Dead Sea Scrolls to the Forbidden Book' at the Southwestern Baptist Theological Seminary</v>
       </c>
-      <c r="M76" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="N76" s="47" t="s">
-        <v>518</v>
-      </c>
-      <c r="O76" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M76" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N76" s="47"/>
     </row>
-    <row r="77" spans="1:15" ht="353" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="353" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13965,7 +13031,7 @@
         <v>89</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>695</v>
+        <v>501</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>234</v>
@@ -13979,17 +13045,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/9/5–2003/12/28: From the Dead Sea Scrolls to the Forbidden Book at the Biblical Arts Center</v>
       </c>
-      <c r="M77" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="N77" s="47" t="s">
-        <v>517</v>
-      </c>
-      <c r="O77" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M77" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N77" s="47"/>
     </row>
-    <row r="78" spans="1:15" ht="70" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="70" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14010,7 +13071,7 @@
         <v>87</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>718</v>
+        <v>523</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>90</v>
@@ -14024,17 +13085,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/12/5–2004/4/12: Ancient Treasures and the Dead Sea Scrolls at the Canadian Museum of Civilization</v>
       </c>
-      <c r="M78" s="47" t="s">
-        <v>493</v>
-      </c>
-      <c r="N78" s="47" t="s">
-        <v>519</v>
-      </c>
-      <c r="O78" s="48" t="s">
-        <v>625</v>
-      </c>
+      <c r="M78" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="N78" s="47"/>
     </row>
-    <row r="79" spans="1:15" ht="227" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="227" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14055,7 +13111,7 @@
         <v>85</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>695</v>
+        <v>501</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>234</v>
@@ -14071,17 +13127,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2004/1/5–2004/1/30: From the Dead Sea Scrolls to the Forbidden Book at the Von Braun Civic Center</v>
       </c>
-      <c r="M79" s="47" t="s">
-        <v>494</v>
-      </c>
-      <c r="N79" s="47" t="s">
-        <v>520</v>
-      </c>
-      <c r="O79" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M79" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N79" s="47"/>
     </row>
-    <row r="80" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14102,7 +13153,7 @@
         <v>82</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>699</v>
+        <v>505</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>234</v>
@@ -14116,17 +13167,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2004/3/16–2004/4/18: From the Dead Sea Scrolls to the Forbidden Book at the John S. Knight Center</v>
       </c>
-      <c r="M80" s="47" t="s">
-        <v>495</v>
-      </c>
-      <c r="N80" s="47" t="s">
-        <v>521</v>
-      </c>
-      <c r="O80" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M80" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N80" s="47"/>
     </row>
-    <row r="81" spans="1:15" ht="272" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14147,7 +13193,7 @@
         <v>80</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>700</v>
+        <v>506</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>233</v>
@@ -14161,17 +13207,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2004/5/28–2004/6/20: Dead Sea Scrolls to the Bible in America at the Monroeville Expomart</v>
       </c>
-      <c r="M81" s="47" t="s">
-        <v>496</v>
-      </c>
-      <c r="N81" s="47" t="s">
-        <v>522</v>
-      </c>
-      <c r="O81" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M81" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N81" s="47"/>
     </row>
-    <row r="82" spans="1:15" ht="42" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="42" x14ac:dyDescent="0.2">
       <c r="A82" s="22">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14204,17 +13245,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2004/6/4–2004/6/4: The second annual meeting of the Nordic Network in Qumran Studies at the Martin Schøyen’s home in Røyken</v>
       </c>
-      <c r="M82" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="N82" s="47" t="s">
-        <v>523</v>
-      </c>
-      <c r="O82" s="48" t="s">
-        <v>631</v>
-      </c>
+      <c r="M82" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="N82" s="47"/>
     </row>
-    <row r="83" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14243,17 +13279,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2004/8/16–2004/8/22: Dead Sea Scrolls to the Bible in America at the Adam Mark’s Hotel</v>
       </c>
-      <c r="M83" s="47" t="s">
-        <v>498</v>
-      </c>
-      <c r="N83" s="47" t="s">
-        <v>524</v>
-      </c>
-      <c r="O83" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M83" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N83" s="47"/>
     </row>
-    <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14282,17 +13313,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2004/8/27–2004/9/26: Dead Sea Scrolls to the Bible in America at the Birch Run Expocenter</v>
       </c>
-      <c r="M84" s="47" t="s">
-        <v>499</v>
-      </c>
-      <c r="N84" s="47" t="s">
-        <v>525</v>
-      </c>
-      <c r="O84" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M84" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N84" s="47"/>
     </row>
-    <row r="85" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14321,17 +13347,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2004/10/1–2004/10/31: Dead Sea Scrolls to the Bible in America at the Concord Mall</v>
       </c>
-      <c r="M85" s="47" t="s">
-        <v>500</v>
-      </c>
-      <c r="N85" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="O85" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M85" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N85" s="47"/>
     </row>
-    <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14360,17 +13381,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2004/10/1–2005/1/15: Dead Sea Scrolls at the Houston Museum of Natural Sciences</v>
       </c>
-      <c r="M86" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="N86" s="47" t="s">
-        <v>501</v>
-      </c>
-      <c r="O86" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M86" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N86" s="47"/>
     </row>
-    <row r="87" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14388,7 +13404,7 @@
         <v>65</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>607</v>
+        <v>417</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="12"/>
@@ -14399,17 +13415,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2004/10/27–2005/2/15: Pergaminhosdo Mar Morto at the Museu Brasileiro da Escultura Marilisa Rathsman</v>
       </c>
-      <c r="M87" s="49" t="s">
-        <v>608</v>
-      </c>
-      <c r="N87" s="49" t="s">
-        <v>609</v>
-      </c>
-      <c r="O87" s="48" t="s">
-        <v>635</v>
-      </c>
+      <c r="M87" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="N87" s="47"/>
     </row>
-    <row r="88" spans="1:15" ht="110" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="110" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14430,31 +13441,26 @@
         <v>296</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>701</v>
+        <v>507</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="37" t="s">
         <v>295</v>
       </c>
       <c r="J88" s="12"/>
-      <c r="K88" s="52" t="s">
-        <v>660</v>
+      <c r="K88" s="51" t="s">
+        <v>466</v>
       </c>
       <c r="L88" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2005/1/14–2005/3/27: Dead Sea Scrolls to the Bible in America at the Providence Place</v>
       </c>
-      <c r="M88" s="47" t="s">
-        <v>527</v>
-      </c>
-      <c r="N88" s="47" t="s">
-        <v>538</v>
-      </c>
-      <c r="O88" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M88" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N88" s="47"/>
     </row>
-    <row r="89" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14478,24 +13484,19 @@
       <c r="H89" s="12"/>
       <c r="I89" s="37"/>
       <c r="J89" s="12"/>
-      <c r="K89" s="52" t="s">
-        <v>657</v>
+      <c r="K89" s="51" t="s">
+        <v>463</v>
       </c>
       <c r="L89" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2005/1/20–2005/4/24: Exhibition at the Gulf Coast Explorium</v>
       </c>
-      <c r="M89" s="47" t="s">
-        <v>528</v>
-      </c>
-      <c r="N89" s="47" t="s">
-        <v>539</v>
-      </c>
-      <c r="O89" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M89" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N89" s="47"/>
     </row>
-    <row r="90" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14516,7 +13517,7 @@
         <v>63</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>716</v>
+        <v>521</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="37"/>
@@ -14528,17 +13529,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2005/2/5–2005/5/1: Ink &amp; Blood: Dead Sea Scrolls to the English Bible at the Knoxville Convention Center</v>
       </c>
-      <c r="M90" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="N90" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="O90" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M90" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N90" s="47"/>
     </row>
-    <row r="91" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A91" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14557,29 +13553,24 @@
         <v>61</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>701</v>
+        <v>507</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="37"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12" t="s">
-        <v>658</v>
+        <v>464</v>
       </c>
       <c r="L91" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v xml:space="preserve">2005/4/27–2005/6/1: Dead Sea Scrolls to the Bible in America at the </v>
       </c>
-      <c r="M91" s="47" t="s">
-        <v>530</v>
-      </c>
-      <c r="N91" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="O91" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M91" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N91" s="47"/>
     </row>
-    <row r="92" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A92" s="46">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14608,17 +13599,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2005/5/21–1900/1/0: The New Hebrew: A Century of Art in Israel at the Martin Gropius-Bau Museum</v>
       </c>
-      <c r="M92" s="47" t="s">
-        <v>531</v>
-      </c>
-      <c r="N92" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="O92" s="48" t="s">
-        <v>632</v>
-      </c>
+      <c r="M92" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="N92" s="47"/>
     </row>
-    <row r="93" spans="1:15" ht="43" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="43" x14ac:dyDescent="0.2">
       <c r="A93" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14639,7 +13625,7 @@
         <v>392</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>716</v>
+        <v>521</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="37"/>
@@ -14651,17 +13637,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2005/6/24–2005/8/31: Ink &amp; Blood: Dead Sea Scrolls to the English Bible at the Lexington Center</v>
       </c>
-      <c r="M93" s="47" t="s">
-        <v>532</v>
-      </c>
-      <c r="N93" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="O93" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M93" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N93" s="47"/>
     </row>
-    <row r="94" spans="1:15" ht="43" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="43" x14ac:dyDescent="0.2">
       <c r="A94" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14682,7 +13663,7 @@
         <v>393</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>716</v>
+        <v>521</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="37"/>
@@ -14692,17 +13673,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2006/1/13–2006/5/13: Ink &amp; Blood: Sacred Treasures of the Bible at the Florida International Museum</v>
       </c>
-      <c r="M94" s="47" t="s">
-        <v>533</v>
-      </c>
-      <c r="N94" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="O94" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M94" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N94" s="47"/>
     </row>
-    <row r="95" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14731,17 +13707,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2006/2/17–2006/5/29: Cradle of Christianity: Treasures from the Holy Land at the Discovery Place</v>
       </c>
-      <c r="M95" s="47" t="s">
-        <v>534</v>
-      </c>
-      <c r="N95" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="O95" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M95" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N95" s="47"/>
     </row>
-    <row r="96" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14770,17 +13741,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2006/4/1–2006/10/22: The Dead Sea Scrolls at the Maltz Museum of Jewish Heritage</v>
       </c>
-      <c r="M96" s="47" t="s">
-        <v>535</v>
-      </c>
-      <c r="N96" s="47" t="s">
-        <v>546</v>
-      </c>
-      <c r="O96" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M96" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N96" s="47"/>
     </row>
-    <row r="97" spans="1:15" ht="43" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="43" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14801,7 +13767,7 @@
         <v>394</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>716</v>
+        <v>521</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="37"/>
@@ -14813,17 +13779,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2006/5/26–2006/9/27: Ink &amp; Blood: Dead Sea Scrolls to the English Bible at the Museum of Arts &amp; Sciences</v>
       </c>
-      <c r="M97" s="47" t="s">
-        <v>536</v>
-      </c>
-      <c r="N97" s="47" t="s">
-        <v>547</v>
-      </c>
-      <c r="O97" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M97" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N97" s="47"/>
     </row>
-    <row r="98" spans="1:15" ht="281" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="281" x14ac:dyDescent="0.2">
       <c r="A98" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14844,31 +13805,26 @@
         <v>300</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>702</v>
+        <v>508</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>301</v>
       </c>
       <c r="I98" s="37"/>
       <c r="J98" s="12"/>
-      <c r="K98" s="52" t="s">
-        <v>659</v>
+      <c r="K98" s="51" t="s">
+        <v>465</v>
       </c>
       <c r="L98" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2006/9/23–2007/1/7: Discovering the Dead Sea Scrolls at the Pacific Science Center</v>
       </c>
-      <c r="M98" s="47" t="s">
-        <v>537</v>
-      </c>
-      <c r="N98" s="47" t="s">
-        <v>548</v>
-      </c>
-      <c r="O98" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M98" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N98" s="47"/>
     </row>
-    <row r="99" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14897,17 +13853,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2006/12/7–2007/4/15: Cradle of Christianity: Treasures from the Holy Land at the Museum of Art</v>
       </c>
-      <c r="M99" s="47" t="s">
-        <v>536</v>
-      </c>
-      <c r="N99" s="47" t="s">
-        <v>547</v>
-      </c>
-      <c r="O99" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M99" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N99" s="47"/>
     </row>
-    <row r="100" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A100" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14925,7 +13876,7 @@
         <v>50</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>610</v>
+        <v>418</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="12"/>
@@ -14936,17 +13887,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/2/8–2007/5/13: Exhibition at the Union Station</v>
       </c>
-      <c r="M100" s="49" t="s">
-        <v>611</v>
-      </c>
-      <c r="N100" s="49" t="s">
-        <v>612</v>
-      </c>
-      <c r="O100" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M100" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N100" s="47"/>
     </row>
-    <row r="101" spans="1:15" ht="170" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A101" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14967,7 +13913,7 @@
         <v>323</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>716</v>
+        <v>521</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="37"/>
@@ -14979,17 +13925,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/2/16–2007/5/28: Ink &amp; Blood: Dead Sea Scrolls to the King James Bible at the Museum of Idaho</v>
       </c>
-      <c r="M101" s="47" t="s">
-        <v>549</v>
-      </c>
-      <c r="N101" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="O101" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M101" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N101" s="47"/>
     </row>
-    <row r="102" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15018,17 +13959,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/4/27–2007/9/23: Sacred: Discover What we Share at the British Museum</v>
       </c>
-      <c r="M102" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="N102" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="O102" s="48" t="s">
-        <v>620</v>
-      </c>
+      <c r="M102" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="N102" s="47"/>
     </row>
-    <row r="103" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A103" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15057,17 +13993,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/6/16–2007/10/14: Cradle of Christianity: Treasures from the Holy Land at the Michael C. Carlos Museum of Emory University</v>
       </c>
-      <c r="M103" s="47" t="s">
-        <v>550</v>
-      </c>
-      <c r="N103" s="47" t="s">
-        <v>552</v>
-      </c>
-      <c r="O103" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M103" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N103" s="47"/>
     </row>
-    <row r="104" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A104" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15098,13 +14029,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/6/20–2007/6/22: Dead Sea Scrolls and Ancient Material at the Church of Acts</v>
       </c>
-      <c r="M104" s="49"/>
-      <c r="N104" s="49"/>
-      <c r="O104" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="M104" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="N104" s="47"/>
     </row>
-    <row r="105" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A105" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15128,24 +14058,19 @@
       <c r="H105" s="12"/>
       <c r="I105" s="37"/>
       <c r="J105" s="12"/>
-      <c r="K105" s="52" t="s">
-        <v>639</v>
+      <c r="K105" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="L105" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/6/29–2008/1/6: Dead Sea Scrolls: From Scroll to Codex at the Natural History Museum</v>
       </c>
-      <c r="M105" s="47" t="s">
-        <v>553</v>
-      </c>
-      <c r="N105" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="O105" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M105" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N105" s="47"/>
     </row>
-    <row r="106" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A106" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15176,17 +14101,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/8/11–2007/8/11: Dead Sea Scrolls and Ancient Material at the Suncoast Cathedral</v>
       </c>
-      <c r="M106" s="47" t="s">
-        <v>533</v>
-      </c>
-      <c r="N106" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="O106" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M106" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N106" s="47"/>
     </row>
-    <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A107" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15217,17 +14137,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/10/7–2007/10/15: Dead Sea Scrolls and Ancient Material at the Suncoast Cathedral</v>
       </c>
-      <c r="M107" s="47" t="s">
-        <v>533</v>
-      </c>
-      <c r="N107" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="O107" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M107" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N107" s="47"/>
     </row>
-    <row r="108" spans="1:15" ht="140" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="140" x14ac:dyDescent="0.2">
       <c r="A108" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15248,7 +14163,7 @@
         <v>413</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>703</v>
+        <v>509</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="37"/>
@@ -15262,17 +14177,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/12/5–2008/6/4: The Dead Sea Scrolls and the Birth of Christianity at the War Memorial of Korea</v>
       </c>
-      <c r="M108" s="47" t="s">
-        <v>555</v>
-      </c>
-      <c r="N108" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="O108" s="48" t="s">
-        <v>636</v>
-      </c>
+      <c r="M108" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="N108" s="47"/>
     </row>
-    <row r="109" spans="1:15" ht="56" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="56" x14ac:dyDescent="0.2">
       <c r="A109" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15303,17 +14213,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2008/2/9–2008/8/10: Highlights from the Israel Antiquities Authority: The Dead Sea Scrolls and 5,000 Years of Treasures at the Fine Arts Museum</v>
       </c>
-      <c r="M109" s="47" t="s">
-        <v>476</v>
-      </c>
-      <c r="N109" s="47" t="s">
-        <v>502</v>
-      </c>
-      <c r="O109" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M109" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N109" s="47"/>
     </row>
-    <row r="110" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A110" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15342,17 +14247,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2008/6/28–2008/8/10: The Birth of Christianity: A Jewish Story at the Museum of Natural Sciences</v>
       </c>
-      <c r="M110" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="N110" s="47" t="s">
-        <v>501</v>
-      </c>
-      <c r="O110" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M110" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N110" s="47"/>
     </row>
-    <row r="111" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A111" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15381,17 +14281,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2008/9/21–2009/1/4: The Dead Sea Scrolls: Mysteries of the Ancient World at the Jewish Museum</v>
       </c>
-      <c r="M111" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="N111" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="O111" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M111" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N111" s="47"/>
     </row>
-    <row r="112" spans="1:15" ht="43" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="43" x14ac:dyDescent="0.2">
       <c r="A112" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15412,7 +14307,7 @@
         <v>30</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>716</v>
+        <v>521</v>
       </c>
       <c r="H112" s="12"/>
       <c r="I112" s="37"/>
@@ -15422,17 +14317,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2009/2/1–2009/6/1: Ink &amp; Blood: Dead Sea Scrolls to Gutenberg at the Mary G. Hardin Center for Cultural Arts</v>
       </c>
-      <c r="M112" s="47" t="s">
-        <v>556</v>
-      </c>
-      <c r="N112" s="47" t="s">
-        <v>565</v>
-      </c>
-      <c r="O112" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M112" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N112" s="47"/>
     </row>
-    <row r="113" spans="1:35" ht="30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A113" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15453,7 +14343,7 @@
         <v>398</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>673</v>
+        <v>479</v>
       </c>
       <c r="H113" s="12"/>
       <c r="I113" s="37"/>
@@ -15463,17 +14353,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2009/2/1–2009/2/1: Dead Sea Scrolls to the Bible in America at the Christ Church of the Valley</v>
       </c>
-      <c r="M113" s="47" t="s">
-        <v>557</v>
-      </c>
-      <c r="N113" s="47" t="s">
-        <v>566</v>
-      </c>
-      <c r="O113" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M113" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N113" s="47"/>
     </row>
-    <row r="114" spans="1:35" ht="20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:33" ht="20" x14ac:dyDescent="0.2">
       <c r="A114" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15502,17 +14387,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2009/6/6–2009/11/6: Heritage of the Holy Land at the Museum of Fine Arts</v>
       </c>
-      <c r="M114" s="47" t="s">
-        <v>558</v>
-      </c>
-      <c r="N114" s="47" t="s">
-        <v>567</v>
-      </c>
-      <c r="O114" s="48" t="s">
-        <v>637</v>
-      </c>
+      <c r="M114" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="N114" s="47"/>
     </row>
-    <row r="115" spans="1:35" ht="180" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:33" ht="180" x14ac:dyDescent="0.2">
       <c r="A115" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15532,8 +14412,8 @@
       <c r="F115" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G115" s="53" t="s">
-        <v>708</v>
+      <c r="G115" s="52" t="s">
+        <v>514</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>336</v>
@@ -15542,7 +14422,7 @@
         <v>331000</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>642</v>
+        <v>448</v>
       </c>
       <c r="K115" s="12" t="s">
         <v>337</v>
@@ -15551,147 +14431,138 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2009/6/27–2009/10/9: Dead Sea Scrolls: Words that Changed the World at the Royal Ontario Museum</v>
       </c>
-      <c r="M115" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="N115" s="47" t="s">
-        <v>460</v>
-      </c>
-      <c r="O115" s="48" t="s">
-        <v>625</v>
-      </c>
-      <c r="R115" s="55"/>
-      <c r="S115" s="55"/>
-      <c r="T115" s="55"/>
-      <c r="U115" s="55"/>
-      <c r="V115" s="55"/>
-      <c r="W115" s="55"/>
-      <c r="X115" s="55"/>
-      <c r="Y115" s="55"/>
-      <c r="Z115" s="55"/>
-      <c r="AA115" s="55"/>
-      <c r="AB115" s="55"/>
-      <c r="AC115" s="55"/>
-      <c r="AD115" s="55"/>
-      <c r="AE115" s="55"/>
-      <c r="AF115" s="55"/>
-      <c r="AG115" s="55"/>
-      <c r="AH115" s="55"/>
-      <c r="AI115" s="55"/>
+      <c r="M115" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="N115" s="75" t="s">
+        <v>532</v>
+      </c>
+      <c r="P115" s="54"/>
+      <c r="Q115" s="54"/>
+      <c r="R115" s="54"/>
+      <c r="S115" s="54"/>
+      <c r="T115" s="54"/>
+      <c r="U115" s="54"/>
+      <c r="V115" s="54"/>
+      <c r="W115" s="54"/>
+      <c r="X115" s="54"/>
+      <c r="Y115" s="54"/>
+      <c r="Z115" s="54"/>
+      <c r="AA115" s="54"/>
+      <c r="AB115" s="54"/>
+      <c r="AC115" s="54"/>
+      <c r="AD115" s="54"/>
+      <c r="AE115" s="54"/>
+      <c r="AF115" s="54"/>
+      <c r="AG115" s="54"/>
     </row>
-    <row r="116" spans="1:35" ht="180" x14ac:dyDescent="0.2">
-      <c r="A116" s="56">
+    <row r="116" spans="1:33" ht="180" x14ac:dyDescent="0.2">
+      <c r="A116" s="55">
         <v>2000</v>
       </c>
-      <c r="B116" s="57">
+      <c r="B116" s="56">
         <v>40096</v>
       </c>
-      <c r="C116" s="57">
+      <c r="C116" s="56">
         <v>40104</v>
       </c>
-      <c r="D116" s="58" t="s">
+      <c r="D116" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="59" t="s">
+      <c r="E116" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F116" s="59" t="s">
+      <c r="F116" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G116" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="H116" s="60" t="s">
-        <v>705</v>
-      </c>
-      <c r="I116" s="61">
+      <c r="G116" s="57" t="s">
+        <v>515</v>
+      </c>
+      <c r="H116" s="59" t="s">
+        <v>511</v>
+      </c>
+      <c r="I116" s="60">
         <v>331000</v>
       </c>
-      <c r="J116" s="62" t="s">
-        <v>642</v>
-      </c>
-      <c r="K116" s="62" t="s">
-        <v>706</v>
-      </c>
-      <c r="L116" s="63" t="s">
-        <v>707</v>
-      </c>
-      <c r="M116" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="N116" s="64" t="s">
-        <v>460</v>
-      </c>
-      <c r="O116" s="65" t="s">
-        <v>625</v>
-      </c>
-      <c r="R116" s="55"/>
-      <c r="S116" s="55"/>
-      <c r="T116" s="55"/>
-      <c r="U116" s="55"/>
-      <c r="V116" s="55"/>
-      <c r="W116" s="55"/>
-      <c r="X116" s="55"/>
-      <c r="Y116" s="55"/>
-      <c r="Z116" s="55"/>
-      <c r="AA116" s="55"/>
-      <c r="AB116" s="55"/>
-      <c r="AC116" s="55"/>
-      <c r="AD116" s="55"/>
-      <c r="AE116" s="55"/>
-      <c r="AF116" s="55"/>
-      <c r="AG116" s="55"/>
-      <c r="AH116" s="55"/>
-      <c r="AI116" s="55"/>
+      <c r="J116" s="61" t="s">
+        <v>448</v>
+      </c>
+      <c r="K116" s="61" t="s">
+        <v>512</v>
+      </c>
+      <c r="L116" s="62" t="s">
+        <v>513</v>
+      </c>
+      <c r="M116" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="N116" s="47" t="s">
+        <v>533</v>
+      </c>
+      <c r="P116" s="54"/>
+      <c r="Q116" s="54"/>
+      <c r="R116" s="54"/>
+      <c r="S116" s="54"/>
+      <c r="T116" s="54"/>
+      <c r="U116" s="54"/>
+      <c r="V116" s="54"/>
+      <c r="W116" s="54"/>
+      <c r="X116" s="54"/>
+      <c r="Y116" s="54"/>
+      <c r="Z116" s="54"/>
+      <c r="AA116" s="54"/>
+      <c r="AB116" s="54"/>
+      <c r="AC116" s="54"/>
+      <c r="AD116" s="54"/>
+      <c r="AE116" s="54"/>
+      <c r="AF116" s="54"/>
+      <c r="AG116" s="54"/>
     </row>
-    <row r="117" spans="1:35" ht="180" x14ac:dyDescent="0.2">
-      <c r="A117" s="56">
+    <row r="117" spans="1:33" ht="180" x14ac:dyDescent="0.2">
+      <c r="A117" s="55">
         <v>2000</v>
       </c>
-      <c r="B117" s="57">
+      <c r="B117" s="56">
         <v>40096</v>
       </c>
-      <c r="C117" s="57">
+      <c r="C117" s="56">
         <v>40181</v>
       </c>
-      <c r="D117" s="58" t="s">
+      <c r="D117" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E117" s="59" t="s">
+      <c r="E117" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F117" s="59" t="s">
+      <c r="F117" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G117" s="58" t="s">
-        <v>710</v>
-      </c>
-      <c r="H117" s="60" t="s">
-        <v>705</v>
-      </c>
-      <c r="I117" s="61">
+      <c r="G117" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="H117" s="59" t="s">
+        <v>511</v>
+      </c>
+      <c r="I117" s="60">
         <v>331000</v>
       </c>
-      <c r="J117" s="62" t="s">
-        <v>642</v>
-      </c>
-      <c r="K117" s="62" t="s">
-        <v>706</v>
-      </c>
-      <c r="L117" s="63" t="s">
-        <v>707</v>
-      </c>
-      <c r="M117" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="N117" s="64" t="s">
-        <v>460</v>
-      </c>
-      <c r="O117" s="65" t="s">
-        <v>625</v>
+      <c r="J117" s="61" t="s">
+        <v>448</v>
+      </c>
+      <c r="K117" s="61" t="s">
+        <v>512</v>
+      </c>
+      <c r="L117" s="62" t="s">
+        <v>513</v>
+      </c>
+      <c r="M117" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="N117" s="47" t="s">
+        <v>534</v>
       </c>
     </row>
-    <row r="118" spans="1:35" ht="30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A118" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -15712,7 +14583,7 @@
         <v>24</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>704</v>
+        <v>510</v>
       </c>
       <c r="H118" s="12"/>
       <c r="I118" s="37"/>
@@ -15722,17 +14593,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2009/8/28–2009/9/20: The Dead Sea Scrolls &amp; the Ancient World at the The Arts House</v>
       </c>
-      <c r="M118" s="47" t="s">
-        <v>559</v>
-      </c>
-      <c r="N118" s="47" t="s">
-        <v>568</v>
-      </c>
-      <c r="O118" s="48" t="s">
-        <v>638</v>
-      </c>
+      <c r="M118" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="N118" s="47"/>
     </row>
-    <row r="119" spans="1:35" ht="30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A119" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -15761,17 +14627,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/1/22–2010/6/6: Dead Sea Scrolls and the Bible at the Milwaukee Public Museum</v>
       </c>
-      <c r="M119" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="N119" s="47" t="s">
-        <v>463</v>
-      </c>
-      <c r="O119" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M119" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N119" s="47"/>
     </row>
-    <row r="120" spans="1:35" ht="43" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:33" ht="43" x14ac:dyDescent="0.2">
       <c r="A120" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -15792,7 +14653,7 @@
         <v>226</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>716</v>
+        <v>521</v>
       </c>
       <c r="H120" s="12"/>
       <c r="I120" s="37"/>
@@ -15802,17 +14663,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/2/17–2010/3/4: Ink &amp; Blood: Dead Sea Scrolls to Gutenberg at the Pope John Paul II High School</v>
       </c>
-      <c r="M120" s="47" t="s">
-        <v>560</v>
-      </c>
-      <c r="N120" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="O120" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M120" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N120" s="47"/>
     </row>
-    <row r="121" spans="1:35" ht="30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A121" s="46">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -15839,17 +14695,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v xml:space="preserve">2010/3/12–2010/10/24: The Dead Sea Scrolls: Words that Changed the World at the </v>
       </c>
-      <c r="M121" s="47" t="s">
-        <v>561</v>
-      </c>
-      <c r="N121" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="O121" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M121" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N121" s="47"/>
     </row>
-    <row r="122" spans="1:35" ht="110" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:33" ht="110" x14ac:dyDescent="0.2">
       <c r="A122" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -15870,31 +14721,26 @@
         <v>399</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>674</v>
+        <v>480</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>232</v>
       </c>
       <c r="I122" s="37"/>
       <c r="J122" s="12"/>
-      <c r="K122" s="52" t="s">
-        <v>661</v>
+      <c r="K122" s="51" t="s">
+        <v>467</v>
       </c>
       <c r="L122" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/4/8–2010/5/15: Dead Sea Scrolls to the Bible in America at the Bayside Church Granite Bay Campus</v>
       </c>
-      <c r="M122" s="47" t="s">
-        <v>562</v>
-      </c>
-      <c r="N122" s="47" t="s">
-        <v>571</v>
-      </c>
-      <c r="O122" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M122" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N122" s="47"/>
     </row>
-    <row r="123" spans="1:35" ht="100" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:33" ht="100" x14ac:dyDescent="0.2">
       <c r="A123" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -15915,31 +14761,26 @@
         <v>230</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>674</v>
+        <v>480</v>
       </c>
       <c r="H123" s="12" t="s">
         <v>231</v>
       </c>
       <c r="I123" s="37"/>
       <c r="J123" s="12"/>
-      <c r="K123" s="52" t="s">
-        <v>662</v>
+      <c r="K123" s="51" t="s">
+        <v>468</v>
       </c>
       <c r="L123" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/5/21–2010/8/29: Treasures of the Bible: The Dead Sea Scrolls and Beyond at the Azusa Pacific University</v>
       </c>
-      <c r="M123" s="47" t="s">
-        <v>563</v>
-      </c>
-      <c r="N123" s="47" t="s">
-        <v>572</v>
-      </c>
-      <c r="O123" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M123" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N123" s="47"/>
     </row>
-    <row r="124" spans="1:35" ht="40" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:33" ht="40" x14ac:dyDescent="0.2">
       <c r="A124" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -15965,24 +14806,19 @@
       <c r="H124" s="12"/>
       <c r="I124" s="37"/>
       <c r="J124" s="12"/>
-      <c r="K124" s="52" t="s">
-        <v>665</v>
+      <c r="K124" s="51" t="s">
+        <v>471</v>
       </c>
       <c r="L124" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/6/1–2010/7/11: Qumran - Le Secret des Manuscrits de la Mer Morte at the Bibliotheque Nationale</v>
       </c>
-      <c r="M124" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="N124" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="O124" s="48" t="s">
-        <v>627</v>
-      </c>
+      <c r="M124" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="N124" s="47"/>
     </row>
-    <row r="125" spans="1:35" ht="70" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:33" ht="70" x14ac:dyDescent="0.2">
       <c r="A125" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16008,24 +14844,19 @@
       <c r="H125" s="12"/>
       <c r="I125" s="37"/>
       <c r="J125" s="12"/>
-      <c r="K125" s="52" t="s">
-        <v>666</v>
+      <c r="K125" s="51" t="s">
+        <v>472</v>
       </c>
       <c r="L125" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/10/20–2010/11/30: Origins at the 449 West Parks Highway</v>
       </c>
-      <c r="M125" s="48" t="s">
-        <v>605</v>
-      </c>
-      <c r="N125" s="48" t="s">
-        <v>606</v>
-      </c>
-      <c r="O125" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M125" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N125" s="47"/>
     </row>
-    <row r="126" spans="1:35" ht="45" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A126" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16051,24 +14882,19 @@
       <c r="H126" s="12"/>
       <c r="I126" s="37"/>
       <c r="J126" s="12"/>
-      <c r="K126" s="52" t="s">
-        <v>667</v>
+      <c r="K126" s="51" t="s">
+        <v>473</v>
       </c>
       <c r="L126" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/1/27–2011/5/1: Bible in English at the Gerber Academic Building at Ashland Theological Seminary</v>
       </c>
-      <c r="M126" s="47" t="s">
-        <v>573</v>
-      </c>
-      <c r="N126" s="47" t="s">
-        <v>587</v>
-      </c>
-      <c r="O126" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M126" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N126" s="47"/>
     </row>
-    <row r="127" spans="1:35" ht="90" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:33" ht="90" x14ac:dyDescent="0.2">
       <c r="A127" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16094,24 +14920,19 @@
       <c r="H127" s="12"/>
       <c r="I127" s="37"/>
       <c r="J127" s="12"/>
-      <c r="K127" s="52" t="s">
-        <v>668</v>
+      <c r="K127" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="L127" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/4/7–2011/4/9: 400th Anniversary: The King James Bible and the World it Made at the Baylor University</v>
       </c>
-      <c r="M127" s="47" t="s">
-        <v>574</v>
-      </c>
-      <c r="N127" s="47" t="s">
-        <v>588</v>
-      </c>
-      <c r="O127" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M127" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N127" s="47"/>
     </row>
-    <row r="128" spans="1:35" ht="60" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" ht="60" x14ac:dyDescent="0.2">
       <c r="A128" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16137,24 +14958,19 @@
       <c r="H128" s="12"/>
       <c r="I128" s="37"/>
       <c r="J128" s="12"/>
-      <c r="K128" s="52" t="s">
-        <v>669</v>
+      <c r="K128" s="51" t="s">
+        <v>475</v>
       </c>
       <c r="L128" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/5/16–2011/10/16: Passages at the Oklahoma City Museum of Art</v>
       </c>
-      <c r="M128" s="47" t="s">
-        <v>575</v>
-      </c>
-      <c r="N128" s="47" t="s">
-        <v>589</v>
-      </c>
-      <c r="O128" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M128" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N128" s="47"/>
     </row>
-    <row r="129" spans="1:15" ht="42" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" ht="42" x14ac:dyDescent="0.2">
       <c r="A129" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16180,24 +14996,19 @@
       <c r="H129" s="12"/>
       <c r="I129" s="37"/>
       <c r="J129" s="12"/>
-      <c r="K129" s="52" t="s">
-        <v>670</v>
+      <c r="K129" s="51" t="s">
+        <v>476</v>
       </c>
       <c r="L129" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/10/24–2011/10/25: Bible &amp; Literature Missionary Foundation's 43rd annual Scripture Conference at the Victory Baptist Church</v>
       </c>
-      <c r="M129" s="47" t="s">
-        <v>576</v>
-      </c>
-      <c r="N129" s="47" t="s">
-        <v>590</v>
-      </c>
-      <c r="O129" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M129" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N129" s="47"/>
     </row>
-    <row r="130" spans="1:15" ht="133" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" ht="133" x14ac:dyDescent="0.2">
       <c r="A130" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16218,29 +15029,24 @@
         <v>146</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>675</v>
+        <v>481</v>
       </c>
       <c r="H130" s="12"/>
       <c r="I130" s="37"/>
       <c r="J130" s="12"/>
-      <c r="K130" s="52" t="s">
-        <v>651</v>
+      <c r="K130" s="51" t="s">
+        <v>457</v>
       </c>
       <c r="L130" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/10/28–2012/4/15: Dead Sea Scrolls: Life and Faith in Ancient Times at the Discovery Times Square</v>
       </c>
-      <c r="M130" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="N130" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="O130" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M130" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N130" s="47"/>
     </row>
-    <row r="131" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A131" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16266,24 +15072,19 @@
       <c r="H131" s="12"/>
       <c r="I131" s="37"/>
       <c r="J131" s="12"/>
-      <c r="K131" s="52" t="s">
-        <v>663</v>
+      <c r="K131" s="51" t="s">
+        <v>469</v>
       </c>
       <c r="L131" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/11/19–2012/6/30: Passages at the Perimeter Expo Center</v>
       </c>
-      <c r="M131" s="47" t="s">
-        <v>550</v>
-      </c>
-      <c r="N131" s="47" t="s">
-        <v>552</v>
-      </c>
-      <c r="O131" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M131" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N131" s="47"/>
     </row>
-    <row r="132" spans="1:15" ht="43" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" ht="43" x14ac:dyDescent="0.2">
       <c r="A132" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16304,29 +15105,24 @@
         <v>258</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>716</v>
+        <v>521</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="37"/>
       <c r="J132" s="12"/>
-      <c r="K132" s="52" t="s">
-        <v>664</v>
+      <c r="K132" s="51" t="s">
+        <v>470</v>
       </c>
       <c r="L132" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/2/3–2012/9/9: Ink &amp; Blood: Dead Sea Scrolls to Gutenberg at the Muzeo Museum and Cultural Center</v>
       </c>
-      <c r="M132" s="47" t="s">
-        <v>577</v>
-      </c>
-      <c r="N132" s="47" t="s">
-        <v>591</v>
-      </c>
-      <c r="O132" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M132" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N132" s="47"/>
     </row>
-    <row r="133" spans="1:15" ht="133" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" ht="133" x14ac:dyDescent="0.2">
       <c r="A133" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16347,29 +15143,24 @@
         <v>176</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>675</v>
+        <v>481</v>
       </c>
       <c r="H133" s="12"/>
       <c r="I133" s="37"/>
       <c r="J133" s="12"/>
-      <c r="K133" s="52" t="s">
-        <v>651</v>
+      <c r="K133" s="51" t="s">
+        <v>457</v>
       </c>
       <c r="L133" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/5/12–2012/10/14: Dead Sea Scrolls: Life and Faith in Ancient Times at the Franklin Institute</v>
       </c>
-      <c r="M133" s="47" t="s">
-        <v>456</v>
-      </c>
-      <c r="N133" s="47" t="s">
-        <v>465</v>
-      </c>
-      <c r="O133" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M133" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N133" s="47"/>
     </row>
-    <row r="134" spans="1:15" ht="214" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" ht="214" x14ac:dyDescent="0.2">
       <c r="A134" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16390,7 +15181,7 @@
         <v>92</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>719</v>
+        <v>524</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>312</v>
@@ -16398,23 +15189,18 @@
       <c r="I134" s="37"/>
       <c r="J134" s="12"/>
       <c r="K134" s="12" t="s">
-        <v>650</v>
+        <v>456</v>
       </c>
       <c r="L134" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/7/2–2013/1/13: Dead Sea Scrolls &amp; the Bible: Ancient Artefacts, Timeless Treasures at the Southwestern Baptist Theological Seminary</v>
       </c>
-      <c r="M134" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="N134" s="47" t="s">
-        <v>518</v>
-      </c>
-      <c r="O134" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M134" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N134" s="47"/>
     </row>
-    <row r="135" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A135" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16445,17 +15231,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/9/12–2013/3/30: Passages at the 8405 IBM Drive</v>
       </c>
-      <c r="M135" s="47" t="s">
-        <v>534</v>
-      </c>
-      <c r="N135" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="O135" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M135" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N135" s="47"/>
     </row>
-    <row r="136" spans="1:15" ht="290" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" ht="290" x14ac:dyDescent="0.2">
       <c r="A136" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16476,29 +15257,24 @@
         <v>278</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>676</v>
+        <v>482</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="37"/>
       <c r="J136" s="12"/>
-      <c r="K136" s="52" t="s">
-        <v>671</v>
+      <c r="K136" s="51" t="s">
+        <v>477</v>
       </c>
       <c r="L136" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/11/16–2013/4/14: Dead Sea Scrolls: Life and Faith in Ancient Times at the Cincinnati Museum Center</v>
       </c>
-      <c r="M136" s="47" t="s">
-        <v>578</v>
-      </c>
-      <c r="N136" s="47" t="s">
-        <v>592</v>
-      </c>
-      <c r="O136" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M136" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N136" s="47"/>
     </row>
-    <row r="137" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A137" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16506,7 +15282,7 @@
       <c r="B137" s="10">
         <v>41288</v>
       </c>
-      <c r="C137" s="50"/>
+      <c r="C137" s="49"/>
       <c r="D137" s="8" t="s">
         <v>5</v>
       </c>
@@ -16527,17 +15303,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2013/1/14–1900/1/0: Exhibition at the Lanier Theological Library</v>
       </c>
-      <c r="M137" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="N137" s="47" t="s">
-        <v>501</v>
-      </c>
-      <c r="O137" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M137" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N137" s="47"/>
     </row>
-    <row r="138" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A138" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16568,17 +15339,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2013/3/1–2014/2/1: Passages at the 3979 Palmer Park Boulevard</v>
       </c>
-      <c r="M138" s="47" t="s">
-        <v>579</v>
-      </c>
-      <c r="N138" s="47" t="s">
-        <v>593</v>
-      </c>
-      <c r="O138" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M138" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N138" s="47"/>
     </row>
-    <row r="139" spans="1:15" ht="133" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" ht="133" x14ac:dyDescent="0.2">
       <c r="A139" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16599,7 +15365,7 @@
         <v>284</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>675</v>
+        <v>481</v>
       </c>
       <c r="H139" s="12"/>
       <c r="I139" s="37"/>
@@ -16609,17 +15375,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2013/5/19–2013/10/20: Dead Sea Scrolls: Life and Faith in Ancient Times at the Museum of Science</v>
       </c>
-      <c r="M139" s="47" t="s">
-        <v>580</v>
-      </c>
-      <c r="N139" s="47" t="s">
-        <v>594</v>
-      </c>
-      <c r="O139" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M139" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N139" s="47"/>
     </row>
-    <row r="140" spans="1:15" ht="133" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" ht="133" x14ac:dyDescent="0.2">
       <c r="A140" s="45">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16640,7 +15401,7 @@
         <v>286</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>675</v>
+        <v>481</v>
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="37"/>
@@ -16650,17 +15411,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2013/11/22–2014/4/27: Dead Sea Scrolls: Life and Faith in Ancient Times at the The Leonardo</v>
       </c>
-      <c r="M140" s="47" t="s">
-        <v>581</v>
-      </c>
-      <c r="N140" s="47" t="s">
-        <v>595</v>
-      </c>
-      <c r="O140" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M140" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N140" s="47"/>
     </row>
-    <row r="141" spans="1:15" ht="29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" ht="29" x14ac:dyDescent="0.2">
       <c r="A141" s="34">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16668,7 +15424,7 @@
       <c r="B141" s="10">
         <v>41640</v>
       </c>
-      <c r="C141" s="50"/>
+      <c r="C141" s="49"/>
       <c r="D141" s="8" t="s">
         <v>5</v>
       </c>
@@ -16679,7 +15435,7 @@
         <v>318</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>677</v>
+        <v>483</v>
       </c>
       <c r="H141" s="12"/>
       <c r="I141" s="37"/>
@@ -16689,17 +15445,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2014/1/1–1900/1/0: Exhibition at the The Jordan Museum</v>
       </c>
-      <c r="M141" s="47" t="s">
-        <v>426</v>
-      </c>
-      <c r="N141" s="47" t="s">
-        <v>441</v>
-      </c>
-      <c r="O141" s="48" t="s">
-        <v>621</v>
-      </c>
+      <c r="M141" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="N141" s="47"/>
     </row>
-    <row r="142" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A142" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16720,7 +15471,7 @@
         <v>268</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>678</v>
+        <v>484</v>
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="37"/>
@@ -16730,17 +15481,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2014/4/2–2014/6/22: Verbum Domini II at the Braccio di Carlo Magno museum</v>
       </c>
-      <c r="M142" s="47" t="s">
-        <v>477</v>
-      </c>
-      <c r="N142" s="47" t="s">
-        <v>503</v>
-      </c>
-      <c r="O142" s="48" t="s">
-        <v>629</v>
-      </c>
+      <c r="M142" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="N142" s="47"/>
     </row>
-    <row r="143" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A143" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16771,17 +15517,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2014/4/12–2015/1/3: Passages at the 3534 E. Sunshine St</v>
       </c>
-      <c r="M143" s="47" t="s">
-        <v>582</v>
-      </c>
-      <c r="N143" s="47" t="s">
-        <v>596</v>
-      </c>
-      <c r="O143" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M143" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N143" s="47"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" ht="42" x14ac:dyDescent="0.2">
       <c r="A144" s="46">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16789,11 +15530,15 @@
       <c r="B144" s="10">
         <v>41947</v>
       </c>
-      <c r="C144" s="50"/>
-      <c r="D144" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E144" s="5"/>
+      <c r="C144" s="71">
+        <v>42029</v>
+      </c>
+      <c r="D144" s="72" t="s">
+        <v>525</v>
+      </c>
+      <c r="E144" s="73" t="s">
+        <v>527</v>
+      </c>
       <c r="F144" s="5" t="s">
         <v>407</v>
       </c>
@@ -16803,22 +15548,19 @@
       <c r="H144" s="12"/>
       <c r="I144" s="37"/>
       <c r="J144" s="12"/>
-      <c r="K144" s="12"/>
+      <c r="K144" s="74" t="s">
+        <v>526</v>
+      </c>
       <c r="L144" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
-        <v xml:space="preserve">2014/11/4–1900/1/0: Exhibition at the </v>
-      </c>
-      <c r="M144" s="47" t="s">
-        <v>583</v>
-      </c>
-      <c r="N144" s="47" t="s">
-        <v>597</v>
-      </c>
-      <c r="O144" s="48" t="s">
+        <v>2014/11/4–2015/1/25: Temple, Scrolls, and Divine Messengers: Archaeology of the Land of Israel in Roman Times at the Chantal Miller Gallery</v>
+      </c>
+      <c r="M144" s="48" t="s">
         <v>407</v>
       </c>
+      <c r="N144" s="47"/>
     </row>
-    <row r="145" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A145" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16849,17 +15591,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2015/3/3–2016/4/2: Passages at the 26565 Bouquet canyon rd</v>
       </c>
-      <c r="M145" s="47" t="s">
-        <v>584</v>
-      </c>
-      <c r="N145" s="47" t="s">
-        <v>598</v>
-      </c>
-      <c r="O145" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M145" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N145" s="47"/>
     </row>
-    <row r="146" spans="1:15" ht="133" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" ht="133" x14ac:dyDescent="0.2">
       <c r="A146" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16880,29 +15617,24 @@
         <v>153</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>675</v>
+        <v>481</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="37"/>
       <c r="J146" s="12"/>
       <c r="K146" s="12" t="s">
-        <v>649</v>
+        <v>455</v>
       </c>
       <c r="L146" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2015/3/10–2015/9/7: Dead Sea Scrolls: Life and Faith in Ancient Times at the California Science Center</v>
       </c>
-      <c r="M146" s="47" t="s">
-        <v>455</v>
-      </c>
-      <c r="N146" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="O146" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M146" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N146" s="47"/>
     </row>
-    <row r="147" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A147" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16933,17 +15665,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2015/7/11–2015/8/1: Los Destacados de la Museum Collections at the Pontifical Catholic University of Argentina</v>
       </c>
-      <c r="M147" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="N147" s="47" t="s">
-        <v>461</v>
-      </c>
-      <c r="O147" s="48" t="s">
-        <v>626</v>
-      </c>
+      <c r="M147" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="N147" s="47"/>
     </row>
-    <row r="148" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A148" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -16974,17 +15701,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2015/9/21–2015/9/29: Verbum Domini II at the Pennsylvania Convetion Center</v>
       </c>
-      <c r="M148" s="47" t="s">
-        <v>456</v>
-      </c>
-      <c r="N148" s="47" t="s">
-        <v>465</v>
-      </c>
-      <c r="O148" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M148" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N148" s="47"/>
     </row>
-    <row r="149" spans="1:15" ht="90" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A149" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -17005,7 +15727,7 @@
         <v>165</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>717</v>
+        <v>522</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="37"/>
@@ -17017,17 +15739,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2016/11/2–2016/11/12: 2000 Years of Jewish Culture: An Exhibition of Books, Manuscripts, Art and Jewelry at the Shapero Rare Books</v>
       </c>
-      <c r="M149" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="N149" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="O149" s="48" t="s">
-        <v>620</v>
-      </c>
+      <c r="M149" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="N149" s="47"/>
     </row>
-    <row r="150" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A150" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -17048,7 +15765,7 @@
         <v>276</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>679</v>
+        <v>485</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="37"/>
@@ -17058,17 +15775,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2017/4/7–2017/5/13: Unser Buch at the Augsburger Rathaus</v>
       </c>
-      <c r="M150" s="47" t="s">
-        <v>585</v>
-      </c>
-      <c r="N150" s="47" t="s">
-        <v>599</v>
-      </c>
-      <c r="O150" s="48" t="s">
-        <v>632</v>
-      </c>
+      <c r="M150" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="N150" s="47"/>
     </row>
-    <row r="151" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A151" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -17101,17 +15813,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2017/9/21–2017/9/22: Biblical Heritage Archive Traveling Museum at the Fairhaven Baptist College</v>
       </c>
-      <c r="M151" s="47" t="s">
-        <v>586</v>
-      </c>
-      <c r="N151" s="47" t="s">
-        <v>600</v>
-      </c>
-      <c r="O151" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M151" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N151" s="47"/>
     </row>
-    <row r="152" spans="1:15" ht="50" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" ht="50" x14ac:dyDescent="0.2">
       <c r="A152" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -17144,17 +15851,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2017/10/28–2017/10/28: Biblical Heritage Archive Traveling Museum at the Waukesha County Expo Center</v>
       </c>
-      <c r="M152" s="47" t="s">
-        <v>603</v>
-      </c>
-      <c r="N152" s="47" t="s">
-        <v>604</v>
-      </c>
-      <c r="O152" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M152" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N152" s="47"/>
     </row>
-    <row r="153" spans="1:15" ht="70" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" ht="70" x14ac:dyDescent="0.2">
       <c r="A153" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -17162,8 +15864,8 @@
       <c r="B153" s="17">
         <v>43056</v>
       </c>
-      <c r="C153" s="50"/>
-      <c r="D153" s="54" t="s">
+      <c r="C153" s="49"/>
+      <c r="D153" s="53" t="s">
         <v>5</v>
       </c>
       <c r="E153" s="16" t="s">
@@ -17173,7 +15875,7 @@
         <v>148</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>680</v>
+        <v>486</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="40"/>
@@ -17185,17 +15887,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2017/11/17–1900/1/0: Exhibition at the Museum of the Bible</v>
       </c>
-      <c r="M153" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="N153" s="47" t="s">
-        <v>435</v>
-      </c>
-      <c r="O153" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M153" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N153" s="47"/>
     </row>
-    <row r="154" spans="1:15" ht="133" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" ht="133" x14ac:dyDescent="0.2">
       <c r="A154" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -17216,7 +15913,7 @@
         <v>289</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>675</v>
+        <v>481</v>
       </c>
       <c r="H154" s="12"/>
       <c r="I154" s="37"/>
@@ -17226,17 +15923,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2018/3/16–2018/9/3: Dead Sea Scrolls: Life and Faith in Ancient Times at the Denver Museum of Nature and Science</v>
       </c>
-      <c r="M154" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="N154" s="47" t="s">
-        <v>602</v>
-      </c>
-      <c r="O154" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M154" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N154" s="47"/>
     </row>
-    <row r="155" spans="1:15" ht="50" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" ht="50" x14ac:dyDescent="0.2">
       <c r="A155" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -17269,17 +15961,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2019/10/8–2019/10/9: Biblical Heritage Archive Traveling Museum at the VCY Headquarters</v>
       </c>
-      <c r="M155" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="N155" s="47" t="s">
-        <v>463</v>
-      </c>
-      <c r="O155" s="51" t="s">
-        <v>619</v>
-      </c>
+      <c r="M155" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="N155" s="47"/>
     </row>
-    <row r="156" spans="1:15" ht="42" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" ht="42" x14ac:dyDescent="0.2">
       <c r="A156" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2020</v>
@@ -17312,17 +15999,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2022/11/7–2022/11/10: Exhibition at the Aguttes Auction House</v>
       </c>
-      <c r="M156" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="N156" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="O156" s="48" t="s">
-        <v>627</v>
-      </c>
+      <c r="M156" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="N156" s="47"/>
     </row>
-    <row r="157" spans="1:15" ht="42" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" ht="42" x14ac:dyDescent="0.2">
       <c r="A157" s="45">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2020</v>
@@ -17355,17 +16037,12 @@
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2022/11/14–2022/11/15: Exhibition at the Aguttes Auction House</v>
       </c>
-      <c r="M157" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="N157" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="O157" s="48" t="s">
-        <v>627</v>
-      </c>
+      <c r="M157" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="N157" s="47"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="28"/>
       <c r="B158" s="29"/>
       <c r="C158" s="29"/>
@@ -17378,10 +16055,8 @@
       <c r="J158" s="32"/>
       <c r="K158" s="32"/>
       <c r="L158" s="33"/>
-      <c r="M158" s="23"/>
-      <c r="N158" s="23"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="28"/>
       <c r="B159" s="29"/>
       <c r="C159" s="29"/>
@@ -17394,10 +16069,8 @@
       <c r="J159" s="32"/>
       <c r="K159" s="32"/>
       <c r="L159" s="33"/>
-      <c r="M159" s="23"/>
-      <c r="N159" s="23"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D160"/>
       <c r="E160"/>
       <c r="F160"/>
@@ -17407,10 +16080,8 @@
       <c r="J160"/>
       <c r="K160"/>
       <c r="L160"/>
-      <c r="M160" s="23"/>
-      <c r="N160" s="23"/>
     </row>
-    <row r="161" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D161"/>
       <c r="E161"/>
       <c r="F161"/>
@@ -17420,10 +16091,8 @@
       <c r="J161"/>
       <c r="K161"/>
       <c r="L161"/>
-      <c r="M161" s="23"/>
-      <c r="N161" s="23"/>
     </row>
-    <row r="162" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D162"/>
       <c r="E162"/>
       <c r="F162"/>
@@ -17433,8 +16102,6 @@
       <c r="J162"/>
       <c r="K162"/>
       <c r="L162"/>
-      <c r="M162" s="23"/>
-      <c r="N162" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/exhibition-v2.xlsx
+++ b/data/exhibition-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hildad/Documents/GitHub/lyingpendatabases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAB3FEF-98CD-D740-BDF2-5A7DF87E5E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F6DB5F-5C15-E246-8577-A21A2481B8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4638,83 +4638,6 @@
   </si>
   <si>
     <r>
-      <t>"Calendar."</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>exhib</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>KTLY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t xml:space="preserve">. https://web.archive.org/web/20030620142209/http://www.klty.com/community-events.shtml.
-"Celebrate Freedom: America’s Largest Free, Single-Day Concert Set for July 3rd; 94.9 KLTY-FM Sponsors Event at South Fork Ranch" (2004, 9 June). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>Business Wire</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t xml:space="preserve">. https://www.businesswire.com/news/home/20040609005715/en/Celebrate-Freedom-Americas-Largest-Free-Single-Day-Concert.
-"Dead Sea Scrolls Fragment Will Be Publicly Displayed Outside A Museum for the First Time Ever." </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>Cision</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>.26 June 2003.  https://web.archive.org/web/20180508134255/https:/www.prnewswire.com/news-releases/dead-sea-scrolls-fragment-will-be-publicly-displayed-outside-a-museum-for-the-first-time-ever-71417182.html.
-Kalman, Jason (2017, 12 February). "Catalogue of Dead Sea Scroll Exhibitions 1949-." Academia.edu. https://www.academia.edu/30724110/Catalogue_of_Dead_Sea_Scroll_Exhibitions_1949.
-Kjeldsberg, Ludvik A. (2018). "Forfalskede Relikvier? Aktører innenfor det kristne høyres bruk av ‘Dødehavsruller’." MA diss. University of Agder. See pp. 25 and 116.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Smith, Samuel. "Seminary Family Gets Rare Glimpse at 2,200-year-old Dead Sea Fragment." </t>
     </r>
     <r>
@@ -8512,19 +8435,79 @@
     <t>Rotation</t>
   </si>
   <si>
-    <t>NL-03-1</t>
-  </si>
-  <si>
-    <t>NL-03-2</t>
-  </si>
-  <si>
-    <t>CA-09-1</t>
-  </si>
-  <si>
-    <t>CA-09-2</t>
-  </si>
-  <si>
-    <t>CA-09-3</t>
+    <t>1;3;1</t>
+  </si>
+  <si>
+    <t>1;3;2</t>
+  </si>
+  <si>
+    <t>1;3;3</t>
+  </si>
+  <si>
+    <t>2;2;1</t>
+  </si>
+  <si>
+    <t>2;2;2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"Calendar." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>KTLY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t xml:space="preserve">. https://web.archive.org/web/20030620142209/http://www.klty.com/community-events.shtml.
+"Celebrate Freedom: America’s Largest Free, Single-Day Concert Set for July 3rd; 94.9 KLTY-FM Sponsors Event at South Fork Ranch" (2004, 9 June). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>Business Wire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t xml:space="preserve">. https://www.businesswire.com/news/home/20040609005715/en/Celebrate-Freedom-Americas-Largest-Free-Single-Day-Concert.
+"Dead Sea Scrolls Fragment Will Be Publicly Displayed Outside A Museum for the First Time Ever." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>Cision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>.26 June 2003.  https://web.archive.org/web/20180508134255/https:/www.prnewswire.com/news-releases/dead-sea-scrolls-fragment-will-be-publicly-displayed-outside-a-museum-for-the-first-time-ever-71417182.html.
+Kalman, Jason (2017, 12 February). "Catalogue of Dead Sea Scroll Exhibitions 1949-." Academia.edu. https://www.academia.edu/30724110/Catalogue_of_Dead_Sea_Scroll_Exhibitions_1949.
+Kjeldsberg, Ludvik A. (2018). "Forfalskede Relikvier? Aktører innenfor det kristne høyres bruk av ‘Dødehavsruller’." MA diss. University of Agder. See pp. 25 and 116.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -8534,7 +8517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8606,12 +8589,6 @@
       <b/>
       <sz val="12"/>
       <name val="Aleo"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Aleo Light"/>
     </font>
     <font>
       <sz val="10"/>
@@ -9062,7 +9039,7 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9074,32 +9051,32 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9965,10 +9942,10 @@
   </sheetPr>
   <dimension ref="A1:AG162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomLeft" activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10039,10 +10016,10 @@
         <v>306</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O1" s="23"/>
       <c r="P1"/>
@@ -10098,7 +10075,7 @@
         <v xml:space="preserve">1948/12/28–1948/12/30: The Fifth Convention of the Jewish Palestine Exploration Society at the </v>
       </c>
       <c r="M2" s="48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N2" s="47"/>
       <c r="O2" s="23"/>
@@ -10133,7 +10110,7 @@
         <v>18208</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>147</v>
@@ -10149,7 +10126,7 @@
         <v>15000</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>359</v>
@@ -10159,7 +10136,7 @@
         <v>1949/10/22–1949/11/6: Ancient Hebrew Scrolls at the Library of Congress</v>
       </c>
       <c r="M3" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N3" s="47"/>
       <c r="O3" s="23"/>
@@ -10216,7 +10193,7 @@
         <v>1949/11/10–1949/11/17: Exhibition at the Walters Art Gallery</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N4" s="47"/>
       <c r="O4" s="23"/>
@@ -10273,7 +10250,7 @@
         <v>1950/1/10–1950/1/10: Exhibition at the Zion Research Library</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N5" s="47"/>
     </row>
@@ -10311,7 +10288,7 @@
         <v>1950/2/12–1950/2/17: Exhibition at the Duke University</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N6" s="47"/>
     </row>
@@ -10349,7 +10326,7 @@
         <v>1950/2/15–1950/2/15: Exhibition at the The British Museum</v>
       </c>
       <c r="M7" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N7" s="47"/>
     </row>
@@ -10374,20 +10351,20 @@
         <v>114</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="37"/>
       <c r="J8" s="12"/>
       <c r="K8" s="51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L8" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1950/11/17–1950/11/26: Exhibition at the University of Chicago Oriental Institute</v>
       </c>
       <c r="M8" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N8" s="47"/>
     </row>
@@ -10412,7 +10389,7 @@
         <v>318</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="37"/>
@@ -10423,7 +10400,7 @@
         <v>1951/1/1–2009/1/1: Exhibition at the Jordan Archaeological Museum</v>
       </c>
       <c r="M9" s="48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N9" s="47"/>
     </row>
@@ -10461,7 +10438,7 @@
         <v>1951/10/1–1951/10/3: Exhibition at the Worcester Museum of Art</v>
       </c>
       <c r="M10" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N10" s="47"/>
     </row>
@@ -10499,7 +10476,7 @@
         <v>1951/11/1–1951/12/1: Exhibition at the Vassar College</v>
       </c>
       <c r="M11" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N11" s="47"/>
     </row>
@@ -10537,7 +10514,7 @@
         <v>1952/12/9–1952/12/9: Exhibition at the Palestine Archaeological Museum</v>
       </c>
       <c r="M12" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N12" s="47"/>
     </row>
@@ -10570,14 +10547,14 @@
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L13" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1953/6/1–1953/11/1: From the Land of the Bible at the Metropolitan Museum of Art</v>
       </c>
       <c r="M13" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N13" s="47"/>
     </row>
@@ -10617,7 +10594,7 @@
         <v>1954/1/10–1954/1/27: From the Land of the Bible at the National Gallery of Art</v>
       </c>
       <c r="M14" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N14" s="47"/>
     </row>
@@ -10657,7 +10634,7 @@
         <v>1954/2/17–1954/3/17: From the Land of the Bible at the Walters Art Gallery</v>
       </c>
       <c r="M15" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N15" s="47"/>
     </row>
@@ -10695,7 +10672,7 @@
         <v>1954/6/1–1954/9/1: From the Land of the Bible at the Gemeentemuseum Den Haag</v>
       </c>
       <c r="M16" s="48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N16" s="47"/>
     </row>
@@ -10720,7 +10697,7 @@
         <v>211</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="37"/>
@@ -10733,7 +10710,7 @@
         <v>1954/6/5–1954/6/12: Bible Week at the Beitenu</v>
       </c>
       <c r="M17" s="48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N17" s="47"/>
     </row>
@@ -10773,7 +10750,7 @@
         <v>1954/10/26–1954/12/31: From the Land of the Bible at the British Museum</v>
       </c>
       <c r="M18" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N18" s="47"/>
     </row>
@@ -10798,20 +10775,20 @@
         <v>204</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="37"/>
       <c r="J19" s="12"/>
       <c r="K19" s="51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L19" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/12/21–1954/12/21: 30th Anniversary of Jewish Studies Institute at the Hebrew University</v>
       </c>
       <c r="M19" s="48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N19" s="47"/>
     </row>
@@ -10843,7 +10820,7 @@
         <v>1956/1/1–1900/1/0: Exhibition at the The University of Chicago Oriental Institute Museum</v>
       </c>
       <c r="M20" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N20" s="47"/>
     </row>
@@ -10879,7 +10856,7 @@
         <v>1957/1/1–1957/1/1: Exhibition at the Hebrew University</v>
       </c>
       <c r="M21" s="48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N21" s="47"/>
     </row>
@@ -10910,14 +10887,14 @@
       <c r="I22" s="37"/>
       <c r="J22" s="12"/>
       <c r="K22" s="51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L22" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1957/3/25–1957/7/21: Exhibition at the Beirut Museum</v>
       </c>
       <c r="M22" s="48" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N22" s="47"/>
     </row>
@@ -10939,7 +10916,7 @@
         <v>186</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>157</v>
@@ -10957,7 +10934,7 @@
         <v>1958/4/17–1958/10/19: Exhibition at the Brussels World's Fair</v>
       </c>
       <c r="M23" s="48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N23" s="47"/>
     </row>
@@ -10982,20 +10959,20 @@
         <v>185</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="37"/>
       <c r="J24" s="12"/>
       <c r="K24" s="51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L24" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1958/6/5–1958/6/5: Exhibition at the Binyanei haUmah</v>
       </c>
       <c r="M24" s="48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N24" s="47"/>
     </row>
@@ -11029,7 +11006,7 @@
         <v>1958/12/16–1959/1/4: Men who Hid the Dead Sea Scrolls at the Royal Ontario Museum</v>
       </c>
       <c r="M25" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N25" s="47"/>
     </row>
@@ -11060,14 +11037,14 @@
       <c r="I26" s="37"/>
       <c r="J26" s="12"/>
       <c r="K26" s="51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L26" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1960/9/25–1960/10/1: Exhibition at the National Art Museum</v>
       </c>
       <c r="M26" s="48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N26" s="47"/>
     </row>
@@ -11092,7 +11069,7 @@
         <v>146</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>302</v>
@@ -11100,14 +11077,14 @@
       <c r="I27" s="37"/>
       <c r="J27" s="12"/>
       <c r="K27" s="51" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L27" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1964/4/22–1964/10/18: Exhibition at the New York World's Fair</v>
       </c>
       <c r="M27" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N27" s="47"/>
     </row>
@@ -11132,7 +11109,7 @@
         <v>155</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>325</v>
@@ -11140,14 +11117,14 @@
       <c r="I28" s="37"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L28" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1964/4/26–1964/5/10: The Book and the Spade at the Wisconsin Center</v>
       </c>
       <c r="M28" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N28" s="47"/>
     </row>
@@ -11172,7 +11149,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>325</v>
@@ -11187,7 +11164,7 @@
         <v>1964/5/21–1964/6/7: The Book and the Spade at the Public Museum of Milwaukee</v>
       </c>
       <c r="M29" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N29" s="47"/>
     </row>
@@ -11218,14 +11195,14 @@
       <c r="I30" s="37"/>
       <c r="J30" s="12"/>
       <c r="K30" s="51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L30" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1964/8/18–1964/11/1: Exhibition at the Lytton Center of the Visual Arts</v>
       </c>
       <c r="M30" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N30" s="47"/>
     </row>
@@ -11265,7 +11242,7 @@
         <v>1965/2/27–1965/3/21: Dead Sea Scrolls of Jordan at the Smithsonian National Museum of Natural History</v>
       </c>
       <c r="M31" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N31" s="47"/>
     </row>
@@ -11305,7 +11282,7 @@
         <v>1965/4/3–1965/4/25: Dead Sea Scrolls of Jordan at the University Museum</v>
       </c>
       <c r="M32" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N32" s="47"/>
     </row>
@@ -11339,7 +11316,7 @@
         <v>1965/4/20–1900/1/0: Exhibition at the Shrine of the Book</v>
       </c>
       <c r="M33" s="48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N33" s="47"/>
     </row>
@@ -11364,20 +11341,20 @@
         <v>146</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="37"/>
       <c r="J34" s="12"/>
       <c r="K34" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L34" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/4/21–1965/10/17: Exhibition at the New York World's Fair</v>
       </c>
       <c r="M34" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N34" s="47"/>
     </row>
@@ -11417,7 +11394,7 @@
         <v>1965/5/8–1965/5/30: Dead Sea Scrolls of Jordan at the Lowie Museum</v>
       </c>
       <c r="M35" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N35" s="47"/>
     </row>
@@ -11450,14 +11427,14 @@
       <c r="I36" s="37"/>
       <c r="J36" s="12"/>
       <c r="K36" s="51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L36" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/6/12–1965/7/5: Dead Sea Scrolls of Jordan at the Claremont Graduate School</v>
       </c>
       <c r="M36" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N36" s="47"/>
     </row>
@@ -11490,14 +11467,14 @@
       <c r="I37" s="37"/>
       <c r="J37" s="12"/>
       <c r="K37" s="51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L37" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/7/17–1965/8/8: Dead Sea Scrolls of Jordan at the Joslyn Art Museum</v>
       </c>
       <c r="M37" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N37" s="47"/>
     </row>
@@ -11530,14 +11507,14 @@
       <c r="I38" s="37"/>
       <c r="J38" s="12"/>
       <c r="K38" s="51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L38" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/8/21–1965/9/19: Dead Sea Scrolls of Jordan at the Walters Art Gallery</v>
       </c>
       <c r="M38" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N38" s="47"/>
     </row>
@@ -11570,14 +11547,14 @@
       <c r="I39" s="37"/>
       <c r="J39" s="12"/>
       <c r="K39" s="51" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L39" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/9/27–1965/10/17: Dead Sea Scrolls of Jordan at the National Museum</v>
       </c>
       <c r="M39" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N39" s="47"/>
     </row>
@@ -11610,14 +11587,14 @@
       <c r="I40" s="37"/>
       <c r="J40" s="12"/>
       <c r="K40" s="51" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L40" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/10/26–1965/11/15: Dead Sea Scrolls of Jordan at the Royal Ontario Museum</v>
       </c>
       <c r="M40" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N40" s="47"/>
     </row>
@@ -11650,14 +11627,14 @@
       <c r="I41" s="37"/>
       <c r="J41" s="12"/>
       <c r="K41" s="51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L41" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/12/16–1966/1/29: Dead Sea Scrolls of Jordan at the British Museum</v>
       </c>
       <c r="M41" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N41" s="47"/>
     </row>
@@ -11688,14 +11665,14 @@
       <c r="I42" s="37"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L42" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1967/4/27–1967/10/29: Exhibition at the Montreal World’s Fair</v>
       </c>
       <c r="M42" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N42" s="47"/>
     </row>
@@ -11720,20 +11697,20 @@
         <v>138</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="37"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L43" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1968/5/8–1968/9/2: Israel through the Ages at the Petit Palais</v>
       </c>
       <c r="M43" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N43" s="47"/>
     </row>
@@ -11771,7 +11748,7 @@
         <v>1968/5/22–1968/7/3: From the Lands of the Bible at the America-Israel Culture House</v>
       </c>
       <c r="M44" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N44" s="47"/>
     </row>
@@ -11793,7 +11770,7 @@
         <v>158</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>157</v>
@@ -11802,14 +11779,14 @@
       <c r="I45" s="37"/>
       <c r="J45" s="12"/>
       <c r="K45" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L45" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1968/10/12–1968/10/27: Exhibition at the Olympics</v>
       </c>
       <c r="M45" s="48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N45" s="47"/>
     </row>
@@ -11834,7 +11811,7 @@
         <v>146</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="37"/>
@@ -11847,7 +11824,7 @@
         <v>1971/6/19–1971/9/5: An Exhibition on the Dead Sea Scrolls at the American Bible Society</v>
       </c>
       <c r="M46" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N46" s="47"/>
     </row>
@@ -11885,7 +11862,7 @@
         <v>1972/11/23–1972/12/3: Exhibition at the Los Angeles Convention Center</v>
       </c>
       <c r="M47" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N47" s="47"/>
     </row>
@@ -11910,7 +11887,7 @@
         <v>155</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="37"/>
@@ -11923,7 +11900,7 @@
         <v>1975/4/13–1975/5/4: The Book and the Spade at the Wisconsin Center</v>
       </c>
       <c r="M48" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N48" s="47"/>
     </row>
@@ -11961,7 +11938,7 @@
         <v>1986/9/25–1987/1/4: Treasures from the Holy Land: Ancient Art from the Israel Museum at the Metropolitan Museum of Art</v>
       </c>
       <c r="M49" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N49" s="47"/>
     </row>
@@ -11999,7 +11976,7 @@
         <v>1987/4/9–1987/7/5: Treasures from the Holy Land: Ancient Art from the Israel Museum at the Los Angeles County Museum of Art</v>
       </c>
       <c r="M50" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N50" s="47"/>
     </row>
@@ -12037,7 +12014,7 @@
         <v>1987/10/31–1988/1/17: Treasures from the Holy Land: Ancient Art from the Israel Museum at the Museum of Fine Arts</v>
       </c>
       <c r="M51" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N51" s="47"/>
     </row>
@@ -12075,7 +12052,7 @@
         <v>1988/10/15–1989/1/14: A Sign and a Witness at the New York Public Library</v>
       </c>
       <c r="M52" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N52" s="47"/>
     </row>
@@ -12113,7 +12090,7 @@
         <v>1990/5/1–1990/9/1: Planets, Potions, Parchments at the David M. Stewart Museum</v>
       </c>
       <c r="M53" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N53" s="47"/>
     </row>
@@ -12138,7 +12115,7 @@
         <v>148</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>310</v>
@@ -12147,7 +12124,7 @@
         <v>311</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K54" s="12" t="s">
         <v>309</v>
@@ -12157,7 +12134,7 @@
         <v>1993/4/29–1993/8/1: Scrolls from the Dead Sea: The Ancient Library of Qumran and Modern Scholarship at the Library of Congress</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N54" s="47"/>
     </row>
@@ -12188,14 +12165,14 @@
       <c r="I55" s="37"/>
       <c r="J55" s="12"/>
       <c r="K55" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L55" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1993/10/2–1994/1/4: The Dead Sea Scrolls at the New York Public Library</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N55" s="47"/>
     </row>
@@ -12226,14 +12203,14 @@
       <c r="I56" s="37"/>
       <c r="J56" s="12"/>
       <c r="K56" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L56" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1994/2/26–1994/5/29: The Mystery of the Dead Sea Scrolls at the Fine Arts Museum</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N56" s="47"/>
     </row>
@@ -12264,14 +12241,14 @@
       <c r="I57" s="37"/>
       <c r="J57" s="12"/>
       <c r="K57" s="51" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L57" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1994/7/8–1994/10/2: Exhibition at the Biblioteca Apostolica Vaticana</v>
       </c>
       <c r="M57" s="48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N57" s="47"/>
     </row>
@@ -12302,14 +12279,14 @@
       <c r="I58" s="37"/>
       <c r="J58" s="12"/>
       <c r="K58" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L58" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1997/6/13–1997/10/15: Jordanie: Sur les pas des archéologues at the Institut du Monde Arabe</v>
       </c>
       <c r="M58" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N58" s="47"/>
     </row>
@@ -12334,20 +12311,20 @@
         <v>135</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="37"/>
       <c r="J59" s="12"/>
       <c r="K59" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L59" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1997/9/1–1997/9/18: Ancient Scrolls from the Dead Sea at the Brigham Young University Museum of Art</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N59" s="47"/>
     </row>
@@ -12378,14 +12355,14 @@
       <c r="I60" s="37"/>
       <c r="J60" s="12"/>
       <c r="K60" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L60" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1997/9/22–1998/1/18: Land der Bibel at the Kunsthistorisches Museum</v>
       </c>
       <c r="M60" s="48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N60" s="47"/>
     </row>
@@ -12416,14 +12393,14 @@
       <c r="I61" s="37"/>
       <c r="J61" s="12"/>
       <c r="K61" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L61" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1997/10/21–1998/1/10: Treasures from the Dead Sea at the Manchester Museum</v>
       </c>
       <c r="M61" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N61" s="47"/>
     </row>
@@ -12448,20 +12425,20 @@
         <v>123</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="37"/>
       <c r="J62" s="12"/>
       <c r="K62" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L62" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1998/5/1–1998/8/30: Scrolls from the Dead Sea at the Kelvingrove Museum</v>
       </c>
       <c r="M62" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N62" s="47"/>
     </row>
@@ -12497,7 +12474,7 @@
         <v>1998/7/29–1998/8/7: Congress of the International Organization for the study of the Old Testament at the University of Oslo</v>
       </c>
       <c r="M63" s="48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N63" s="47"/>
     </row>
@@ -12522,20 +12499,20 @@
         <v>120</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="37"/>
       <c r="J64" s="12"/>
       <c r="K64" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L64" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1998/11/14–1999/4/18: Qumran – Die Schriftrollen vom Toten Meer at the Roemisch Germanisches Museum</v>
       </c>
       <c r="M64" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N64" s="47"/>
     </row>
@@ -12560,20 +12537,20 @@
         <v>117</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="37"/>
       <c r="J65" s="12"/>
       <c r="K65" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L65" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1999/5/7–1999/8/8: Die Schriftrollen vom Toten Meer at the Stiftsbibliotek</v>
       </c>
       <c r="M65" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N65" s="47"/>
     </row>
@@ -12598,14 +12575,14 @@
         <v>114</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>310</v>
       </c>
       <c r="I66" s="37"/>
       <c r="J66" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>327</v>
@@ -12615,7 +12592,7 @@
         <v>2000/3/10–2000/6/18: The Dead Sea Scrolls at the Field Museum</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N66" s="47"/>
     </row>
@@ -12640,7 +12617,7 @@
         <v>107</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="37" t="s">
@@ -12655,7 +12632,7 @@
         <v>2000/7/14–2000/10/15: Exhibition at the Art Gallery of New South Wales</v>
       </c>
       <c r="M67" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N67" s="47"/>
     </row>
@@ -12680,7 +12657,7 @@
         <v>111</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="37" t="s">
@@ -12695,7 +12672,7 @@
         <v>2001/3/6–2001/6/17: Exhibition at the National Gallery of Victoria</v>
       </c>
       <c r="M68" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N68" s="47"/>
     </row>
@@ -12727,7 +12704,7 @@
         <v>2003/1/1–1900/1/0: Exhibition at the The Bible Museum</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N69" s="47"/>
     </row>
@@ -12752,7 +12729,7 @@
         <v>105</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="37"/>
@@ -12765,7 +12742,7 @@
         <v>2003/2/16–2003/6/1: The Dead Sea Scrolls at the Public Museum of Grand Rapids</v>
       </c>
       <c r="M70" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N70" s="47"/>
     </row>
@@ -12789,7 +12766,7 @@
         <v>103</v>
       </c>
       <c r="G71" s="52" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H71" s="67"/>
       <c r="I71" s="68"/>
@@ -12797,17 +12774,17 @@
         <v>331</v>
       </c>
       <c r="K71" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L71" s="69" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/3/14–2003/3/23: The European Fine Art Fair at the MECC</v>
       </c>
       <c r="M71" s="70" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N71" s="47" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="100" x14ac:dyDescent="0.2">
@@ -12831,7 +12808,7 @@
         <v>103</v>
       </c>
       <c r="G72" s="52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="37"/>
@@ -12846,10 +12823,10 @@
         <v>2003/3/17–2003/3/23: The European Fine Art Fair at the MECC</v>
       </c>
       <c r="M72" s="48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N72" s="47" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="218" x14ac:dyDescent="0.2">
@@ -12873,7 +12850,7 @@
         <v>100</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>234</v>
@@ -12890,7 +12867,7 @@
         <v>2003/4/6–2003/4/29: From the Dead Sea Scrolls to the Forbidden Book at the Center for the Arts</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N73" s="47"/>
     </row>
@@ -12915,7 +12892,7 @@
         <v>386</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="37"/>
@@ -12928,11 +12905,11 @@
         <v>2003/6/17–2003/11/2: Archaeology and the Bible—From King David to the Dead Sea Scrolls at the Pointe-à-Callière</v>
       </c>
       <c r="M74" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N74" s="47"/>
     </row>
-    <row r="75" spans="1:14" ht="227" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="236" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -12953,7 +12930,7 @@
         <v>89</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="37" t="s">
@@ -12961,14 +12938,14 @@
       </c>
       <c r="J75" s="12"/>
       <c r="K75" s="12" t="s">
-        <v>401</v>
+        <v>534</v>
       </c>
       <c r="L75" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/6/28–2003/6/28: Promotion of 'From the Dead Sea Scrolls to the Forbidden Book' at the South Fork Ranch</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N75" s="47"/>
     </row>
@@ -12993,20 +12970,20 @@
         <v>92</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="37"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L76" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/7/17–2003/7/17: Promotion of 'From the Dead Sea Scrolls to the Forbidden Book' at the Southwestern Baptist Theological Seminary</v>
       </c>
       <c r="M76" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N76" s="47"/>
     </row>
@@ -13031,7 +13008,7 @@
         <v>89</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>234</v>
@@ -13046,7 +13023,7 @@
         <v>2003/9/5–2003/12/28: From the Dead Sea Scrolls to the Forbidden Book at the Biblical Arts Center</v>
       </c>
       <c r="M77" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N77" s="47"/>
     </row>
@@ -13071,7 +13048,7 @@
         <v>87</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>90</v>
@@ -13086,7 +13063,7 @@
         <v>2003/12/5–2004/4/12: Ancient Treasures and the Dead Sea Scrolls at the Canadian Museum of Civilization</v>
       </c>
       <c r="M78" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N78" s="47"/>
     </row>
@@ -13111,7 +13088,7 @@
         <v>85</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>234</v>
@@ -13128,7 +13105,7 @@
         <v>2004/1/5–2004/1/30: From the Dead Sea Scrolls to the Forbidden Book at the Von Braun Civic Center</v>
       </c>
       <c r="M79" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N79" s="47"/>
     </row>
@@ -13153,7 +13130,7 @@
         <v>82</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>234</v>
@@ -13168,7 +13145,7 @@
         <v>2004/3/16–2004/4/18: From the Dead Sea Scrolls to the Forbidden Book at the John S. Knight Center</v>
       </c>
       <c r="M80" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N80" s="47"/>
     </row>
@@ -13193,7 +13170,7 @@
         <v>80</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>233</v>
@@ -13208,7 +13185,7 @@
         <v>2004/5/28–2004/6/20: Dead Sea Scrolls to the Bible in America at the Monroeville Expomart</v>
       </c>
       <c r="M81" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N81" s="47"/>
     </row>
@@ -13246,7 +13223,7 @@
         <v>2004/6/4–2004/6/4: The second annual meeting of the Nordic Network in Qumran Studies at the Martin Schøyen’s home in Røyken</v>
       </c>
       <c r="M82" s="48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N82" s="47"/>
     </row>
@@ -13280,7 +13257,7 @@
         <v>2004/8/16–2004/8/22: Dead Sea Scrolls to the Bible in America at the Adam Mark’s Hotel</v>
       </c>
       <c r="M83" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N83" s="47"/>
     </row>
@@ -13314,7 +13291,7 @@
         <v>2004/8/27–2004/9/26: Dead Sea Scrolls to the Bible in America at the Birch Run Expocenter</v>
       </c>
       <c r="M84" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N84" s="47"/>
     </row>
@@ -13348,7 +13325,7 @@
         <v>2004/10/1–2004/10/31: Dead Sea Scrolls to the Bible in America at the Concord Mall</v>
       </c>
       <c r="M85" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N85" s="47"/>
     </row>
@@ -13382,7 +13359,7 @@
         <v>2004/10/1–2005/1/15: Dead Sea Scrolls at the Houston Museum of Natural Sciences</v>
       </c>
       <c r="M86" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N86" s="47"/>
     </row>
@@ -13404,7 +13381,7 @@
         <v>65</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="12"/>
@@ -13416,7 +13393,7 @@
         <v>2004/10/27–2005/2/15: Pergaminhosdo Mar Morto at the Museu Brasileiro da Escultura Marilisa Rathsman</v>
       </c>
       <c r="M87" s="48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N87" s="47"/>
     </row>
@@ -13441,7 +13418,7 @@
         <v>296</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="37" t="s">
@@ -13449,14 +13426,14 @@
       </c>
       <c r="J88" s="12"/>
       <c r="K88" s="51" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L88" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2005/1/14–2005/3/27: Dead Sea Scrolls to the Bible in America at the Providence Place</v>
       </c>
       <c r="M88" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N88" s="47"/>
     </row>
@@ -13485,14 +13462,14 @@
       <c r="I89" s="37"/>
       <c r="J89" s="12"/>
       <c r="K89" s="51" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L89" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2005/1/20–2005/4/24: Exhibition at the Gulf Coast Explorium</v>
       </c>
       <c r="M89" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N89" s="47"/>
     </row>
@@ -13517,7 +13494,7 @@
         <v>63</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="37"/>
@@ -13530,7 +13507,7 @@
         <v>2005/2/5–2005/5/1: Ink &amp; Blood: Dead Sea Scrolls to the English Bible at the Knoxville Convention Center</v>
       </c>
       <c r="M90" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N90" s="47"/>
     </row>
@@ -13553,20 +13530,20 @@
         <v>61</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="37"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L91" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v xml:space="preserve">2005/4/27–2005/6/1: Dead Sea Scrolls to the Bible in America at the </v>
       </c>
       <c r="M91" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N91" s="47"/>
     </row>
@@ -13580,16 +13557,16 @@
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F92" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="H92" s="12"/>
       <c r="I92" s="37"/>
@@ -13600,7 +13577,7 @@
         <v>2005/5/21–1900/1/0: The New Hebrew: A Century of Art in Israel at the Martin Gropius-Bau Museum</v>
       </c>
       <c r="M92" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N92" s="47"/>
     </row>
@@ -13625,7 +13602,7 @@
         <v>392</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="37"/>
@@ -13638,7 +13615,7 @@
         <v>2005/6/24–2005/8/31: Ink &amp; Blood: Dead Sea Scrolls to the English Bible at the Lexington Center</v>
       </c>
       <c r="M93" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N93" s="47"/>
     </row>
@@ -13663,7 +13640,7 @@
         <v>393</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="37"/>
@@ -13674,7 +13651,7 @@
         <v>2006/1/13–2006/5/13: Ink &amp; Blood: Sacred Treasures of the Bible at the Florida International Museum</v>
       </c>
       <c r="M94" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N94" s="47"/>
     </row>
@@ -13708,7 +13685,7 @@
         <v>2006/2/17–2006/5/29: Cradle of Christianity: Treasures from the Holy Land at the Discovery Place</v>
       </c>
       <c r="M95" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N95" s="47"/>
     </row>
@@ -13742,7 +13719,7 @@
         <v>2006/4/1–2006/10/22: The Dead Sea Scrolls at the Maltz Museum of Jewish Heritage</v>
       </c>
       <c r="M96" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N96" s="47"/>
     </row>
@@ -13767,7 +13744,7 @@
         <v>394</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="37"/>
@@ -13780,7 +13757,7 @@
         <v>2006/5/26–2006/9/27: Ink &amp; Blood: Dead Sea Scrolls to the English Bible at the Museum of Arts &amp; Sciences</v>
       </c>
       <c r="M97" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N97" s="47"/>
     </row>
@@ -13805,7 +13782,7 @@
         <v>300</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>301</v>
@@ -13813,14 +13790,14 @@
       <c r="I98" s="37"/>
       <c r="J98" s="12"/>
       <c r="K98" s="51" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L98" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2006/9/23–2007/1/7: Discovering the Dead Sea Scrolls at the Pacific Science Center</v>
       </c>
       <c r="M98" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N98" s="47"/>
     </row>
@@ -13854,7 +13831,7 @@
         <v>2006/12/7–2007/4/15: Cradle of Christianity: Treasures from the Holy Land at the Museum of Art</v>
       </c>
       <c r="M99" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N99" s="47"/>
     </row>
@@ -13876,7 +13853,7 @@
         <v>50</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="12"/>
@@ -13888,7 +13865,7 @@
         <v>2007/2/8–2007/5/13: Exhibition at the Union Station</v>
       </c>
       <c r="M100" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N100" s="47"/>
     </row>
@@ -13913,7 +13890,7 @@
         <v>323</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="37"/>
@@ -13926,7 +13903,7 @@
         <v>2007/2/16–2007/5/28: Ink &amp; Blood: Dead Sea Scrolls to the King James Bible at the Museum of Idaho</v>
       </c>
       <c r="M101" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N101" s="47"/>
     </row>
@@ -13960,7 +13937,7 @@
         <v>2007/4/27–2007/9/23: Sacred: Discover What we Share at the British Museum</v>
       </c>
       <c r="M102" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N102" s="47"/>
     </row>
@@ -13994,7 +13971,7 @@
         <v>2007/6/16–2007/10/14: Cradle of Christianity: Treasures from the Holy Land at the Michael C. Carlos Museum of Emory University</v>
       </c>
       <c r="M103" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N103" s="47"/>
     </row>
@@ -14030,7 +14007,7 @@
         <v>2007/6/20–2007/6/22: Dead Sea Scrolls and Ancient Material at the Church of Acts</v>
       </c>
       <c r="M104" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N104" s="47"/>
     </row>
@@ -14059,14 +14036,14 @@
       <c r="I105" s="37"/>
       <c r="J105" s="12"/>
       <c r="K105" s="51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L105" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/6/29–2008/1/6: Dead Sea Scrolls: From Scroll to Codex at the Natural History Museum</v>
       </c>
       <c r="M105" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N105" s="47"/>
     </row>
@@ -14102,7 +14079,7 @@
         <v>2007/8/11–2007/8/11: Dead Sea Scrolls and Ancient Material at the Suncoast Cathedral</v>
       </c>
       <c r="M106" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N106" s="47"/>
     </row>
@@ -14138,7 +14115,7 @@
         <v>2007/10/7–2007/10/15: Dead Sea Scrolls and Ancient Material at the Suncoast Cathedral</v>
       </c>
       <c r="M107" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N107" s="47"/>
     </row>
@@ -14160,10 +14137,10 @@
         <v>314</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="37"/>
@@ -14178,7 +14155,7 @@
         <v>2007/12/5–2008/6/4: The Dead Sea Scrolls and the Birth of Christianity at the War Memorial of Korea</v>
       </c>
       <c r="M108" s="48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N108" s="47"/>
     </row>
@@ -14214,7 +14191,7 @@
         <v>2008/2/9–2008/8/10: Highlights from the Israel Antiquities Authority: The Dead Sea Scrolls and 5,000 Years of Treasures at the Fine Arts Museum</v>
       </c>
       <c r="M109" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N109" s="47"/>
     </row>
@@ -14230,7 +14207,7 @@
         <v>39670</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>32</v>
@@ -14248,7 +14225,7 @@
         <v>2008/6/28–2008/8/10: The Birth of Christianity: A Jewish Story at the Museum of Natural Sciences</v>
       </c>
       <c r="M110" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N110" s="47"/>
     </row>
@@ -14264,7 +14241,7 @@
         <v>39817</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>33</v>
@@ -14282,7 +14259,7 @@
         <v>2008/9/21–2009/1/4: The Dead Sea Scrolls: Mysteries of the Ancient World at the Jewish Museum</v>
       </c>
       <c r="M111" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N111" s="47"/>
     </row>
@@ -14307,7 +14284,7 @@
         <v>30</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H112" s="12"/>
       <c r="I112" s="37"/>
@@ -14318,7 +14295,7 @@
         <v>2009/2/1–2009/6/1: Ink &amp; Blood: Dead Sea Scrolls to Gutenberg at the Mary G. Hardin Center for Cultural Arts</v>
       </c>
       <c r="M112" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N112" s="47"/>
     </row>
@@ -14343,7 +14320,7 @@
         <v>398</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H113" s="12"/>
       <c r="I113" s="37"/>
@@ -14354,7 +14331,7 @@
         <v>2009/2/1–2009/2/1: Dead Sea Scrolls to the Bible in America at the Christ Church of the Valley</v>
       </c>
       <c r="M113" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N113" s="47"/>
     </row>
@@ -14388,7 +14365,7 @@
         <v>2009/6/6–2009/11/6: Heritage of the Holy Land at the Museum of Fine Arts</v>
       </c>
       <c r="M114" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N114" s="47"/>
     </row>
@@ -14413,7 +14390,7 @@
         <v>26</v>
       </c>
       <c r="G115" s="52" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>336</v>
@@ -14422,7 +14399,7 @@
         <v>331000</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K115" s="12" t="s">
         <v>337</v>
@@ -14432,10 +14409,10 @@
         <v>2009/6/27–2009/10/9: Dead Sea Scrolls: Words that Changed the World at the Royal Ontario Museum</v>
       </c>
       <c r="M115" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N115" s="75" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P115" s="54"/>
       <c r="Q115" s="54"/>
@@ -14476,28 +14453,28 @@
         <v>26</v>
       </c>
       <c r="G116" s="57" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H116" s="59" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I116" s="60">
         <v>331000</v>
       </c>
       <c r="J116" s="61" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K116" s="61" t="s">
+        <v>511</v>
+      </c>
+      <c r="L116" s="62" t="s">
         <v>512</v>
       </c>
-      <c r="L116" s="62" t="s">
-        <v>513</v>
-      </c>
       <c r="M116" s="63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N116" s="47" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P116" s="54"/>
       <c r="Q116" s="54"/>
@@ -14538,28 +14515,28 @@
         <v>26</v>
       </c>
       <c r="G117" s="57" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H117" s="59" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I117" s="60">
         <v>331000</v>
       </c>
       <c r="J117" s="61" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K117" s="61" t="s">
+        <v>511</v>
+      </c>
+      <c r="L117" s="62" t="s">
         <v>512</v>
       </c>
-      <c r="L117" s="62" t="s">
-        <v>513</v>
-      </c>
       <c r="M117" s="63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N117" s="47" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="118" spans="1:33" ht="30" x14ac:dyDescent="0.2">
@@ -14583,7 +14560,7 @@
         <v>24</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H118" s="12"/>
       <c r="I118" s="37"/>
@@ -14594,7 +14571,7 @@
         <v>2009/8/28–2009/9/20: The Dead Sea Scrolls &amp; the Ancient World at the The Arts House</v>
       </c>
       <c r="M118" s="48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N118" s="47"/>
     </row>
@@ -14628,7 +14605,7 @@
         <v>2010/1/22–2010/6/6: Dead Sea Scrolls and the Bible at the Milwaukee Public Museum</v>
       </c>
       <c r="M119" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N119" s="47"/>
     </row>
@@ -14653,7 +14630,7 @@
         <v>226</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H120" s="12"/>
       <c r="I120" s="37"/>
@@ -14664,7 +14641,7 @@
         <v>2010/2/17–2010/3/4: Ink &amp; Blood: Dead Sea Scrolls to Gutenberg at the Pope John Paul II High School</v>
       </c>
       <c r="M120" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N120" s="47"/>
     </row>
@@ -14680,11 +14657,11 @@
         <v>40475</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G121" s="8"/>
       <c r="H121" s="12"/>
@@ -14696,7 +14673,7 @@
         <v xml:space="preserve">2010/3/12–2010/10/24: The Dead Sea Scrolls: Words that Changed the World at the </v>
       </c>
       <c r="M121" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N121" s="47"/>
     </row>
@@ -14721,7 +14698,7 @@
         <v>399</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>232</v>
@@ -14729,14 +14706,14 @@
       <c r="I122" s="37"/>
       <c r="J122" s="12"/>
       <c r="K122" s="51" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L122" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/4/8–2010/5/15: Dead Sea Scrolls to the Bible in America at the Bayside Church Granite Bay Campus</v>
       </c>
       <c r="M122" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N122" s="47"/>
     </row>
@@ -14761,7 +14738,7 @@
         <v>230</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H123" s="12" t="s">
         <v>231</v>
@@ -14769,14 +14746,14 @@
       <c r="I123" s="37"/>
       <c r="J123" s="12"/>
       <c r="K123" s="51" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L123" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/5/21–2010/8/29: Treasures of the Bible: The Dead Sea Scrolls and Beyond at the Azusa Pacific University</v>
       </c>
       <c r="M123" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N123" s="47"/>
     </row>
@@ -14807,14 +14784,14 @@
       <c r="I124" s="37"/>
       <c r="J124" s="12"/>
       <c r="K124" s="51" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L124" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/6/1–2010/7/11: Qumran - Le Secret des Manuscrits de la Mer Morte at the Bibliotheque Nationale</v>
       </c>
       <c r="M124" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N124" s="47"/>
     </row>
@@ -14836,7 +14813,7 @@
         <v>239</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>141</v>
@@ -14845,14 +14822,14 @@
       <c r="I125" s="37"/>
       <c r="J125" s="12"/>
       <c r="K125" s="51" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L125" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/10/20–2010/11/30: Origins at the 449 West Parks Highway</v>
       </c>
       <c r="M125" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N125" s="47"/>
     </row>
@@ -14883,14 +14860,14 @@
       <c r="I126" s="37"/>
       <c r="J126" s="12"/>
       <c r="K126" s="51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L126" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/1/27–2011/5/1: Bible in English at the Gerber Academic Building at Ashland Theological Seminary</v>
       </c>
       <c r="M126" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N126" s="47"/>
     </row>
@@ -14921,14 +14898,14 @@
       <c r="I127" s="37"/>
       <c r="J127" s="12"/>
       <c r="K127" s="51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L127" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/4/7–2011/4/9: 400th Anniversary: The King James Bible and the World it Made at the Baylor University</v>
       </c>
       <c r="M127" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N127" s="47"/>
     </row>
@@ -14959,14 +14936,14 @@
       <c r="I128" s="37"/>
       <c r="J128" s="12"/>
       <c r="K128" s="51" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L128" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/5/16–2011/10/16: Passages at the Oklahoma City Museum of Art</v>
       </c>
       <c r="M128" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N128" s="47"/>
     </row>
@@ -14997,14 +14974,14 @@
       <c r="I129" s="37"/>
       <c r="J129" s="12"/>
       <c r="K129" s="51" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L129" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/10/24–2011/10/25: Bible &amp; Literature Missionary Foundation's 43rd annual Scripture Conference at the Victory Baptist Church</v>
       </c>
       <c r="M129" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N129" s="47"/>
     </row>
@@ -15029,20 +15006,20 @@
         <v>146</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H130" s="12"/>
       <c r="I130" s="37"/>
       <c r="J130" s="12"/>
       <c r="K130" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L130" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/10/28–2012/4/15: Dead Sea Scrolls: Life and Faith in Ancient Times at the Discovery Times Square</v>
       </c>
       <c r="M130" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N130" s="47"/>
     </row>
@@ -15073,14 +15050,14 @@
       <c r="I131" s="37"/>
       <c r="J131" s="12"/>
       <c r="K131" s="51" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L131" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/11/19–2012/6/30: Passages at the Perimeter Expo Center</v>
       </c>
       <c r="M131" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N131" s="47"/>
     </row>
@@ -15105,20 +15082,20 @@
         <v>258</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="37"/>
       <c r="J132" s="12"/>
       <c r="K132" s="51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L132" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/2/3–2012/9/9: Ink &amp; Blood: Dead Sea Scrolls to Gutenberg at the Muzeo Museum and Cultural Center</v>
       </c>
       <c r="M132" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N132" s="47"/>
     </row>
@@ -15143,20 +15120,20 @@
         <v>176</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H133" s="12"/>
       <c r="I133" s="37"/>
       <c r="J133" s="12"/>
       <c r="K133" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L133" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/5/12–2012/10/14: Dead Sea Scrolls: Life and Faith in Ancient Times at the Franklin Institute</v>
       </c>
       <c r="M133" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N133" s="47"/>
     </row>
@@ -15181,7 +15158,7 @@
         <v>92</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>312</v>
@@ -15189,14 +15166,14 @@
       <c r="I134" s="37"/>
       <c r="J134" s="12"/>
       <c r="K134" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L134" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/7/2–2013/1/13: Dead Sea Scrolls &amp; the Bible: Ancient Artefacts, Timeless Treasures at the Southwestern Baptist Theological Seminary</v>
       </c>
       <c r="M134" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N134" s="47"/>
     </row>
@@ -15232,7 +15209,7 @@
         <v>2012/9/12–2013/3/30: Passages at the 8405 IBM Drive</v>
       </c>
       <c r="M135" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N135" s="47"/>
     </row>
@@ -15257,20 +15234,20 @@
         <v>278</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="37"/>
       <c r="J136" s="12"/>
       <c r="K136" s="51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L136" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/11/16–2013/4/14: Dead Sea Scrolls: Life and Faith in Ancient Times at the Cincinnati Museum Center</v>
       </c>
       <c r="M136" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N136" s="47"/>
     </row>
@@ -15304,7 +15281,7 @@
         <v>2013/1/14–1900/1/0: Exhibition at the Lanier Theological Library</v>
       </c>
       <c r="M137" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N137" s="47"/>
     </row>
@@ -15340,7 +15317,7 @@
         <v>2013/3/1–2014/2/1: Passages at the 3979 Palmer Park Boulevard</v>
       </c>
       <c r="M138" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N138" s="47"/>
     </row>
@@ -15365,7 +15342,7 @@
         <v>284</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H139" s="12"/>
       <c r="I139" s="37"/>
@@ -15376,7 +15353,7 @@
         <v>2013/5/19–2013/10/20: Dead Sea Scrolls: Life and Faith in Ancient Times at the Museum of Science</v>
       </c>
       <c r="M139" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N139" s="47"/>
     </row>
@@ -15401,7 +15378,7 @@
         <v>286</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="37"/>
@@ -15412,7 +15389,7 @@
         <v>2013/11/22–2014/4/27: Dead Sea Scrolls: Life and Faith in Ancient Times at the The Leonardo</v>
       </c>
       <c r="M140" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N140" s="47"/>
     </row>
@@ -15435,7 +15412,7 @@
         <v>318</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H141" s="12"/>
       <c r="I141" s="37"/>
@@ -15446,7 +15423,7 @@
         <v>2014/1/1–1900/1/0: Exhibition at the The Jordan Museum</v>
       </c>
       <c r="M141" s="48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N141" s="47"/>
     </row>
@@ -15471,7 +15448,7 @@
         <v>268</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="37"/>
@@ -15482,7 +15459,7 @@
         <v>2014/4/2–2014/6/22: Verbum Domini II at the Braccio di Carlo Magno museum</v>
       </c>
       <c r="M142" s="48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N142" s="47"/>
     </row>
@@ -15518,7 +15495,7 @@
         <v>2014/4/12–2015/1/3: Passages at the 3534 E. Sunshine St</v>
       </c>
       <c r="M143" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N143" s="47"/>
     </row>
@@ -15534,29 +15511,29 @@
         <v>42029</v>
       </c>
       <c r="D144" s="72" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E144" s="73" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F144" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G144" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>408</v>
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="37"/>
       <c r="J144" s="12"/>
       <c r="K144" s="74" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L144" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2014/11/4–2015/1/25: Temple, Scrolls, and Divine Messengers: Archaeology of the Land of Israel in Roman Times at the Chantal Miller Gallery</v>
       </c>
       <c r="M144" s="48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N144" s="47"/>
     </row>
@@ -15592,7 +15569,7 @@
         <v>2015/3/3–2016/4/2: Passages at the 26565 Bouquet canyon rd</v>
       </c>
       <c r="M145" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N145" s="47"/>
     </row>
@@ -15617,20 +15594,20 @@
         <v>153</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="37"/>
       <c r="J146" s="12"/>
       <c r="K146" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L146" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2015/3/10–2015/9/7: Dead Sea Scrolls: Life and Faith in Ancient Times at the California Science Center</v>
       </c>
       <c r="M146" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N146" s="47"/>
     </row>
@@ -15666,7 +15643,7 @@
         <v>2015/7/11–2015/8/1: Los Destacados de la Museum Collections at the Pontifical Catholic University of Argentina</v>
       </c>
       <c r="M147" s="48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N147" s="47"/>
     </row>
@@ -15702,7 +15679,7 @@
         <v>2015/9/21–2015/9/29: Verbum Domini II at the Pennsylvania Convetion Center</v>
       </c>
       <c r="M148" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N148" s="47"/>
     </row>
@@ -15727,7 +15704,7 @@
         <v>165</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="37"/>
@@ -15740,7 +15717,7 @@
         <v>2016/11/2–2016/11/12: 2000 Years of Jewish Culture: An Exhibition of Books, Manuscripts, Art and Jewelry at the Shapero Rare Books</v>
       </c>
       <c r="M149" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N149" s="47"/>
     </row>
@@ -15765,7 +15742,7 @@
         <v>276</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="37"/>
@@ -15776,7 +15753,7 @@
         <v>2017/4/7–2017/5/13: Unser Buch at the Augsburger Rathaus</v>
       </c>
       <c r="M150" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N150" s="47"/>
     </row>
@@ -15814,7 +15791,7 @@
         <v>2017/9/21–2017/9/22: Biblical Heritage Archive Traveling Museum at the Fairhaven Baptist College</v>
       </c>
       <c r="M151" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N151" s="47"/>
     </row>
@@ -15836,7 +15813,7 @@
         <v>20</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>364</v>
@@ -15852,7 +15829,7 @@
         <v>2017/10/28–2017/10/28: Biblical Heritage Archive Traveling Museum at the Waukesha County Expo Center</v>
       </c>
       <c r="M152" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N152" s="47"/>
     </row>
@@ -15875,7 +15852,7 @@
         <v>148</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="40"/>
@@ -15888,7 +15865,7 @@
         <v>2017/11/17–1900/1/0: Exhibition at the Museum of the Bible</v>
       </c>
       <c r="M153" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N153" s="47"/>
     </row>
@@ -15913,7 +15890,7 @@
         <v>289</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H154" s="12"/>
       <c r="I154" s="37"/>
@@ -15924,7 +15901,7 @@
         <v>2018/3/16–2018/9/3: Dead Sea Scrolls: Life and Faith in Ancient Times at the Denver Museum of Nature and Science</v>
       </c>
       <c r="M154" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N154" s="47"/>
     </row>
@@ -15962,7 +15939,7 @@
         <v>2019/10/8–2019/10/9: Biblical Heritage Archive Traveling Museum at the VCY Headquarters</v>
       </c>
       <c r="M155" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N155" s="47"/>
     </row>
@@ -16000,7 +15977,7 @@
         <v>2022/11/7–2022/11/10: Exhibition at the Aguttes Auction House</v>
       </c>
       <c r="M156" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N156" s="47"/>
     </row>
@@ -16038,7 +16015,7 @@
         <v>2022/11/14–2022/11/15: Exhibition at the Aguttes Auction House</v>
       </c>
       <c r="M157" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N157" s="47"/>
     </row>

--- a/data/exhibition-v2.xlsx
+++ b/data/exhibition-v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hildad/Documents/GitHub/lyingpendatabases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F6DB5F-5C15-E246-8577-A21A2481B8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAECFE4-8BCA-1D4C-AEF3-4D4C6912C2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSS Exhibitions" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="536">
   <si>
     <t>Location</t>
   </si>
@@ -464,9 +464,6 @@
     <t>Biblioteca Apostolica Vaticana</t>
   </si>
   <si>
-    <t>(Vatican City State)</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
   </si>
   <si>
     <t>National Art Museum</t>
-  </si>
-  <si>
-    <t>Buenos Aires (Argentine)</t>
   </si>
   <si>
     <t>Binyanei haUmah</t>
@@ -1898,9 +1892,6 @@
     <t>Verbum Domini II</t>
   </si>
   <si>
-    <t>Braccio di Carlo Magno museum</t>
-  </si>
-  <si>
     <t>Vatican City (Vatican)</t>
   </si>
   <si>
@@ -4701,16 +4692,7 @@
     <t>Mexico City (Mexico)</t>
   </si>
   <si>
-    <t>Sao Paulo, Brazil</t>
-  </si>
-  <si>
     <t>Kansas City (MO)</t>
-  </si>
-  <si>
-    <t>Various old Bibles; The Declaration of Independence and the Consitution of the United States</t>
-  </si>
-  <si>
-    <t>Heizel Plateau, Brussels (Belgium)</t>
   </si>
   <si>
     <t>Kalman, Jason. "Catalogue of Dead Sea Scroll Exhibitions 1949-." Academia.edu. 12 February 2017. https://www.academia.edu/30724110/Catalogue_of_Dead_Sea_Scroll_Exhibitions_1949.</t>
@@ -4825,15 +4807,6 @@
       </rPr>
       <t>&lt;/i&gt; 52 (2010): 25–28. https://www.proquest.com/docview/859437083?pq-origsite=gscholar&amp;fromopenview=true</t>
     </r>
-  </si>
-  <si>
-    <t>24 silver coins from 136/135 BCE–10/9 BCE; KhQ 1474 "Jar with Lid"; 52.2 A Herodian Lamp from the first century BCE–first century CE; I.2179 Inkwell from late first century BCE–early first century CE; KhQ 1591 a–o "Plates"; KhQ 1634 "Two-Handed Jar"; KhQ 1192 "Jug"; KhQ 1565 "Cooking Pot"; KhQ 1601/a "Bowls"; KhQ 1587 a–h "Goblets"; Large Goblet from first century CE; KhQ 1036 "Measuring Cup"; KhQ 1604 "Measuring Cup"; 52.40 Bowl from the first century BCE; 52.3 "Comb"; 52.3a "Comb"; A pair of sandals; Tabs; Thongs; 4Q Phyl cases 1008; 7Q Cloth 30; 1Q Cloth 15; 11Q Basket Fragment A; 11Q Basket Fragment B; 38A Cord; 38B–D Ropes; 38E Heavy Rope.</t>
-  </si>
-  <si>
-    <t>24 silver coins from 136/135 BCE–10/9 BCE; KhQ 1474 "Jar with Lid"; 52.2 A Herodian Lamp from the first century BCE–first century CE; I.2179 Inkwell from late first century BCE–early first century CE; KhQ 1591 a–o "Plates"; KhQ 1634 "Two-Handed Jar"; KhQ 364 "Vase"; KhQ 1192 "Jug"; KhQ 1565 "Cooking Pot"; KhQ 1601/a "Bowls"; KhQ 1587 a–h "Goblets"; Large Goblet from first century CE; KhQ 1036 "Measuring Cup"; KhQ 1604 "Measuring Cup"; 52.40 Bowl from the first century BCE; 52.3 "Comb"; 52.3a "Comb"; A pair of sandals; Tabs; Thongs; 4Q Phyl cases 1008; 7Q Cloth 30; 1Q Cloth 15; 11Q Basket Fragment A; 11Q Basket Fragment B; 38A Cord; 38B–D Ropes; 38E Heavy Rope.</t>
-  </si>
-  <si>
-    <t>ROM 910.186.1 Qur'an; TRFBL MSS01244 Codex Torontonensis; TRFBL MSS 9-005 Torah; TRFBL MSS 5-001 Bible; TRFBL INC 00009 Bible; TRFBL MSS 01239 Qur'an</t>
   </si>
   <si>
     <t>Kalman, Jason. "Catalogue of Dead Sea Scroll Exhibitions 1949-." Academia.edu. 12 February 2017. https://www.academia.edu/30724110/Catalogue_of_Dead_Sea_Scroll_Exhibitions_1949.
@@ -8508,6 +8481,95 @@
 Kalman, Jason (2017, 12 February). "Catalogue of Dead Sea Scroll Exhibitions 1949-." Academia.edu. https://www.academia.edu/30724110/Catalogue_of_Dead_Sea_Scroll_Exhibitions_1949.
 Kjeldsberg, Ludvik A. (2018). "Forfalskede Relikvier? Aktører innenfor det kristne høyres bruk av ‘Dødehavsruller’." MA diss. University of Agder. See pp. 25 and 116.</t>
     </r>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Brussels (Belgium)</t>
+  </si>
+  <si>
+    <t>Buenos Aires (Argentina)</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Vatican City</t>
+  </si>
+  <si>
+    <t>Braccio di Carlo Magno Museum</t>
+  </si>
+  <si>
+    <t>ROM 910.186.1 Qur'an; 
+TRFBL MSS01244 Codex Torontonensis; 
+TRFBL MSS 9-005 Torah; 
+TRFBL MSS 5-001 Bible; 
+TRFBL INC 00009 Bible; 
+TRFBL MSS 01239 Qur'an</t>
+  </si>
+  <si>
+    <t>Various old Bibles; 
+The Declaration of Independence and the Consitution of the United States</t>
+  </si>
+  <si>
+    <t>24 silver coins from 136/135 BCE–10/9 BCE; 
+KhQ 1474 "Jar with Lid"; 
+52.2 A Herodian Lamp from the first century BCE–first century CE; 
+I.2179 Inkwell from late first century BCE–early first century CE; 
+KhQ 1591 a–o "Plates"; 
+KhQ 1634 "Two-Handed Jar"; 
+KhQ 364 "Vase"; 
+KhQ 1192 "Jug"; 
+KhQ 1565 "Cooking Pot"; 
+KhQ 1601/a "Bowls"; 
+KhQ 1587 a–h "Goblets"; 
+Large Goblet from first century CE; 
+KhQ 1036 "Measuring Cup"; 
+KhQ 1604 "Measuring Cup"; 
+52.40 Bowl from the first century BCE; 
+52.3 "Comb"; 
+52.3a "Comb"; 
+A pair of sandals; 
+Tabs; 
+Thongs; 
+4Q Phyl cases 1008; 
+7Q Cloth 30; 
+1Q Cloth 15; 
+11Q Basket Fragment A; 
+11Q Basket Fragment B; 
+38A Cord; 
+38B–D Ropes; 
+38E Heavy Rope</t>
+  </si>
+  <si>
+    <t>24 silver coins from 136/135 BCE–10/9 BCE; 
+KhQ 1474 "Jar with Lid"; 
+52.2 A Herodian Lamp from the first century BCE–first century CE; 
+I.2179 Inkwell from late first century BCE–early first century CE; 
+KhQ 1591 a–o "Plates"; 
+KhQ 1634 "Two-Handed Jar"; 
+KhQ 1192 "Jug"; 
+KhQ 1565 "Cooking Pot"; 
+KhQ 1601/a "Bowls"; 
+KhQ 1587 a–h "Goblets"; 
+Large Goblet from first century CE; 
+KhQ 1036 "Measuring Cup"; 
+KhQ 1604 "Measuring Cup"; 
+52.40 Bowl from the first century BCE; 
+52.3 "Comb"; 
+52.3a "Comb"; 
+A pair of sandals; 
+Tabs; 
+Thongs; 
+4Q Phyl cases 1008; 
+7Q Cloth 30; 
+1Q Cloth 15; 
+11Q Basket Fragment A; 
+11Q Basket Fragment B; 
+38A Cord; 
+38B–D Ropes; 
+38E Heavy Rope</t>
   </si>
 </sst>
 </file>
@@ -9597,25 +9659,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F267CA58-9D08-4E9A-9AE6-AD278FCC139B}" name="DDSExhibitions" displayName="DDSExhibitions" ref="A1:N157" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N157" xr:uid="{53257E07-4180-4B0D-A1EC-009DB45A7224}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L157">
-    <sortCondition ref="B1:B157"/>
-  </sortState>
+  <autoFilter ref="A1:N157" xr:uid="{F267CA58-9D08-4E9A-9AE6-AD278FCC139B}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{6E8E6F3C-5F82-40ED-864B-323B30A4A99D}" name="Decade" dataDxfId="13">
       <calculatedColumnFormula>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</calculatedColumnFormula>
@@ -9942,10 +9986,10 @@
   </sheetPr>
   <dimension ref="A1:AG162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="O75" sqref="O75"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10013,13 +10057,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="O1" s="23"/>
       <c r="P1"/>
@@ -10053,14 +10097,14 @@
         <v>17897</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="36">
@@ -10068,14 +10112,14 @@
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L2" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v xml:space="preserve">1948/12/28–1948/12/30: The Fifth Convention of the Jewish Palestine Exploration Society at the </v>
       </c>
       <c r="M2" s="48" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N2" s="47"/>
       <c r="O2" s="23"/>
@@ -10110,33 +10154,33 @@
         <v>18208</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="36">
         <v>15000</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>418</v>
+        <v>533</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L3" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1949/10/22–1949/11/6: Ancient Hebrew Scrolls at the Library of Congress</v>
       </c>
       <c r="M3" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N3" s="47"/>
       <c r="O3" s="23"/>
@@ -10174,26 +10218,26 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="37"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L4" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1949/11/10–1949/11/17: Exhibition at the Walters Art Gallery</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N4" s="47"/>
       <c r="O4" s="23"/>
@@ -10231,26 +10275,26 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="38"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L5" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1950/1/10–1950/1/10: Exhibition at the Zion Research Library</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N5" s="47"/>
     </row>
@@ -10269,26 +10313,26 @@
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="37"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L6" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1950/2/12–1950/2/17: Exhibition at the Duke University</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N6" s="47"/>
     </row>
@@ -10307,26 +10351,26 @@
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="37"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L7" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1950/2/15–1950/2/15: Exhibition at the The British Museum</v>
       </c>
       <c r="M7" s="48" t="s">
-        <v>425</v>
+        <v>526</v>
       </c>
       <c r="N7" s="47"/>
     </row>
@@ -10345,26 +10389,26 @@
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>114</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="37"/>
       <c r="J8" s="12"/>
       <c r="K8" s="51" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="L8" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1950/11/17–1950/11/26: Exhibition at the University of Chicago Oriental Institute</v>
       </c>
       <c r="M8" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N8" s="47"/>
     </row>
@@ -10383,13 +10427,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="37"/>
@@ -10400,7 +10444,7 @@
         <v>1951/1/1–2009/1/1: Exhibition at the Jordan Archaeological Museum</v>
       </c>
       <c r="M9" s="48" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="N9" s="47"/>
     </row>
@@ -10419,26 +10463,26 @@
         <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="37"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L10" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1951/10/1–1951/10/3: Exhibition at the Worcester Museum of Art</v>
       </c>
       <c r="M10" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N10" s="47"/>
     </row>
@@ -10457,26 +10501,26 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="37"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L11" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1951/11/1–1951/12/1: Exhibition at the Vassar College</v>
       </c>
       <c r="M11" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N11" s="47"/>
     </row>
@@ -10495,26 +10539,26 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="37"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L12" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1952/12/9–1952/12/9: Exhibition at the Palestine Archaeological Museum</v>
       </c>
       <c r="M12" s="48" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="N12" s="47"/>
     </row>
@@ -10530,31 +10574,31 @@
         <v>19664</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="37" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="L13" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1953/6/1–1953/11/1: From the Land of the Bible at the Metropolitan Museum of Art</v>
       </c>
       <c r="M13" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N13" s="47"/>
     </row>
@@ -10570,31 +10614,31 @@
         <v>19751</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L14" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/1/10–1954/1/27: From the Land of the Bible at the National Gallery of Art</v>
       </c>
       <c r="M14" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N14" s="47"/>
     </row>
@@ -10610,31 +10654,31 @@
         <v>19800</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>207</v>
-      </c>
       <c r="H15" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I15" s="37"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L15" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/2/17–1954/3/17: From the Land of the Bible at the Walters Art Gallery</v>
       </c>
       <c r="M15" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N15" s="47"/>
     </row>
@@ -10650,29 +10694,29 @@
         <v>19968</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="37"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L16" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/6/1–1954/9/1: From the Land of the Bible at the Gemeentemuseum Den Haag</v>
       </c>
       <c r="M16" s="48" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="N16" s="47"/>
     </row>
@@ -10688,29 +10732,29 @@
         <v>19887</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="G17" s="8" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="37"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L17" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/6/5–1954/6/12: Bible Week at the Beitenu</v>
       </c>
       <c r="M17" s="48" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N17" s="47"/>
     </row>
@@ -10726,31 +10770,31 @@
         <v>20089</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I18" s="37"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L18" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/10/26–1954/12/31: From the Land of the Bible at the British Museum</v>
       </c>
       <c r="M18" s="48" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N18" s="47"/>
     </row>
@@ -10766,29 +10810,29 @@
         <v>20079</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="37"/>
       <c r="J19" s="12"/>
       <c r="K19" s="51" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L19" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1954/12/21–1954/12/21: 30th Anniversary of Jewish Studies Institute at the Hebrew University</v>
       </c>
       <c r="M19" s="48" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="N19" s="47"/>
     </row>
@@ -10805,7 +10849,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>114</v>
@@ -10820,7 +10864,7 @@
         <v>1956/1/1–1900/1/0: Exhibition at the The University of Chicago Oriental Institute Museum</v>
       </c>
       <c r="M20" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N20" s="47"/>
     </row>
@@ -10839,13 +10883,13 @@
         <v>5</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="37"/>
@@ -10856,7 +10900,7 @@
         <v>1957/1/1–1957/1/1: Exhibition at the Hebrew University</v>
       </c>
       <c r="M21" s="48" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N21" s="47"/>
     </row>
@@ -10875,26 +10919,26 @@
         <v>5</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="37"/>
       <c r="J22" s="12"/>
       <c r="K22" s="51" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="L22" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1957/3/25–1957/7/21: Exhibition at the Beirut Museum</v>
       </c>
       <c r="M22" s="48" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N22" s="47"/>
     </row>
@@ -10913,28 +10957,28 @@
         <v>5</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>419</v>
+        <v>527</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="37" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L23" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1958/4/17–1958/10/19: Exhibition at the Brussels World's Fair</v>
       </c>
       <c r="M23" s="48" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="N23" s="47"/>
     </row>
@@ -10953,26 +10997,26 @@
         <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="37"/>
       <c r="J24" s="12"/>
       <c r="K24" s="51" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L24" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1958/6/5–1958/6/5: Exhibition at the Binyanei haUmah</v>
       </c>
       <c r="M24" s="48" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N24" s="47"/>
     </row>
@@ -10988,7 +11032,7 @@
         <v>21554</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>27</v>
@@ -11006,7 +11050,7 @@
         <v>1958/12/16–1959/1/4: Men who Hid the Dead Sea Scrolls at the Royal Ontario Museum</v>
       </c>
       <c r="M25" s="48" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N25" s="47"/>
     </row>
@@ -11025,26 +11069,26 @@
         <v>5</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>183</v>
+        <v>528</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="37"/>
       <c r="J26" s="12"/>
       <c r="K26" s="51" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L26" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1960/9/25–1960/10/1: Exhibition at the National Art Museum</v>
       </c>
       <c r="M26" s="48" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="N26" s="47"/>
     </row>
@@ -11063,28 +11107,28 @@
         <v>5</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="12"/>
       <c r="K27" s="51" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="L27" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1964/4/22–1964/10/18: Exhibition at the New York World's Fair</v>
       </c>
       <c r="M27" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N27" s="47"/>
     </row>
@@ -11100,31 +11144,31 @@
         <v>23507</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="G28" s="8" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I28" s="37"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="L28" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1964/4/26–1964/5/10: The Book and the Spade at the Wisconsin Center</v>
       </c>
       <c r="M28" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N28" s="47"/>
     </row>
@@ -11140,31 +11184,31 @@
         <v>23535</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I29" s="37"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L29" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1964/5/21–1964/6/7: The Book and the Spade at the Public Museum of Milwaukee</v>
       </c>
       <c r="M29" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N29" s="47"/>
     </row>
@@ -11183,26 +11227,26 @@
         <v>5</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="37"/>
       <c r="J30" s="12"/>
       <c r="K30" s="51" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L30" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1964/8/18–1964/11/1: Exhibition at the Lytton Center of the Visual Arts</v>
       </c>
       <c r="M30" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N30" s="47"/>
     </row>
@@ -11218,31 +11262,31 @@
         <v>23822</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L31" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/2/27–1965/3/21: Dead Sea Scrolls of Jordan at the Smithsonian National Museum of Natural History</v>
       </c>
       <c r="M31" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N31" s="47"/>
     </row>
@@ -11258,31 +11302,31 @@
         <v>23857</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="G32" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I32" s="37"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L32" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/4/3–1965/4/25: Dead Sea Scrolls of Jordan at the University Museum</v>
       </c>
       <c r="M32" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N32" s="47"/>
     </row>
@@ -11299,13 +11343,13 @@
         <v>5</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="37"/>
@@ -11316,7 +11360,7 @@
         <v>1965/4/20–1900/1/0: Exhibition at the Shrine of the Book</v>
       </c>
       <c r="M33" s="48" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N33" s="47"/>
     </row>
@@ -11335,26 +11379,26 @@
         <v>5</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="37"/>
       <c r="J34" s="12"/>
       <c r="K34" s="51" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L34" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/4/21–1965/10/17: Exhibition at the New York World's Fair</v>
       </c>
       <c r="M34" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N34" s="47"/>
     </row>
@@ -11370,31 +11414,31 @@
         <v>23892</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I35" s="37"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L35" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/5/8–1965/5/30: Dead Sea Scrolls of Jordan at the Lowie Museum</v>
       </c>
       <c r="M35" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N35" s="47"/>
     </row>
@@ -11410,31 +11454,31 @@
         <v>23928</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="G36" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I36" s="37"/>
       <c r="J36" s="12"/>
       <c r="K36" s="51" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L36" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/6/12–1965/7/5: Dead Sea Scrolls of Jordan at the Claremont Graduate School</v>
       </c>
       <c r="M36" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N36" s="47"/>
     </row>
@@ -11450,31 +11494,31 @@
         <v>23962</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="G37" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I37" s="37"/>
       <c r="J37" s="12"/>
       <c r="K37" s="51" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L37" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/7/17–1965/8/8: Dead Sea Scrolls of Jordan at the Joslyn Art Museum</v>
       </c>
       <c r="M37" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N37" s="47"/>
     </row>
@@ -11490,31 +11534,31 @@
         <v>24004</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="G38" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="12"/>
       <c r="K38" s="51" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L38" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/8/21–1965/9/19: Dead Sea Scrolls of Jordan at the Walters Art Gallery</v>
       </c>
       <c r="M38" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N38" s="47"/>
     </row>
@@ -11530,31 +11574,31 @@
         <v>24032</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>87</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I39" s="37"/>
       <c r="J39" s="12"/>
       <c r="K39" s="51" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="L39" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/9/27–1965/10/17: Dead Sea Scrolls of Jordan at the National Museum</v>
       </c>
       <c r="M39" s="48" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N39" s="47"/>
     </row>
@@ -11570,7 +11614,7 @@
         <v>24061</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>27</v>
@@ -11579,22 +11623,22 @@
         <v>26</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I40" s="37"/>
       <c r="J40" s="12"/>
       <c r="K40" s="51" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="L40" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/10/26–1965/11/15: Dead Sea Scrolls of Jordan at the Royal Ontario Museum</v>
       </c>
       <c r="M40" s="48" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N40" s="47"/>
     </row>
@@ -11610,31 +11654,31 @@
         <v>24136</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I41" s="37"/>
       <c r="J41" s="12"/>
       <c r="K41" s="51" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="L41" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1965/12/16–1966/1/29: Dead Sea Scrolls of Jordan at the British Museum</v>
       </c>
       <c r="M41" s="48" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N41" s="47"/>
     </row>
@@ -11653,30 +11697,30 @@
         <v>5</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>98</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="37"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="L42" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1967/4/27–1967/10/29: Exhibition at the Montreal World’s Fair</v>
       </c>
       <c r="M42" s="48" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N42" s="47"/>
     </row>
-    <row r="43" spans="1:14" ht="190" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="200" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1960</v>
@@ -11688,29 +11732,29 @@
         <v>25083</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="37"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="L43" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1968/5/8–1968/9/2: Israel through the Ages at the Petit Palais</v>
       </c>
       <c r="M43" s="48" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N43" s="47"/>
     </row>
@@ -11726,29 +11770,29 @@
         <v>25022</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="37"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L44" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1968/5/22–1968/7/3: From the Lands of the Bible at the America-Israel Culture House</v>
       </c>
       <c r="M44" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N44" s="47"/>
     </row>
@@ -11767,26 +11811,26 @@
         <v>5</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="37"/>
       <c r="J45" s="12"/>
       <c r="K45" s="51" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L45" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1968/10/12–1968/10/27: Exhibition at the Olympics</v>
       </c>
       <c r="M45" s="48" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="N45" s="47"/>
     </row>
@@ -11802,29 +11846,29 @@
         <v>26181</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="37"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L46" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1971/6/19–1971/9/5: An Exhibition on the Dead Sea Scrolls at the American Bible Society</v>
       </c>
       <c r="M46" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N46" s="47"/>
     </row>
@@ -11843,26 +11887,26 @@
         <v>5</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="37"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L47" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1972/11/23–1972/12/3: Exhibition at the Los Angeles Convention Center</v>
       </c>
       <c r="M47" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N47" s="47"/>
     </row>
@@ -11878,29 +11922,29 @@
         <v>27518</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="G48" s="8" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="37"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L48" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1975/4/13–1975/5/4: The Book and the Spade at the Wisconsin Center</v>
       </c>
       <c r="M48" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N48" s="47"/>
     </row>
@@ -11916,29 +11960,29 @@
         <v>31781</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="37"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L49" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1986/9/25–1987/1/4: Treasures from the Holy Land: Ancient Art from the Israel Museum at the Metropolitan Museum of Art</v>
       </c>
       <c r="M49" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N49" s="47"/>
     </row>
@@ -11954,29 +11998,29 @@
         <v>31963</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="G50" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="37"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L50" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1987/4/9–1987/7/5: Treasures from the Holy Land: Ancient Art from the Israel Museum at the Los Angeles County Museum of Art</v>
       </c>
       <c r="M50" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N50" s="47"/>
     </row>
@@ -11992,7 +12036,7 @@
         <v>32159</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>29</v>
@@ -12001,20 +12045,20 @@
         <v>70</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="37"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L51" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1987/10/31–1988/1/17: Treasures from the Holy Land: Ancient Art from the Israel Museum at the Museum of Fine Arts</v>
       </c>
       <c r="M51" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N51" s="47"/>
     </row>
@@ -12030,29 +12074,29 @@
         <v>32522</v>
       </c>
       <c r="D52" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="37"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L52" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1988/10/15–1989/1/14: A Sign and a Witness at the New York Public Library</v>
       </c>
       <c r="M52" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N52" s="47"/>
     </row>
@@ -12068,33 +12112,33 @@
         <v>33117</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="37"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L53" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1990/5/1–1990/9/1: Planets, Potions, Parchments at the David M. Stewart Museum</v>
       </c>
       <c r="M53" s="48" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N53" s="47"/>
     </row>
-    <row r="54" spans="1:14" ht="272" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="290" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>1990</v>
@@ -12106,35 +12150,35 @@
         <v>34182</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="G54" s="8" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>446</v>
+        <v>534</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L54" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1993/4/29–1993/8/1: Scrolls from the Dead Sea: The Ancient Library of Qumran and Modern Scholarship at the Library of Congress</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N54" s="47"/>
     </row>
@@ -12153,26 +12197,26 @@
         <v>16</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="G55" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="37"/>
       <c r="J55" s="12"/>
       <c r="K55" s="51" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L55" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1993/10/2–1994/1/4: The Dead Sea Scrolls at the New York Public Library</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N55" s="47"/>
     </row>
@@ -12188,29 +12232,29 @@
         <v>34483</v>
       </c>
       <c r="D56" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="G56" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="37"/>
       <c r="J56" s="12"/>
       <c r="K56" s="51" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L56" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1994/2/26–1994/5/29: The Mystery of the Dead Sea Scrolls at the Fine Arts Museum</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N56" s="47"/>
     </row>
@@ -12232,23 +12276,23 @@
         <v>139</v>
       </c>
       <c r="F57" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="37"/>
       <c r="J57" s="12"/>
       <c r="K57" s="51" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="L57" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1994/7/8–1994/10/2: Exhibition at the Biblioteca Apostolica Vaticana</v>
       </c>
       <c r="M57" s="48" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="N57" s="47"/>
     </row>
@@ -12279,14 +12323,14 @@
       <c r="I58" s="37"/>
       <c r="J58" s="12"/>
       <c r="K58" s="51" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L58" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1997/6/13–1997/10/15: Jordanie: Sur les pas des archéologues at the Institut du Monde Arabe</v>
       </c>
       <c r="M58" s="48" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N58" s="47"/>
     </row>
@@ -12311,20 +12355,20 @@
         <v>135</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="37"/>
       <c r="J59" s="12"/>
       <c r="K59" s="51" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L59" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1997/9/1–1997/9/18: Ancient Scrolls from the Dead Sea at the Brigham Young University Museum of Art</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N59" s="47"/>
     </row>
@@ -12349,20 +12393,20 @@
         <v>132</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="37"/>
       <c r="J60" s="12"/>
       <c r="K60" s="51" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L60" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1997/9/22–1998/1/18: Land der Bibel at the Kunsthistorisches Museum</v>
       </c>
       <c r="M60" s="48" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="N60" s="47"/>
     </row>
@@ -12393,14 +12437,14 @@
       <c r="I61" s="37"/>
       <c r="J61" s="12"/>
       <c r="K61" s="51" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L61" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1997/10/21–1998/1/10: Treasures from the Dead Sea at the Manchester Museum</v>
       </c>
       <c r="M61" s="48" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N61" s="47"/>
     </row>
@@ -12425,20 +12469,20 @@
         <v>123</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="37"/>
       <c r="J62" s="12"/>
       <c r="K62" s="51" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L62" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1998/5/1–1998/8/30: Scrolls from the Dead Sea at the Kelvingrove Museum</v>
       </c>
       <c r="M62" s="48" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N62" s="47"/>
     </row>
@@ -12463,7 +12507,7 @@
         <v>125</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="37"/>
@@ -12474,7 +12518,7 @@
         <v>1998/7/29–1998/8/7: Congress of the International Organization for the study of the Old Testament at the University of Oslo</v>
       </c>
       <c r="M63" s="48" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="N63" s="47"/>
     </row>
@@ -12499,20 +12543,20 @@
         <v>120</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="37"/>
       <c r="J64" s="12"/>
       <c r="K64" s="51" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L64" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1998/11/14–1999/4/18: Qumran – Die Schriftrollen vom Toten Meer at the Roemisch Germanisches Museum</v>
       </c>
       <c r="M64" s="48" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N64" s="47"/>
     </row>
@@ -12537,20 +12581,20 @@
         <v>117</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="37"/>
       <c r="J65" s="12"/>
       <c r="K65" s="51" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L65" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>1999/5/7–1999/8/8: Die Schriftrollen vom Toten Meer at the Stiftsbibliotek</v>
       </c>
       <c r="M65" s="48" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="N65" s="47"/>
     </row>
@@ -12575,24 +12619,24 @@
         <v>114</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I66" s="37"/>
       <c r="J66" s="12" t="s">
-        <v>445</v>
+        <v>535</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L66" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2000/3/10–2000/6/18: The Dead Sea Scrolls at the Field Museum</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N66" s="47"/>
     </row>
@@ -12617,7 +12661,7 @@
         <v>107</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="37" t="s">
@@ -12625,14 +12669,14 @@
       </c>
       <c r="J67" s="12"/>
       <c r="K67" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L67" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2000/7/14–2000/10/15: Exhibition at the Art Gallery of New South Wales</v>
       </c>
       <c r="M67" s="48" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="N67" s="47"/>
     </row>
@@ -12657,7 +12701,7 @@
         <v>111</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="37" t="s">
@@ -12665,14 +12709,14 @@
       </c>
       <c r="J68" s="12"/>
       <c r="K68" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L68" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2001/3/6–2001/6/17: Exhibition at the National Gallery of Victoria</v>
       </c>
       <c r="M68" s="48" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="N68" s="47"/>
     </row>
@@ -12689,10 +12733,10 @@
         <v>5</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="12"/>
@@ -12704,7 +12748,7 @@
         <v>2003/1/1–1900/1/0: Exhibition at the The Bible Museum</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N69" s="47"/>
     </row>
@@ -12729,20 +12773,20 @@
         <v>105</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="37"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L70" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/2/16–2003/6/1: The Dead Sea Scrolls at the Public Museum of Grand Rapids</v>
       </c>
       <c r="M70" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N70" s="47"/>
     </row>
@@ -12757,7 +12801,7 @@
         <v>37703</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E71" s="66" t="s">
         <v>102</v>
@@ -12766,25 +12810,25 @@
         <v>103</v>
       </c>
       <c r="G71" s="52" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="H71" s="67"/>
       <c r="I71" s="68"/>
       <c r="J71" s="67" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K71" s="67" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="L71" s="69" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/3/14–2003/3/23: The European Fine Art Fair at the MECC</v>
       </c>
       <c r="M71" s="70" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="N71" s="47" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="100" x14ac:dyDescent="0.2">
@@ -12799,7 +12843,7 @@
         <v>37703</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>102</v>
@@ -12808,25 +12852,25 @@
         <v>103</v>
       </c>
       <c r="G72" s="52" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="37"/>
       <c r="J72" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L72" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/3/17–2003/3/23: The European Fine Art Fair at the MECC</v>
       </c>
       <c r="M72" s="48" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="N72" s="47" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="218" x14ac:dyDescent="0.2">
@@ -12850,24 +12894,24 @@
         <v>100</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I73" s="37" t="s">
         <v>101</v>
       </c>
       <c r="J73" s="12"/>
       <c r="K73" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L73" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/4/6–2003/4/29: From the Dead Sea Scrolls to the Forbidden Book at the Center for the Arts</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N73" s="47"/>
     </row>
@@ -12883,29 +12927,29 @@
         <v>37927</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>97</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="37"/>
       <c r="J74" s="12"/>
       <c r="K74" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L74" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/6/17–2003/11/2: Archaeology and the Bible—From King David to the Dead Sea Scrolls at the Pointe-à-Callière</v>
       </c>
       <c r="M74" s="48" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N74" s="47"/>
     </row>
@@ -12930,7 +12974,7 @@
         <v>89</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="37" t="s">
@@ -12938,14 +12982,14 @@
       </c>
       <c r="J75" s="12"/>
       <c r="K75" s="12" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="L75" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/6/28–2003/6/28: Promotion of 'From the Dead Sea Scrolls to the Forbidden Book' at the South Fork Ranch</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N75" s="47"/>
     </row>
@@ -12970,20 +13014,20 @@
         <v>92</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="37"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L76" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/7/17–2003/7/17: Promotion of 'From the Dead Sea Scrolls to the Forbidden Book' at the Southwestern Baptist Theological Seminary</v>
       </c>
       <c r="M76" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N76" s="47"/>
     </row>
@@ -13008,22 +13052,22 @@
         <v>89</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I77" s="37"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L77" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/9/5–2003/12/28: From the Dead Sea Scrolls to the Forbidden Book at the Biblical Arts Center</v>
       </c>
       <c r="M77" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N77" s="47"/>
     </row>
@@ -13042,13 +13086,13 @@
         <v>86</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>87</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>90</v>
@@ -13056,18 +13100,18 @@
       <c r="I78" s="37"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L78" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2003/12/5–2004/4/12: Ancient Treasures and the Dead Sea Scrolls at the Canadian Museum of Civilization</v>
       </c>
       <c r="M78" s="48" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N78" s="47"/>
     </row>
-    <row r="79" spans="1:14" ht="227" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="236" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13088,24 +13132,24 @@
         <v>85</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I79" s="37" t="s">
         <v>94</v>
       </c>
       <c r="J79" s="12"/>
       <c r="K79" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L79" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2004/1/5–2004/1/30: From the Dead Sea Scrolls to the Forbidden Book at the Von Braun Civic Center</v>
       </c>
       <c r="M79" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N79" s="47"/>
     </row>
@@ -13130,22 +13174,22 @@
         <v>82</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I80" s="37"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L80" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2004/3/16–2004/4/18: From the Dead Sea Scrolls to the Forbidden Book at the John S. Knight Center</v>
       </c>
       <c r="M80" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N80" s="47"/>
     </row>
@@ -13170,22 +13214,22 @@
         <v>80</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I81" s="37"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L81" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2004/5/28–2004/6/20: Dead Sea Scrolls to the Bible in America at the Monroeville Expomart</v>
       </c>
       <c r="M81" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N81" s="47"/>
     </row>
@@ -13223,7 +13267,7 @@
         <v>2004/6/4–2004/6/4: The second annual meeting of the Nordic Network in Qumran Studies at the Martin Schøyen’s home in Røyken</v>
       </c>
       <c r="M82" s="48" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="N82" s="47"/>
     </row>
@@ -13245,7 +13289,7 @@
         <v>72</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="12"/>
@@ -13257,7 +13301,7 @@
         <v>2004/8/16–2004/8/22: Dead Sea Scrolls to the Bible in America at the Adam Mark’s Hotel</v>
       </c>
       <c r="M83" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N83" s="47"/>
     </row>
@@ -13279,7 +13323,7 @@
         <v>71</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="12"/>
@@ -13291,7 +13335,7 @@
         <v>2004/8/27–2004/9/26: Dead Sea Scrolls to the Bible in America at the Birch Run Expocenter</v>
       </c>
       <c r="M84" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N84" s="47"/>
     </row>
@@ -13313,7 +13357,7 @@
         <v>67</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="12"/>
@@ -13325,7 +13369,7 @@
         <v>2004/10/1–2004/10/31: Dead Sea Scrolls to the Bible in America at the Concord Mall</v>
       </c>
       <c r="M85" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N85" s="47"/>
     </row>
@@ -13359,7 +13403,7 @@
         <v>2004/10/1–2005/1/15: Dead Sea Scrolls at the Houston Museum of Natural Sciences</v>
       </c>
       <c r="M86" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N86" s="47"/>
     </row>
@@ -13381,7 +13425,7 @@
         <v>65</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>416</v>
+        <v>529</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="12"/>
@@ -13393,7 +13437,7 @@
         <v>2004/10/27–2005/2/15: Pergaminhosdo Mar Morto at the Museu Brasileiro da Escultura Marilisa Rathsman</v>
       </c>
       <c r="M87" s="48" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="N87" s="47"/>
     </row>
@@ -13412,28 +13456,28 @@
         <v>79</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="37" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J88" s="12"/>
       <c r="K88" s="51" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="L88" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2005/1/14–2005/3/27: Dead Sea Scrolls to the Bible in America at the Providence Place</v>
       </c>
       <c r="M88" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N88" s="47"/>
     </row>
@@ -13455,21 +13499,21 @@
         <v>64</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="12"/>
       <c r="I89" s="37"/>
       <c r="J89" s="12"/>
       <c r="K89" s="51" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="L89" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2005/1/20–2005/4/24: Exhibition at the Gulf Coast Explorium</v>
       </c>
       <c r="M89" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N89" s="47"/>
     </row>
@@ -13494,20 +13538,20 @@
         <v>63</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="37"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L90" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2005/2/5–2005/5/1: Ink &amp; Blood: Dead Sea Scrolls to the English Bible at the Knoxville Convention Center</v>
       </c>
       <c r="M90" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N90" s="47"/>
     </row>
@@ -13530,20 +13574,20 @@
         <v>61</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="37"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="L91" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v xml:space="preserve">2005/4/27–2005/6/1: Dead Sea Scrolls to the Bible in America at the </v>
       </c>
       <c r="M91" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N91" s="47"/>
     </row>
@@ -13557,16 +13601,16 @@
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H92" s="12"/>
       <c r="I92" s="37"/>
@@ -13577,7 +13621,7 @@
         <v>2005/5/21–1900/1/0: The New Hebrew: A Century of Art in Israel at the Martin Gropius-Bau Museum</v>
       </c>
       <c r="M92" s="48" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N92" s="47"/>
     </row>
@@ -13599,23 +13643,23 @@
         <v>59</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="37"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L93" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2005/6/24–2005/8/31: Ink &amp; Blood: Dead Sea Scrolls to the English Bible at the Lexington Center</v>
       </c>
       <c r="M93" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N93" s="47"/>
     </row>
@@ -13637,10 +13681,10 @@
         <v>58</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="37"/>
@@ -13651,7 +13695,7 @@
         <v>2006/1/13–2006/5/13: Ink &amp; Blood: Sacred Treasures of the Bible at the Florida International Museum</v>
       </c>
       <c r="M94" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N94" s="47"/>
     </row>
@@ -13673,7 +13717,7 @@
         <v>56</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="12"/>
@@ -13685,7 +13729,7 @@
         <v>2006/2/17–2006/5/29: Cradle of Christianity: Treasures from the Holy Land at the Discovery Place</v>
       </c>
       <c r="M95" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N95" s="47"/>
     </row>
@@ -13707,7 +13751,7 @@
         <v>55</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="12"/>
@@ -13719,7 +13763,7 @@
         <v>2006/4/1–2006/10/22: The Dead Sea Scrolls at the Maltz Museum of Jewish Heritage</v>
       </c>
       <c r="M96" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N96" s="47"/>
     </row>
@@ -13741,23 +13785,23 @@
         <v>54</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="37"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L97" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2006/5/26–2006/9/27: Ink &amp; Blood: Dead Sea Scrolls to the English Bible at the Museum of Arts &amp; Sciences</v>
       </c>
       <c r="M97" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N97" s="47"/>
     </row>
@@ -13779,25 +13823,25 @@
         <v>53</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I98" s="37"/>
       <c r="J98" s="12"/>
       <c r="K98" s="51" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="L98" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2006/9/23–2007/1/7: Discovering the Dead Sea Scrolls at the Pacific Science Center</v>
       </c>
       <c r="M98" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N98" s="47"/>
     </row>
@@ -13819,7 +13863,7 @@
         <v>51</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="12"/>
@@ -13831,7 +13875,7 @@
         <v>2006/12/7–2007/4/15: Cradle of Christianity: Treasures from the Holy Land at the Museum of Art</v>
       </c>
       <c r="M99" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N99" s="47"/>
     </row>
@@ -13853,7 +13897,7 @@
         <v>50</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="12"/>
@@ -13865,7 +13909,7 @@
         <v>2007/2/8–2007/5/13: Exhibition at the Union Station</v>
       </c>
       <c r="M100" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N100" s="47"/>
     </row>
@@ -13887,23 +13931,23 @@
         <v>45</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="37"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L101" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/2/16–2007/5/28: Ink &amp; Blood: Dead Sea Scrolls to the King James Bible at the Museum of Idaho</v>
       </c>
       <c r="M101" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N101" s="47"/>
     </row>
@@ -13937,7 +13981,7 @@
         <v>2007/4/27–2007/9/23: Sacred: Discover What we Share at the British Museum</v>
       </c>
       <c r="M102" s="48" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N102" s="47"/>
     </row>
@@ -13959,7 +14003,7 @@
         <v>43</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="12"/>
@@ -13971,11 +14015,11 @@
         <v>2007/6/16–2007/10/14: Cradle of Christianity: Treasures from the Holy Land at the Michael C. Carlos Museum of Emory University</v>
       </c>
       <c r="M103" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N103" s="47"/>
     </row>
-    <row r="104" spans="1:14" ht="28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -13993,7 +14037,7 @@
         <v>41</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>36</v>
@@ -14007,7 +14051,7 @@
         <v>2007/6/20–2007/6/22: Dead Sea Scrolls and Ancient Material at the Church of Acts</v>
       </c>
       <c r="M104" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N104" s="47"/>
     </row>
@@ -14029,25 +14073,25 @@
         <v>40</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="12"/>
       <c r="I105" s="37"/>
       <c r="J105" s="12"/>
       <c r="K105" s="51" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L105" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/6/29–2008/1/6: Dead Sea Scrolls: From Scroll to Codex at the Natural History Museum</v>
       </c>
       <c r="M105" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N105" s="47"/>
     </row>
-    <row r="106" spans="1:14" ht="28" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A106" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14065,7 +14109,7 @@
         <v>38</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>36</v>
@@ -14079,7 +14123,7 @@
         <v>2007/8/11–2007/8/11: Dead Sea Scrolls and Ancient Material at the Suncoast Cathedral</v>
       </c>
       <c r="M106" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N106" s="47"/>
     </row>
@@ -14101,7 +14145,7 @@
         <v>38</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>36</v>
@@ -14115,7 +14159,7 @@
         <v>2007/10/7–2007/10/15: Dead Sea Scrolls and Ancient Material at the Suncoast Cathedral</v>
       </c>
       <c r="M107" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N107" s="47"/>
     </row>
@@ -14131,31 +14175,31 @@
         <v>39603</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="37"/>
       <c r="J108" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L108" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2007/12/5–2008/6/4: The Dead Sea Scrolls and the Birth of Christianity at the War Memorial of Korea</v>
       </c>
       <c r="M108" s="48" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="N108" s="47"/>
     </row>
@@ -14174,10 +14218,10 @@
         <v>35</v>
       </c>
       <c r="E109" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>60</v>
@@ -14191,7 +14235,7 @@
         <v>2008/2/9–2008/8/10: Highlights from the Israel Antiquities Authority: The Dead Sea Scrolls and 5,000 Years of Treasures at the Fine Arts Museum</v>
       </c>
       <c r="M109" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N109" s="47"/>
     </row>
@@ -14207,7 +14251,7 @@
         <v>39670</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>32</v>
@@ -14225,7 +14269,7 @@
         <v>2008/6/28–2008/8/10: The Birth of Christianity: A Jewish Story at the Museum of Natural Sciences</v>
       </c>
       <c r="M110" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N110" s="47"/>
     </row>
@@ -14241,13 +14285,13 @@
         <v>39817</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="12"/>
@@ -14259,11 +14303,11 @@
         <v>2008/9/21–2009/1/4: The Dead Sea Scrolls: Mysteries of the Ancient World at the Jewish Museum</v>
       </c>
       <c r="M111" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N111" s="47"/>
     </row>
-    <row r="112" spans="1:14" ht="43" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A112" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2000</v>
@@ -14284,7 +14328,7 @@
         <v>30</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H112" s="12"/>
       <c r="I112" s="37"/>
@@ -14295,7 +14339,7 @@
         <v>2009/2/1–2009/6/1: Ink &amp; Blood: Dead Sea Scrolls to Gutenberg at the Mary G. Hardin Center for Cultural Arts</v>
       </c>
       <c r="M112" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N112" s="47"/>
     </row>
@@ -14317,10 +14361,10 @@
         <v>34</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H113" s="12"/>
       <c r="I113" s="37"/>
@@ -14331,7 +14375,7 @@
         <v>2009/2/1–2009/2/1: Dead Sea Scrolls to the Bible in America at the Christ Church of the Valley</v>
       </c>
       <c r="M113" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N113" s="47"/>
     </row>
@@ -14365,7 +14409,7 @@
         <v>2009/6/6–2009/11/6: Heritage of the Holy Land at the Museum of Fine Arts</v>
       </c>
       <c r="M114" s="48" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="N114" s="47"/>
     </row>
@@ -14390,29 +14434,29 @@
         <v>26</v>
       </c>
       <c r="G115" s="52" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I115" s="36">
         <v>331000</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>447</v>
+        <v>532</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L115" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2009/6/27–2009/10/9: Dead Sea Scrolls: Words that Changed the World at the Royal Ontario Museum</v>
       </c>
       <c r="M115" s="48" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N115" s="75" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="P115" s="54"/>
       <c r="Q115" s="54"/>
@@ -14453,28 +14497,28 @@
         <v>26</v>
       </c>
       <c r="G116" s="57" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="H116" s="59" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="I116" s="60">
         <v>331000</v>
       </c>
       <c r="J116" s="61" t="s">
-        <v>447</v>
+        <v>532</v>
       </c>
       <c r="K116" s="61" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="L116" s="62" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="M116" s="63" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N116" s="47" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="P116" s="54"/>
       <c r="Q116" s="54"/>
@@ -14515,28 +14559,28 @@
         <v>26</v>
       </c>
       <c r="G117" s="57" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="H117" s="59" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="I117" s="60">
         <v>331000</v>
       </c>
       <c r="J117" s="61" t="s">
-        <v>447</v>
+        <v>532</v>
       </c>
       <c r="K117" s="61" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="L117" s="62" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="M117" s="63" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N117" s="47" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="118" spans="1:33" ht="30" x14ac:dyDescent="0.2">
@@ -14560,7 +14604,7 @@
         <v>24</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="H118" s="12"/>
       <c r="I118" s="37"/>
@@ -14571,7 +14615,7 @@
         <v>2009/8/28–2009/9/20: The Dead Sea Scrolls &amp; the Ancient World at the The Arts House</v>
       </c>
       <c r="M118" s="48" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="N118" s="47"/>
     </row>
@@ -14605,7 +14649,7 @@
         <v>2010/1/22–2010/6/6: Dead Sea Scrolls and the Bible at the Milwaukee Public Museum</v>
       </c>
       <c r="M119" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N119" s="47"/>
     </row>
@@ -14624,13 +14668,13 @@
         <v>14</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H120" s="12"/>
       <c r="I120" s="37"/>
@@ -14641,7 +14685,7 @@
         <v>2010/2/17–2010/3/4: Ink &amp; Blood: Dead Sea Scrolls to Gutenberg at the Pope John Paul II High School</v>
       </c>
       <c r="M120" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N120" s="47"/>
     </row>
@@ -14657,11 +14701,11 @@
         <v>40475</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G121" s="8"/>
       <c r="H121" s="12"/>
@@ -14673,7 +14717,7 @@
         <v xml:space="preserve">2010/3/12–2010/10/24: The Dead Sea Scrolls: Words that Changed the World at the </v>
       </c>
       <c r="M121" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N121" s="47"/>
     </row>
@@ -14692,28 +14736,28 @@
         <v>79</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I122" s="37"/>
       <c r="J122" s="12"/>
       <c r="K122" s="51" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="L122" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/4/8–2010/5/15: Dead Sea Scrolls to the Bible in America at the Bayside Church Granite Bay Campus</v>
       </c>
       <c r="M122" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N122" s="47"/>
     </row>
@@ -14729,31 +14773,31 @@
         <v>40419</v>
       </c>
       <c r="D123" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F123" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="G123" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="H123" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="I123" s="37"/>
       <c r="J123" s="12"/>
       <c r="K123" s="51" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="L123" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/5/21–2010/8/29: Treasures of the Bible: The Dead Sea Scrolls and Beyond at the Azusa Pacific University</v>
       </c>
       <c r="M123" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N123" s="47"/>
     </row>
@@ -14769,29 +14813,29 @@
         <v>40370</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H124" s="12"/>
       <c r="I124" s="37"/>
       <c r="J124" s="12"/>
       <c r="K124" s="51" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="L124" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/6/1–2010/7/11: Qumran - Le Secret des Manuscrits de la Mer Morte at the Bibliotheque Nationale</v>
       </c>
       <c r="M124" s="48" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N124" s="47"/>
     </row>
@@ -14807,29 +14851,29 @@
         <v>40512</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H125" s="12"/>
       <c r="I125" s="37"/>
       <c r="J125" s="12"/>
       <c r="K125" s="51" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="L125" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2010/10/20–2010/11/30: Origins at the 449 West Parks Highway</v>
       </c>
       <c r="M125" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N125" s="47"/>
     </row>
@@ -14845,29 +14889,29 @@
         <v>40664</v>
       </c>
       <c r="D126" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F126" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="G126" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="H126" s="12"/>
       <c r="I126" s="37"/>
       <c r="J126" s="12"/>
       <c r="K126" s="51" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="L126" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/1/27–2011/5/1: Bible in English at the Gerber Academic Building at Ashland Theological Seminary</v>
       </c>
       <c r="M126" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N126" s="47"/>
     </row>
@@ -14883,29 +14927,29 @@
         <v>40642</v>
       </c>
       <c r="D127" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="G127" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="H127" s="12"/>
       <c r="I127" s="37"/>
       <c r="J127" s="12"/>
       <c r="K127" s="51" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="L127" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/4/7–2011/4/9: 400th Anniversary: The King James Bible and the World it Made at the Baylor University</v>
       </c>
       <c r="M127" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N127" s="47"/>
     </row>
@@ -14921,29 +14965,29 @@
         <v>40832</v>
       </c>
       <c r="D128" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E128" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="G128" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H128" s="12"/>
       <c r="I128" s="37"/>
       <c r="J128" s="12"/>
       <c r="K128" s="51" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="L128" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/5/16–2011/10/16: Passages at the Oklahoma City Museum of Art</v>
       </c>
       <c r="M128" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N128" s="47"/>
     </row>
@@ -14959,29 +15003,29 @@
         <v>40841</v>
       </c>
       <c r="D129" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="G129" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="H129" s="12"/>
       <c r="I129" s="37"/>
       <c r="J129" s="12"/>
       <c r="K129" s="51" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L129" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/10/24–2011/10/25: Bible &amp; Literature Missionary Foundation's 43rd annual Scripture Conference at the Victory Baptist Church</v>
       </c>
       <c r="M129" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N129" s="47"/>
     </row>
@@ -14997,33 +15041,33 @@
         <v>41014</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H130" s="12"/>
       <c r="I130" s="37"/>
       <c r="J130" s="12"/>
       <c r="K130" s="51" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L130" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/10/28–2012/4/15: Dead Sea Scrolls: Life and Faith in Ancient Times at the Discovery Times Square</v>
       </c>
       <c r="M130" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N130" s="47"/>
     </row>
-    <row r="131" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A131" s="15">
         <f>IF(DDSExhibitions[[#This Row],[Start Date]]="","",FLOOR(YEAR(DDSExhibitions[[#This Row],[Start Date]]),10))</f>
         <v>2010</v>
@@ -15035,29 +15079,29 @@
         <v>41090</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H131" s="12"/>
       <c r="I131" s="37"/>
       <c r="J131" s="12"/>
       <c r="K131" s="51" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="L131" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2011/11/19–2012/6/30: Passages at the Perimeter Expo Center</v>
       </c>
       <c r="M131" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N131" s="47"/>
     </row>
@@ -15076,26 +15120,26 @@
         <v>14</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="37"/>
       <c r="J132" s="12"/>
       <c r="K132" s="51" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="L132" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/2/3–2012/9/9: Ink &amp; Blood: Dead Sea Scrolls to Gutenberg at the Muzeo Museum and Cultural Center</v>
       </c>
       <c r="M132" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N132" s="47"/>
     </row>
@@ -15111,29 +15155,29 @@
         <v>41196</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E133" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E133" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="F133" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H133" s="12"/>
       <c r="I133" s="37"/>
       <c r="J133" s="12"/>
       <c r="K133" s="51" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L133" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/5/12–2012/10/14: Dead Sea Scrolls: Life and Faith in Ancient Times at the Franklin Institute</v>
       </c>
       <c r="M133" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N133" s="47"/>
     </row>
@@ -15149,7 +15193,7 @@
         <v>41287</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>91</v>
@@ -15158,22 +15202,22 @@
         <v>92</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I134" s="37"/>
       <c r="J134" s="12"/>
       <c r="K134" s="12" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L134" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/7/2–2013/1/13: Dead Sea Scrolls &amp; the Bible: Ancient Artefacts, Timeless Treasures at the Southwestern Baptist Theological Seminary</v>
       </c>
       <c r="M134" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N134" s="47"/>
     </row>
@@ -15189,16 +15233,16 @@
         <v>41363</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H135" s="12"/>
       <c r="I135" s="37"/>
@@ -15209,7 +15253,7 @@
         <v>2012/9/12–2013/3/30: Passages at the 8405 IBM Drive</v>
       </c>
       <c r="M135" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N135" s="47"/>
     </row>
@@ -15225,29 +15269,29 @@
         <v>41378</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="37"/>
       <c r="J136" s="12"/>
       <c r="K136" s="51" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="L136" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2012/11/16–2013/4/14: Dead Sea Scrolls: Life and Faith in Ancient Times at the Cincinnati Museum Center</v>
       </c>
       <c r="M136" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N136" s="47"/>
     </row>
@@ -15264,13 +15308,13 @@
         <v>5</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>70</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H137" s="12"/>
       <c r="I137" s="37"/>
@@ -15281,7 +15325,7 @@
         <v>2013/1/14–1900/1/0: Exhibition at the Lanier Theological Library</v>
       </c>
       <c r="M137" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N137" s="47"/>
     </row>
@@ -15297,16 +15341,16 @@
         <v>41671</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="37"/>
@@ -15317,7 +15361,7 @@
         <v>2013/3/1–2014/2/1: Passages at the 3979 Palmer Park Boulevard</v>
       </c>
       <c r="M138" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N138" s="47"/>
     </row>
@@ -15333,16 +15377,16 @@
         <v>41567</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H139" s="12"/>
       <c r="I139" s="37"/>
@@ -15353,7 +15397,7 @@
         <v>2013/5/19–2013/10/20: Dead Sea Scrolls: Life and Faith in Ancient Times at the Museum of Science</v>
       </c>
       <c r="M139" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N139" s="47"/>
     </row>
@@ -15369,16 +15413,16 @@
         <v>41756</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="37"/>
@@ -15389,7 +15433,7 @@
         <v>2013/11/22–2014/4/27: Dead Sea Scrolls: Life and Faith in Ancient Times at the The Leonardo</v>
       </c>
       <c r="M140" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N140" s="47"/>
     </row>
@@ -15406,13 +15450,13 @@
         <v>5</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="H141" s="12"/>
       <c r="I141" s="37"/>
@@ -15423,7 +15467,7 @@
         <v>2014/1/1–1900/1/0: Exhibition at the The Jordan Museum</v>
       </c>
       <c r="M141" s="48" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="N141" s="47"/>
     </row>
@@ -15439,16 +15483,16 @@
         <v>41812</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>267</v>
+        <v>531</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="37"/>
@@ -15456,10 +15500,10 @@
       <c r="K142" s="12"/>
       <c r="L142" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
-        <v>2014/4/2–2014/6/22: Verbum Domini II at the Braccio di Carlo Magno museum</v>
+        <v>2014/4/2–2014/6/22: Verbum Domini II at the Braccio di Carlo Magno Museum</v>
       </c>
       <c r="M142" s="48" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="N142" s="47"/>
     </row>
@@ -15475,16 +15519,16 @@
         <v>42007</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H143" s="12"/>
       <c r="I143" s="37"/>
@@ -15495,7 +15539,7 @@
         <v>2014/4/12–2015/1/3: Passages at the 3534 E. Sunshine St</v>
       </c>
       <c r="M143" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N143" s="47"/>
     </row>
@@ -15511,29 +15555,29 @@
         <v>42029</v>
       </c>
       <c r="D144" s="72" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="E144" s="73" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="37"/>
       <c r="J144" s="12"/>
       <c r="K144" s="74" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="L144" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2014/11/4–2015/1/25: Temple, Scrolls, and Divine Messengers: Archaeology of the Land of Israel in Roman Times at the Chantal Miller Gallery</v>
       </c>
       <c r="M144" s="48" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N144" s="47"/>
     </row>
@@ -15549,16 +15593,16 @@
         <v>42462</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="37"/>
@@ -15569,7 +15613,7 @@
         <v>2015/3/3–2016/4/2: Passages at the 26565 Bouquet canyon rd</v>
       </c>
       <c r="M145" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N145" s="47"/>
     </row>
@@ -15585,29 +15629,29 @@
         <v>42254</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="37"/>
       <c r="J146" s="12"/>
       <c r="K146" s="12" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="L146" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2015/3/10–2015/9/7: Dead Sea Scrolls: Life and Faith in Ancient Times at the California Science Center</v>
       </c>
       <c r="M146" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N146" s="47"/>
     </row>
@@ -15623,16 +15667,16 @@
         <v>42217</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>183</v>
+        <v>528</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="37"/>
@@ -15643,7 +15687,7 @@
         <v>2015/7/11–2015/8/1: Los Destacados de la Museum Collections at the Pontifical Catholic University of Argentina</v>
       </c>
       <c r="M147" s="48" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="N147" s="47"/>
     </row>
@@ -15659,16 +15703,16 @@
         <v>42276</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="37"/>
@@ -15679,7 +15723,7 @@
         <v>2015/9/21–2015/9/29: Verbum Domini II at the Pennsylvania Convetion Center</v>
       </c>
       <c r="M148" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N148" s="47"/>
     </row>
@@ -15695,29 +15739,29 @@
         <v>42686</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="37"/>
       <c r="J149" s="12"/>
       <c r="K149" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L149" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2016/11/2–2016/11/12: 2000 Years of Jewish Culture: An Exhibition of Books, Manuscripts, Art and Jewelry at the Shapero Rare Books</v>
       </c>
       <c r="M149" s="48" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N149" s="47"/>
     </row>
@@ -15733,16 +15777,16 @@
         <v>42868</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="37"/>
@@ -15753,7 +15797,7 @@
         <v>2017/4/7–2017/5/13: Unser Buch at the Augsburger Rathaus</v>
       </c>
       <c r="M150" s="48" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N150" s="47"/>
     </row>
@@ -15778,20 +15822,20 @@
         <v>21</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H151" s="12"/>
       <c r="I151" s="37"/>
       <c r="J151" s="12"/>
       <c r="K151" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L151" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2017/9/21–2017/9/22: Biblical Heritage Archive Traveling Museum at the Fairhaven Baptist College</v>
       </c>
       <c r="M151" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N151" s="47"/>
     </row>
@@ -15813,23 +15857,23 @@
         <v>20</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H152" s="12"/>
       <c r="I152" s="37"/>
       <c r="J152" s="12"/>
       <c r="K152" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L152" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2017/10/28–2017/10/28: Biblical Heritage Archive Traveling Museum at the Waukesha County Expo Center</v>
       </c>
       <c r="M152" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N152" s="47"/>
     </row>
@@ -15846,26 +15890,26 @@
         <v>5</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="40"/>
       <c r="J153" s="19"/>
       <c r="K153" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L153" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2017/11/17–1900/1/0: Exhibition at the Museum of the Bible</v>
       </c>
       <c r="M153" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N153" s="47"/>
     </row>
@@ -15881,16 +15925,16 @@
         <v>43346</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H154" s="12"/>
       <c r="I154" s="37"/>
@@ -15901,7 +15945,7 @@
         <v>2018/3/16–2018/9/3: Dead Sea Scrolls: Life and Faith in Ancient Times at the Denver Museum of Nature and Science</v>
       </c>
       <c r="M154" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N154" s="47"/>
     </row>
@@ -15926,20 +15970,20 @@
         <v>18</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H155" s="12"/>
       <c r="I155" s="37"/>
       <c r="J155" s="12"/>
       <c r="K155" s="12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L155" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2019/10/8–2019/10/9: Biblical Heritage Archive Traveling Museum at the VCY Headquarters</v>
       </c>
       <c r="M155" s="50" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N155" s="47"/>
     </row>
@@ -15958,26 +16002,26 @@
         <v>5</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H156" s="12"/>
       <c r="I156" s="37"/>
       <c r="J156" s="12"/>
       <c r="K156" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L156" s="26" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2022/11/7–2022/11/10: Exhibition at the Aguttes Auction House</v>
       </c>
       <c r="M156" s="48" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N156" s="47"/>
     </row>
@@ -15996,26 +16040,26 @@
         <v>5</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F157" s="16" t="s">
         <v>138</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="40"/>
       <c r="J157" s="19"/>
       <c r="K157" s="19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L157" s="27" t="str">
         <f>CONCATENATE(YEAR(DDSExhibitions[[#This Row],[Start Date]]),"/",MONTH(DDSExhibitions[[#This Row],[Start Date]]),"/",DAY(DDSExhibitions[[#This Row],[Start Date]]),"–",YEAR(DDSExhibitions[[#This Row],[End Date]]),"/",MONTH(DDSExhibitions[[#This Row],[End Date]]),"/",DAY(DDSExhibitions[[#This Row],[End Date]]),": ",DDSExhibitions[[#This Row],[Exhibition]]," at the ",DDSExhibitions[[#This Row],[Venue]])</f>
         <v>2022/11/14–2022/11/15: Exhibition at the Aguttes Auction House</v>
       </c>
       <c r="M157" s="48" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N157" s="47"/>
     </row>
